--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34777E6-DC6F-594E-B009-CA49A57C659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF36FDD4-718F-6E4C-BF6A-AAC80677AC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats2" sheetId="5" r:id="rId1"/>
@@ -106,21 +106,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>NUT1012 - Susana Ortiz Costa</t>
-  </si>
-  <si>
-    <t>EDF1092 - Bruno Ferreira Viana</t>
-  </si>
-  <si>
-    <t>FTO1063 - Luis Felipe da Fonseca Reis</t>
-  </si>
-  <si>
-    <t>FTO1085 - Anke Bergmann</t>
-  </si>
-  <si>
-    <t>FTO1140 - Igor Ramathur Telles de Jesus</t>
-  </si>
-  <si>
     <t>Total de fomentos</t>
   </si>
   <si>
@@ -703,69 +688,6 @@
     <t>http://www.faperj.br/downloads/Resultado_Final_Bolsas_de_Iniciação_Cientifica_2019_02.pdf</t>
   </si>
   <si>
-    <t>FTO1109 - André Luis dos Santos Silva</t>
-  </si>
-  <si>
-    <t>FTO1084 - Cristina Márcia Dias</t>
-  </si>
-  <si>
-    <t>EDF1069 - Miíriam Raquel Meira Mainenti</t>
-  </si>
-  <si>
-    <t>FTO1106 - Antonio Guilherme Fonseca Pacheco</t>
-  </si>
-  <si>
-    <t>FTO1075 - Sara Lucia Silveira de Menezes</t>
-  </si>
-  <si>
-    <t>FTO1079 - Julio Guilherne Silva</t>
-  </si>
-  <si>
-    <t>FTO1083 - Fernando Silva Guimarães</t>
-  </si>
-  <si>
-    <t>FTO1096 - Arthur de Sá Ferreira</t>
-  </si>
-  <si>
-    <t>FTO1101 - Agnaldo José Lopes</t>
-  </si>
-  <si>
-    <t>FTO1107 - Erika de Carvalho Rodrigues</t>
-  </si>
-  <si>
-    <t>FTO1111 - Laura Alice Santos de Oliveira</t>
-  </si>
-  <si>
-    <t>FTO1116 - Marco Antonio Orsini Neves</t>
-  </si>
-  <si>
-    <t>FTO1117 - Lilian Ramiro Felício</t>
-  </si>
-  <si>
-    <t>EDF1074 - Patrícia dos Santos Vigário</t>
-  </si>
-  <si>
-    <t>EDF1078 - Alex Souto Maior</t>
-  </si>
-  <si>
-    <t>FTO1124 - Leandro Alberto Calazans Nogueira</t>
-  </si>
-  <si>
-    <t>EDF1084 - Thiago Lemos de Carvalho</t>
-  </si>
-  <si>
-    <t>EDF1087 - Felipe Amorim da Cunha</t>
-  </si>
-  <si>
-    <t>FTO1137 - Ney Armando de Mello Meziat Filho</t>
-  </si>
-  <si>
-    <t>FTO1152 - Renato Santos de Almeida</t>
-  </si>
-  <si>
-    <t>FTO1093 - Juliana Flávia de Oliveira</t>
-  </si>
-  <si>
     <t>E-26/200.503/2019</t>
   </si>
   <si>
@@ -805,9 +727,6 @@
     <t>Fonte</t>
   </si>
   <si>
-    <t>FTO1157 - Luciana Crepaldi Lunkes</t>
-  </si>
-  <si>
     <t>2021-1</t>
   </si>
   <si>
@@ -947,6 +866,87 @@
   </si>
   <si>
     <t>Tabela 1: Distribuição dos fomentos recebidos por docente do Programa (2006-atual).</t>
+  </si>
+  <si>
+    <t>Cristina Márcia Dias</t>
+  </si>
+  <si>
+    <t>Arthur de Sá Ferreira</t>
+  </si>
+  <si>
+    <t>André Luis dos Santos Silva</t>
+  </si>
+  <si>
+    <t>Juliana Flávia de Oliveira</t>
+  </si>
+  <si>
+    <t>Patrícia dos Santos Vigário</t>
+  </si>
+  <si>
+    <t>Miíriam Raquel Meira Mainenti</t>
+  </si>
+  <si>
+    <t>Lilian Ramiro Felício</t>
+  </si>
+  <si>
+    <t>Thiago Lemos de Carvalho</t>
+  </si>
+  <si>
+    <t>Agnaldo José Lopes</t>
+  </si>
+  <si>
+    <t>Laura Alice Santos de Oliveira</t>
+  </si>
+  <si>
+    <t>Fernando Silva Guimarães</t>
+  </si>
+  <si>
+    <t>Susana Ortiz Costa</t>
+  </si>
+  <si>
+    <t>Alex Souto Maior</t>
+  </si>
+  <si>
+    <t>Erika de Carvalho Rodrigues</t>
+  </si>
+  <si>
+    <t>Ney Armando de Mello Meziat Filho</t>
+  </si>
+  <si>
+    <t>Leandro Alberto Calazans Nogueira</t>
+  </si>
+  <si>
+    <t>Sara Lucia Silveira de Menezes</t>
+  </si>
+  <si>
+    <t>Julio Guilherne Silva</t>
+  </si>
+  <si>
+    <t>Renato Santos de Almeida</t>
+  </si>
+  <si>
+    <t>Felipe Amorim da Cunha</t>
+  </si>
+  <si>
+    <t>Bruno Ferreira Viana</t>
+  </si>
+  <si>
+    <t>Luis Felipe da Fonseca Reis</t>
+  </si>
+  <si>
+    <t>Anke Bergmann</t>
+  </si>
+  <si>
+    <t>Antonio Guilherme Fonseca Pacheco</t>
+  </si>
+  <si>
+    <t>Marco Antonio Orsini Neves</t>
+  </si>
+  <si>
+    <t>FTO1140 -Igor Ramathur Telles de Jesus</t>
+  </si>
+  <si>
+    <t>Luciana Crepaldi Lunkes</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1908,7 +1908,7 @@
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="65" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -1989,7 +1989,7 @@
       <c r="Q4" s="62"/>
       <c r="R4" s="62"/>
       <c r="S4" s="62" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="T4" s="62"/>
       <c r="U4" s="62"/>
@@ -2062,7 +2062,7 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="56" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54" t="str">
@@ -2146,7 +2146,7 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="56" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54" t="str">
@@ -2230,7 +2230,7 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="47" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="51" t="str">
@@ -2314,7 +2314,7 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="46" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="51" t="str">
@@ -2398,7 +2398,7 @@
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="46" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="51" t="str">
@@ -2482,7 +2482,7 @@
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="46" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="51" t="str">
@@ -2566,7 +2566,7 @@
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="47" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="51" t="str">
@@ -2650,7 +2650,7 @@
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="46" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="51" t="str">
@@ -2734,7 +2734,7 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="46" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="51" t="str">
@@ -2818,7 +2818,7 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="46" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="51" t="str">
@@ -2902,7 +2902,7 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="46" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="51" t="str">
@@ -2986,7 +2986,7 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="46" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="51">
@@ -3070,7 +3070,7 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="46" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="51" t="str">
@@ -3154,7 +3154,7 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="46" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="51" t="str">
@@ -3238,7 +3238,7 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="47" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="51" t="str">
@@ -3322,7 +3322,7 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="46" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="51" t="str">
@@ -3406,7 +3406,7 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="46" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="51" t="str">
@@ -3490,7 +3490,7 @@
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="46" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="51" t="str">
@@ -3574,7 +3574,7 @@
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="46" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="51" t="str">
@@ -3658,7 +3658,7 @@
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="47" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="51" t="str">
@@ -3742,7 +3742,7 @@
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="46" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="51" t="str">
@@ -3826,7 +3826,7 @@
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="47" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="51" t="str">
@@ -3910,7 +3910,7 @@
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="46" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="51" t="str">
@@ -3994,7 +3994,7 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="47" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="51" t="str">
@@ -4078,7 +4078,7 @@
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="46" t="s">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="51" t="str">
@@ -4162,7 +4162,7 @@
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="46" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="51" t="str">
@@ -4246,7 +4246,7 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="46" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="51" t="str">
@@ -4330,7 +4330,7 @@
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="57" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="52" t="str">
@@ -4414,7 +4414,7 @@
     <row r="34" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="67" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="39">
@@ -4580,7 +4580,7 @@
     <row r="36" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="48" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="63">
@@ -4782,86 +4782,86 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(financiadores!A2," -  ",financiadores!B2," (",financiadores!D2,"): ",financiadores!E2,". ",financiadores!F2,". R$",FIXED(financiadores!H2,2)," - ",financiadores!J2)</f>
-        <v>2006 -  FAPERJ (E-26/171.421/2006): Atividade eletromiográfica do diafragma e do esternocleidomastóide durante a realização da espirometria de incentivo e do breath-stacking em indivíduos submetidos á cirurgia abdominal. Auxílio à Pesquisa (APQ1). R$8.500,00 - FTO1084 - Cristina Márcia Dias</v>
+        <v>2006 -  FAPERJ (E-26/171.421/2006): Atividade eletromiográfica do diafragma e do esternocleidomastóide durante a realização da espirometria de incentivo e do breath-stacking em indivíduos submetidos á cirurgia abdominal. Auxílio à Pesquisa (APQ1). R$8.500,00 - Cristina Márcia Dias</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(financiadores!A3," -  ",financiadores!B3," (",financiadores!D3,"): ",financiadores!E3,". ",financiadores!F3,". R$",FIXED(financiadores!H3,2)," - ",financiadores!J3)</f>
-        <v>2007 -  FAPERJ (E-26/170.783/2007): Estudo da pressão arterial não-invasiva durante a realização de exercicios isotônicos e isométricos em indivíduos com hipertensão arterial sistêmica. Auxílio à Pesquisa (APQ1). R$8.440,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2007 -  FAPERJ (E-26/170.783/2007): Estudo da pressão arterial não-invasiva durante a realização de exercicios isotônicos e isométricos em indivíduos com hipertensão arterial sistêmica. Auxílio à Pesquisa (APQ1). R$8.440,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(financiadores!A4," -  ",financiadores!B4," (",financiadores!D4,"): ",financiadores!E4,". ",financiadores!F4,". R$",FIXED(financiadores!H4,2)," - ",financiadores!J4)</f>
-        <v>2008 -  FAPERJ (E-26/111.786/2008): Inclusão e autonomia através da reabilitação funcional de portadores de deficiências físicas - Lesões Neurológicas. Apoio à Construção da Cidadania da Pessoa com Deficiência. R$169.159,38 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2008 -  FAPERJ (E-26/111.786/2008): Inclusão e autonomia através da reabilitação funcional de portadores de deficiências físicas - Lesões Neurológicas. Apoio à Construção da Cidadania da Pessoa com Deficiência. R$169.159,38 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(financiadores!A5," -  ",financiadores!B5," (",financiadores!D5,"): ",financiadores!E5,". ",financiadores!F5,". R$",FIXED(financiadores!H5,2)," - ",financiadores!J5)</f>
-        <v>2009 -  FAPERJ (E-26/110.476/2010): Avaliação postural e eletromiográfica de idosos com disfunção vestibular periférica. Auxílio à Pesquisa (APQ1). R$7.000,00 - FTO1109 - André Luis dos Santos Silva</v>
+        <v>2009 -  FAPERJ (E-26/110.476/2010): Avaliação postural e eletromiográfica de idosos com disfunção vestibular periférica. Auxílio à Pesquisa (APQ1). R$7.000,00 - André Luis dos Santos Silva</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(financiadores!A6," -  ",financiadores!B6," (",financiadores!D6,"): ",financiadores!E6,". ",financiadores!F6,". R$",FIXED(financiadores!H6,2)," - ",financiadores!J6)</f>
-        <v>2010 -  FAPERJ (E-26/111.629/2010): Avaliação da capacidade funcional, da variabilidade da frequência cardíaca e da qualidade de vida pós-infarto agudo do miocárdio: comparação de dois protocolos de exercícios. Auxílio à Pesquisa (APQ1). R$5.063,00 - FTO1093 - Juliana Flávia de Oliveira</v>
+        <v>2010 -  FAPERJ (E-26/111.629/2010): Avaliação da capacidade funcional, da variabilidade da frequência cardíaca e da qualidade de vida pós-infarto agudo do miocárdio: comparação de dois protocolos de exercícios. Auxílio à Pesquisa (APQ1). R$5.063,00 - Juliana Flávia de Oliveira</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(financiadores!A7," -  ",financiadores!B7," (",financiadores!D7,"): ",financiadores!E7,". ",financiadores!F7,". R$",FIXED(financiadores!H7,2)," - ",financiadores!J7)</f>
-        <v>2010 -  FAPERJ (E-26/111.626/2010): Impacto da fisioterapia respiratória sobre a função pulmonar de pacientes críticos ventilados artificialmente. Auxílio à Pesquisa (APQ1). R$16.500,00 - FTO1084 - Cristina Márcia Dias</v>
+        <v>2010 -  FAPERJ (E-26/111.626/2010): Impacto da fisioterapia respiratória sobre a função pulmonar de pacientes críticos ventilados artificialmente. Auxílio à Pesquisa (APQ1). R$16.500,00 - Cristina Márcia Dias</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(financiadores!A8," -  ",financiadores!B8," (",financiadores!D8,"): ",financiadores!E8,". ",financiadores!F8,". R$",FIXED(financiadores!H8,2)," - ",financiadores!J8)</f>
-        <v>2011 -  FAPERJ (E-26/110.450/2012): Desenvolvimento e validação de exame complementar substituto para estimação imediata do índice ambulatorial de rigidez arterial. Auxílio à Pesquisa (APQ1). R$18.000,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2011 -  FAPERJ (E-26/110.450/2012): Desenvolvimento e validação de exame complementar substituto para estimação imediata do índice ambulatorial de rigidez arterial. Auxílio à Pesquisa (APQ1). R$18.000,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(financiadores!A9," -  ",financiadores!B9," (",financiadores!D9,"): ",financiadores!E9,". ",financiadores!F9,". R$",FIXED(financiadores!H9,2)," - ",financiadores!J9)</f>
-        <v>2012 -  FAPERJ (E-26/112.490/2012): Efeito do treinamento físico aeróbico na capacidade funcional de pacientes adultos com fibrose cística. Auxílio ao Pesquisador Recém-Contratado (ARC). R$9.975,00 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2012 -  FAPERJ (E-26/112.490/2012): Efeito do treinamento físico aeróbico na capacidade funcional de pacientes adultos com fibrose cística. Auxílio ao Pesquisador Recém-Contratado (ARC). R$9.975,00 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(financiadores!A10," -  ",financiadores!B10," (",financiadores!D10,"): ",financiadores!E10,". ",financiadores!F10,". R$",FIXED(financiadores!H10,2)," - ",financiadores!J10)</f>
-        <v>2012 -  FAPERJ (E-26/111.975/2011): Impacto da participação no projeto Universidade Aberta à Terceira Idade (UNATI-UNISUAM) na estabilidade e na composição de idosos. Auxílio ao Pesquisador Recém-Contratado (ARC). R$9.999,00 - EDF1069 - Miíriam Raquel Meira Mainenti</v>
+        <v>2012 -  FAPERJ (E-26/111.975/2011): Impacto da participação no projeto Universidade Aberta à Terceira Idade (UNATI-UNISUAM) na estabilidade e na composição de idosos. Auxílio ao Pesquisador Recém-Contratado (ARC). R$9.999,00 - Miíriam Raquel Meira Mainenti</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(financiadores!A11," -  ",financiadores!B11," (",financiadores!D11,"): ",financiadores!E11,". ",financiadores!F11,". R$",FIXED(financiadores!H11,2)," - ",financiadores!J11)</f>
-        <v>2012 -  FAPERJ (E-26/112.472/2012): Ativação muscular dos estabilizadores patelares e do quadril durante exercícios em cadeia cinética aberta e fechada associados à rotação lateral do quadril em indivíduos com síndrome da dor femoropatelar. Auxílio ao Pesquisador Recém-Contratado (ARC). R$10.000,00 - FTO1117 - Lilian Ramiro Felício</v>
+        <v>2012 -  FAPERJ (E-26/112.472/2012): Ativação muscular dos estabilizadores patelares e do quadril durante exercícios em cadeia cinética aberta e fechada associados à rotação lateral do quadril em indivíduos com síndrome da dor femoropatelar. Auxílio ao Pesquisador Recém-Contratado (ARC). R$10.000,00 - Lilian Ramiro Felício</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(financiadores!A12," -  ",financiadores!B12," (",financiadores!D12,"): ",financiadores!E12,". ",financiadores!F12,". R$",FIXED(financiadores!H12,2)," - ",financiadores!J12)</f>
-        <v>2012 -  FAPERJ (E-26/112.322/2012): VIII Fórum Nacional de Pesquisa e Pós Graduação Stricto Sensu em Fisioterapia. Auxílio à Organização de Evento Científico (APQ2). R$10.000,00 - FTO1084 - Cristina Márcia Dias</v>
+        <v>2012 -  FAPERJ (E-26/112.322/2012): VIII Fórum Nacional de Pesquisa e Pós Graduação Stricto Sensu em Fisioterapia. Auxílio à Organização de Evento Científico (APQ2). R$10.000,00 - Cristina Márcia Dias</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(financiadores!A13," -  ",financiadores!B13," (",financiadores!D13,"): ",financiadores!E13,". ",financiadores!F13,". R$",FIXED(financiadores!H13,2)," - ",financiadores!J13)</f>
-        <v>2012 -  FAPERJ (E-26/110.880/2013): Capacidade cardíaca em esforço, composição corporal, desempenho muscular e controle postural nos diferentes quartis da faixa de referência para o TSH sérico: avaliação seccional e efeito do uso do metimazol em uma população idosa. . Auxílio à Pesquisa (APQ1). R$20.000,00 - EDF1069 - Miíriam Raquel Meira Mainenti</v>
+        <v>2012 -  FAPERJ (E-26/110.880/2013): Capacidade cardíaca em esforço, composição corporal, desempenho muscular e controle postural nos diferentes quartis da faixa de referência para o TSH sérico: avaliação seccional e efeito do uso do metimazol em uma população idosa. . Auxílio à Pesquisa (APQ1). R$20.000,00 - Miíriam Raquel Meira Mainenti</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(financiadores!A14," -  ",financiadores!B14," (",financiadores!D14,"): ",financiadores!E14,". ",financiadores!F14,". R$",FIXED(financiadores!H14,2)," - ",financiadores!J14)</f>
-        <v>2012 -  FAPERJ (E-26/103.066/2012): Aplicação de Métodos e Modelos Computacionais na Avaliação e Intervenção em Ciências da Reabilitação. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2012 -  FAPERJ (E-26/103.066/2012): Aplicação de Métodos e Modelos Computacionais na Avaliação e Intervenção em Ciências da Reabilitação. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4885,7 +4885,7 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(financiadores!A18," -  ",financiadores!B18," (",financiadores!D18,"): ",financiadores!E18,". ",financiadores!F18,". R$",FIXED(financiadores!H18,2)," - ",financiadores!J18)</f>
-        <v>2013 -  CAPES (23038.000664/2013-70): Fórum Nacional de Pesquisa e Pós-Graduação Strictu Sensu em Fisioterapia. Programa de Auxílio a Eventos no País (PAEP). R$14.000,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2013 -  CAPES (23038.000664/2013-70): Fórum Nacional de Pesquisa e Pós-Graduação Strictu Sensu em Fisioterapia. Programa de Auxílio a Eventos no País (PAEP). R$14.000,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -4909,49 +4909,49 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(financiadores!A22," -  ",financiadores!B22," (",financiadores!D22,"): ",financiadores!E22,". ",financiadores!F22,". R$",FIXED(financiadores!H22,2)," - ",financiadores!J22)</f>
-        <v>2013 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$8.200,00 - EDF1084 - Thiago Lemos de Carvalho</v>
+        <v>2013 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$8.200,00 - Thiago Lemos de Carvalho</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(financiadores!A23," -  ",financiadores!B23," (",financiadores!D23,"): ",financiadores!E23,". ",financiadores!F23,". R$",FIXED(financiadores!H23,2)," - ",financiadores!J23)</f>
-        <v>2013 -  FAPERJ (E-26/110.351/2014): Análise cinemática da trajetória de indivíduos saudáveis durante o teste de caminhada de seis minutos para avaliação da capacidade funcional. Auxílio à Pesquisa (APQ1). R$6.000,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2013 -  FAPERJ (E-26/110.351/2014): Análise cinemática da trajetória de indivíduos saudáveis durante o teste de caminhada de seis minutos para avaliação da capacidade funcional. Auxílio à Pesquisa (APQ1). R$6.000,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(financiadores!A24," -  ",financiadores!B24," (",financiadores!D24,"): ",financiadores!E24,". ",financiadores!F24,". R$",FIXED(financiadores!H24,2)," - ",financiadores!J24)</f>
-        <v>2013 -  FAPERJ (E-26/111.315/2013): Avaliação da função pulmonar, capacidade funcional, equilíbrio e postura em pacientes portadores de acromegalia . Auxílio à Pesquisa (APQ1). R$11.088,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2013 -  FAPERJ (E-26/111.315/2013): Avaliação da função pulmonar, capacidade funcional, equilíbrio e postura em pacientes portadores de acromegalia . Auxílio à Pesquisa (APQ1). R$11.088,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(financiadores!A25," -  ",financiadores!B25," (",financiadores!D25,"): ",financiadores!E25,". ",financiadores!F25,". R$",FIXED(financiadores!H25,2)," - ",financiadores!J25)</f>
-        <v>2013 -  FAPERJ (E-26/111.654/2013): Benefícios da prática esportiva na capacidade cardiopulmonar e na composição corporal de pessoas com deficiência . Auxílio à Pesquisa (APQ1). R$19.159,47 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2013 -  FAPERJ (E-26/111.654/2013): Benefícios da prática esportiva na capacidade cardiopulmonar e na composição corporal de pessoas com deficiência . Auxílio à Pesquisa (APQ1). R$19.159,47 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(financiadores!A26," -  ",financiadores!B26," (",financiadores!D26,"): ",financiadores!E26,". ",financiadores!F26,". R$",FIXED(financiadores!H26,2)," - ",financiadores!J26)</f>
-        <v>2013 -  FAPERJ (E-26/111.465/2013): Treino em esteira com suporte parcial de peso em pacientes atáxicos: impacto sobre o consumo energético, a eficácia da marcha, o risco de quedas e a qualidade de vida. Auxílio à Pesquisa (APQ1). R$20.000,00 - FTO1111 - Laura Alice Santos de Oliveira</v>
+        <v>2013 -  FAPERJ (E-26/111.465/2013): Treino em esteira com suporte parcial de peso em pacientes atáxicos: impacto sobre o consumo energético, a eficácia da marcha, o risco de quedas e a qualidade de vida. Auxílio à Pesquisa (APQ1). R$20.000,00 - Laura Alice Santos de Oliveira</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(financiadores!A27," -  ",financiadores!B27," (",financiadores!D27,"): ",financiadores!E27,". ",financiadores!F27,". R$",FIXED(financiadores!H27,2)," - ",financiadores!J27)</f>
-        <v>2013 -  FAPERJ (E-26/111.416/2013): Função musculoesquelética, tolerância ao exercício e composição corporal em pacientes adultos com fibrose cística . Auxílio à Pesquisa (APQ1). R$21.121,64 - FTO1083 - Fernando Silva Guimarães</v>
+        <v>2013 -  FAPERJ (E-26/111.416/2013): Função musculoesquelética, tolerância ao exercício e composição corporal em pacientes adultos com fibrose cística . Auxílio à Pesquisa (APQ1). R$21.121,64 - Fernando Silva Guimarães</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(financiadores!A28," -  ",financiadores!B28," (",financiadores!D28,"): ",financiadores!E28,". ",financiadores!F28,". R$",FIXED(financiadores!H28,2)," - ",financiadores!J28)</f>
-        <v>2013 -  FAPERJ (E-26/111.400/2013- 5 ): Estimulação transcraniana por corrente contínua na reabilitação de pacientes pós-acidente vascular cerebral: ensaio clínico duplo-cego e randomizado. . Auxílio à Pesquisa (APQ1). R$25.500,00 - FTO1107 - Erika de Carvalho Rodrigues</v>
+        <v>2013 -  FAPERJ (E-26/111.400/2013- 5 ): Estimulação transcraniana por corrente contínua na reabilitação de pacientes pós-acidente vascular cerebral: ensaio clínico duplo-cego e randomizado. . Auxílio à Pesquisa (APQ1). R$25.500,00 - Erika de Carvalho Rodrigues</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(financiadores!A29," -  ",financiadores!B29," (",financiadores!D29,"): ",financiadores!E29,". ",financiadores!F29,". R$",FIXED(financiadores!H29,2)," - ",financiadores!J29)</f>
-        <v>2013 -  FAPERJ (E-26/190.228/2013): Otimização do treinamento paradesportivo através da avaliação fisiológica e biomecânica. Apoio ao Desenvolvimento de Inovações no Esporte do Estado do Rio de Janeiro. R$130.000,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2013 -  FAPERJ (E-26/190.228/2013): Otimização do treinamento paradesportivo através da avaliação fisiológica e biomecânica. Apoio ao Desenvolvimento de Inovações no Esporte do Estado do Rio de Janeiro. R$130.000,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -4963,61 +4963,61 @@
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(financiadores!A31," -  ",financiadores!B31," (",financiadores!D31,"): ",financiadores!E31,". ",financiadores!F31,". R$",FIXED(financiadores!H31,2)," - ",financiadores!J31)</f>
-        <v>2014 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - EDF1084 - Thiago Lemos de Carvalho</v>
+        <v>2014 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - Thiago Lemos de Carvalho</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f>CONCATENATE(financiadores!A32," -  ",financiadores!B32," (",financiadores!D32,"): ",financiadores!E32,". ",financiadores!F32,". R$",FIXED(financiadores!H32,2)," - ",financiadores!J32)</f>
-        <v>2014 -  FAPERJ (E-26/200.564/2015): Mapeamento do centro de pressão para avaliação das estratégias de controle postural em pacientes com síndrome pós-poliomielite. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2014 -  FAPERJ (E-26/200.564/2015): Mapeamento do centro de pressão para avaliação das estratégias de controle postural em pacientes com síndrome pós-poliomielite. Bolsa de Iniciação Científica (IC). R$5.040,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f>CONCATENATE(financiadores!A33," -  ",financiadores!B33," (",financiadores!D33,"): ",financiadores!E33,". ",financiadores!F33,". R$",FIXED(financiadores!H33,2)," - ",financiadores!J33)</f>
-        <v>2014 -  FAPERJ (E-26/010.003122/2014): I Simpósio Paralímpico Carioca. Auxílio à Organização de Evento Científico (APQ2). R$9.000,00 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2014 -  FAPERJ (E-26/010.003122/2014): I Simpósio Paralímpico Carioca. Auxílio à Organização de Evento Científico (APQ2). R$9.000,00 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f>CONCATENATE(financiadores!A34," -  ",financiadores!B34," (",financiadores!D34,"): ",financiadores!E34,". ",financiadores!F34,". R$",FIXED(financiadores!H34,2)," - ",financiadores!J34)</f>
-        <v>2014 -  FAPERJ (E-26/111.310/2014): Avaliação da função pulmonar, capacidade funcional, equilíbrio e postura em pacientes com esclerodermia . Auxílio à Pesquisa (APQ1). R$10.200,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2014 -  FAPERJ (E-26/111.310/2014): Avaliação da função pulmonar, capacidade funcional, equilíbrio e postura em pacientes com esclerodermia . Auxílio à Pesquisa (APQ1). R$10.200,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f>CONCATENATE(financiadores!A35," -  ",financiadores!B35," (",financiadores!D35,"): ",financiadores!E35,". ",financiadores!F35,". R$",FIXED(financiadores!H35,2)," - ",financiadores!J35)</f>
-        <v>2014 -  FAPERJ (E-26/111.342/2014): Características antropométricas, composição corporal e desempenho esportivo em atletas de rugby em cadeira de rodas . Auxílio à Pesquisa (APQ1). R$12.100,00 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2014 -  FAPERJ (E-26/111.342/2014): Características antropométricas, composição corporal e desempenho esportivo em atletas de rugby em cadeira de rodas . Auxílio à Pesquisa (APQ1). R$12.100,00 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f>CONCATENATE(financiadores!A36," -  ",financiadores!B36," (",financiadores!D36,"): ",financiadores!E36,". ",financiadores!F36,". R$",FIXED(financiadores!H36,2)," - ",financiadores!J36)</f>
-        <v>2014 -  FAPERJ (E-26/010.001922/2014): Projeto UNATI/UNISUAM: integrando os idosos no ambiente universitário. Apoio a Projetos de Extensão e Pesquisa (EXTPESQ). R$14.223,00 - NUT1012 - Susana Ortiz Costa</v>
+        <v>2014 -  FAPERJ (E-26/010.001922/2014): Projeto UNATI/UNISUAM: integrando os idosos no ambiente universitário. Apoio a Projetos de Extensão e Pesquisa (EXTPESQ). R$14.223,00 - Susana Ortiz Costa</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f>CONCATENATE(financiadores!A37," -  ",financiadores!B37," (",financiadores!D37,"): ",financiadores!E37,". ",financiadores!F37,". R$",FIXED(financiadores!H37,2)," - ",financiadores!J37)</f>
-        <v>2014 -  FAPERJ (E-26/111.311/2014): Resposta autonômica cardíaca e da hipotensão arterial com a prática do treinamento de força com oclusão vascular . Auxílio à Pesquisa (APQ1). R$14.262,94 - EDF1078 - Alex Souto Maior</v>
+        <v>2014 -  FAPERJ (E-26/111.311/2014): Resposta autonômica cardíaca e da hipotensão arterial com a prática do treinamento de força com oclusão vascular . Auxílio à Pesquisa (APQ1). R$14.262,94 - Alex Souto Maior</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f>CONCATENATE(financiadores!A38," -  ",financiadores!B38," (",financiadores!D38,"): ",financiadores!E38,". ",financiadores!F38,". R$",FIXED(financiadores!H38,2)," - ",financiadores!J38)</f>
-        <v>2014 -  FAPERJ (E-26/111.332/2014): Abordagens fisioterapêuticas na Doença de Parkinson. Auxílio à Pesquisa (APQ1). R$15.000,00 - FTO1111 - Laura Alice Santos de Oliveira</v>
+        <v>2014 -  FAPERJ (E-26/111.332/2014): Abordagens fisioterapêuticas na Doença de Parkinson. Auxílio à Pesquisa (APQ1). R$15.000,00 - Laura Alice Santos de Oliveira</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f>CONCATENATE(financiadores!A39," -  ",financiadores!B39," (",financiadores!D39,"): ",financiadores!E39,". ",financiadores!F39,". R$",FIXED(financiadores!H39,2)," - ",financiadores!J39)</f>
-        <v>2014 -  FAPERJ (E-26/111.321/2014): Prática Mental na reabilitação de alterações no controle postural após o acidente vascular cerebral. . Auxílio à Pesquisa (APQ1). R$18.799,00 - FTO1107 - Erika de Carvalho Rodrigues</v>
+        <v>2014 -  FAPERJ (E-26/111.321/2014): Prática Mental na reabilitação de alterações no controle postural após o acidente vascular cerebral. . Auxílio à Pesquisa (APQ1). R$18.799,00 - Erika de Carvalho Rodrigues</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f>CONCATENATE(financiadores!A40," -  ",financiadores!B40," (",financiadores!D40,"): ",financiadores!E40,". ",financiadores!F40,". R$",FIXED(financiadores!H40,2)," - ",financiadores!J40)</f>
-        <v>2014 -  FAPERJ (E-26/010.002688/2014): Desenvolvimento de um sistema para avaliação e treinamento da valência física agilidade, em atletas com deficiência visual. Apoio ao Desenvolvimento de Inovações no Esporte do Estado do Rio de Janeiro. R$134.540,60 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2014 -  FAPERJ (E-26/010.002688/2014): Desenvolvimento de um sistema para avaliação e treinamento da valência física agilidade, em atletas com deficiência visual. Apoio ao Desenvolvimento de Inovações no Esporte do Estado do Rio de Janeiro. R$134.540,60 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
@@ -5029,43 +5029,43 @@
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f>CONCATENATE(financiadores!A42," -  ",financiadores!B42," (",financiadores!D42,"): ",financiadores!E42,". ",financiadores!F42,". R$",FIXED(financiadores!H42,2)," - ",financiadores!J42)</f>
-        <v>2015 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - FTO1137 - Ney Armando de Mello Meziat Filho</v>
+        <v>2015 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - Ney Armando de Mello Meziat Filho</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f>CONCATENATE(financiadores!A43," -  ",financiadores!B43," (",financiadores!D43,"): ",financiadores!E43,". ",financiadores!F43,". R$",FIXED(financiadores!H43,2)," - ",financiadores!J43)</f>
-        <v>2015 -  CNPq (202600/2015-7): Tendências e variações nas apresentações de emergência em pessoas com dor lombar – uma análise de dados hospitalares. Pós-Doutorado no Exterior (PDE). R$113.823,18 - FTO1124 - Leandro Alberto Calazans Nogueira</v>
+        <v>2015 -  CNPq (202600/2015-7): Tendências e variações nas apresentações de emergência em pessoas com dor lombar – uma análise de dados hospitalares. Pós-Doutorado no Exterior (PDE). R$113.823,18 - Leandro Alberto Calazans Nogueira</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f>CONCATENATE(financiadores!A44," -  ",financiadores!B44," (",financiadores!D44,"): ",financiadores!E44,". ",financiadores!F44,". R$",FIXED(financiadores!H44,2)," - ",financiadores!J44)</f>
-        <v>2015 -  FAPERJ (E-26/010.001572/2015): II Simpósio Paradesportivo Carioca. Auxílio à Organização de Evento Científico (APQ2). R$8.000,00 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2015 -  FAPERJ (E-26/010.001572/2015): II Simpósio Paradesportivo Carioca. Auxílio à Organização de Evento Científico (APQ2). R$8.000,00 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f>CONCATENATE(financiadores!A45," -  ",financiadores!B45," (",financiadores!D45,"): ",financiadores!E45,". ",financiadores!F45,". R$",FIXED(financiadores!H45,2)," - ",financiadores!J45)</f>
-        <v>2015 -  FAPERJ (E-26/211.296/2015): Avaliação da força muscular de quadríceps e ísquios através da dinamometria isocinética em portadores de Acromegalia. Auxílio à Pesquisa (APQ1). R$10.750,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2015 -  FAPERJ (E-26/211.296/2015): Avaliação da força muscular de quadríceps e ísquios através da dinamometria isocinética em portadores de Acromegalia. Auxílio à Pesquisa (APQ1). R$10.750,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>CONCATENATE(financiadores!A46," -  ",financiadores!B46," (",financiadores!D46,"): ",financiadores!E46,". ",financiadores!F46,". R$",FIXED(financiadores!H46,2)," - ",financiadores!J46)</f>
-        <v>2015 -  FAPERJ (E-26/010.000841/2016): Efeito do treinamento muscular inspiratório na capacidade cardiopulmonar em esforço, função pulmonar, força da musculatura respiratória e desempenho esportivo em atletas com lesão medular. Auxílio à Pesquisa (APQ1). R$14.105,35 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2015 -  FAPERJ (E-26/010.000841/2016): Efeito do treinamento muscular inspiratório na capacidade cardiopulmonar em esforço, função pulmonar, força da musculatura respiratória e desempenho esportivo em atletas com lesão medular. Auxílio à Pesquisa (APQ1). R$14.105,35 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>CONCATENATE(financiadores!A47," -  ",financiadores!B47," (",financiadores!D47,"): ",financiadores!E47,". ",financiadores!F47,". R$",FIXED(financiadores!H47,2)," - ",financiadores!J47)</f>
-        <v>2015 -  FAPERJ (E-26/203.577/2015): Apoio à consolidação do Doutorado em Ciências da Reabilitação do Centro Universitário Augusto Motta. Apoio emergencial para os programas e Cursos de pós graduação stricto Sensu do estado do Rio de Janeiro. R$36.000,00 - FTO1075 - Sara Lucia Silveira de Menezes</v>
+        <v>2015 -  FAPERJ (E-26/203.577/2015): Apoio à consolidação do Doutorado em Ciências da Reabilitação do Centro Universitário Augusto Motta. Apoio emergencial para os programas e Cursos de pós graduação stricto Sensu do estado do Rio de Janeiro. R$36.000,00 - Sara Lucia Silveira de Menezes</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>CONCATENATE(financiadores!A48," -  ",financiadores!B48," (",financiadores!D48,"): ",financiadores!E48,". ",financiadores!F48,". R$",FIXED(financiadores!H48,2)," - ",financiadores!J48)</f>
-        <v>2015 -  FAPERJ (E-26/202.769/2015): Integrando avaliação e intervenção nas ciências da reabilitação com métodos e modelos computacionais. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2015 -  FAPERJ (E-26/202.769/2015): Integrando avaliação e intervenção nas ciências da reabilitação com métodos e modelos computacionais. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -5095,7 +5095,7 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f>CONCATENATE(financiadores!A53," -  ",financiadores!B53," (",financiadores!D53,"): ",financiadores!E53,". ",financiadores!F53,". R$",FIXED(financiadores!H53,2)," - ",financiadores!J53)</f>
-        <v>2016 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - FTO1137 - Ney Armando de Mello Meziat Filho</v>
+        <v>2016 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - Ney Armando de Mello Meziat Filho</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -5107,37 +5107,37 @@
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f>CONCATENATE(financiadores!A55," -  ",financiadores!B55," (",financiadores!D55,"): ",financiadores!E55,". ",financiadores!F55,". R$",FIXED(financiadores!H55,2)," - ",financiadores!J55)</f>
-        <v>2016 -  CNPq (428068/2016-2 ): Efeito do treinamento de equilíbrio dinâmico durante marcha com suporte parcial de peso combinado com estimulação transcraniana por corrente contínua sobre a funcionalidade e a anatomofisiologia cerebral de pessoas com Doença de Parkinson. Universal. R$21.000,00 - FTO1107 - Erika de Carvalho Rodrigues</v>
+        <v>2016 -  CNPq (428068/2016-2 ): Efeito do treinamento de equilíbrio dinâmico durante marcha com suporte parcial de peso combinado com estimulação transcraniana por corrente contínua sobre a funcionalidade e a anatomofisiologia cerebral de pessoas com Doença de Parkinson. Universal. R$21.000,00 - Erika de Carvalho Rodrigues</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f>CONCATENATE(financiadores!A56," -  ",financiadores!B56," (",financiadores!D56,"): ",financiadores!E56,". ",financiadores!F56,". R$",FIXED(financiadores!H56,2)," - ",financiadores!J56)</f>
-        <v>2016 -  CNPq (304625/2016-7): Teste de caminhada de 6 minutos: Elaboração de equação preditora considerando a distância percorrida. Bolsa de Produtividade em Pesquisa (PQ). R$39.600,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2016 -  CNPq (304625/2016-7): Teste de caminhada de 6 minutos: Elaboração de equação preditora considerando a distância percorrida. Bolsa de Produtividade em Pesquisa (PQ). R$39.600,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f>CONCATENATE(financiadores!A57," -  ",financiadores!B57," (",financiadores!D57,"): ",financiadores!E57,". ",financiadores!F57,". R$",FIXED(financiadores!H57,2)," - ",financiadores!J57)</f>
-        <v>2016 -  FAPERJ (E-26/200.437/2017): Correlação entre função muscular respiratória e periférica em portadores de Anemia Falciforme. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2016 -  FAPERJ (E-26/200.437/2017): Correlação entre função muscular respiratória e periférica em portadores de Anemia Falciforme. Bolsa de Iniciação Científica (IC). R$5.040,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f>CONCATENATE(financiadores!A58," -  ",financiadores!B58," (",financiadores!D58,"): ",financiadores!E58,". ",financiadores!F58,". R$",FIXED(financiadores!H58,2)," - ",financiadores!J58)</f>
-        <v>2016 -  FAPERJ (E-26/010.002009/2016): III Simpósio Paradesportivo Carioca. Auxílio à Organização de Evento Científico (APQ2). R$8.290,61 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2016 -  FAPERJ (E-26/010.002009/2016): III Simpósio Paradesportivo Carioca. Auxílio à Organização de Evento Científico (APQ2). R$8.290,61 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f>CONCATENATE(financiadores!A59," -  ",financiadores!B59," (",financiadores!D59,"): ",financiadores!E59,". ",financiadores!F59,". R$",FIXED(financiadores!H59,2)," - ",financiadores!J59)</f>
-        <v>2016 -  FAPERJ (E-26/010.002486/2016): Inovação em reabilitação no envelhecimento. Pesquisa em Doenças do Envelhecimento no Estado do Rio de Janeiro. R$460.670,00 - FTO1075 - Sara Lucia Silveira de Menezes</v>
+        <v>2016 -  FAPERJ (E-26/010.002486/2016): Inovação em reabilitação no envelhecimento. Pesquisa em Doenças do Envelhecimento no Estado do Rio de Janeiro. R$460.670,00 - Sara Lucia Silveira de Menezes</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f>CONCATENATE(financiadores!A60," -  ",financiadores!B60," (",financiadores!D60,"): ",financiadores!E60,". ",financiadores!F60,". R$",FIXED(financiadores!H60,2)," - ",financiadores!J60)</f>
-        <v>2016 -  FAPERJ (E-26/203.259/2016): Integrando avaliação e intervenção nas Ciências da Reabilitação com métodos de realidade virtual: da modelagem e simulação a aplicação na reabilitação. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - FTO1079 - Julio Guilherne Silva</v>
+        <v>2016 -  FAPERJ (E-26/203.259/2016): Integrando avaliação e intervenção nas Ciências da Reabilitação com métodos de realidade virtual: da modelagem e simulação a aplicação na reabilitação. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - Julio Guilherne Silva</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
@@ -5161,7 +5161,7 @@
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f>CONCATENATE(financiadores!A64," -  ",financiadores!B64," (",financiadores!D64,"): ",financiadores!E64,". ",financiadores!F64,". R$",FIXED(financiadores!H64,2)," - ",financiadores!J64)</f>
-        <v>2017 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - FTO1152 - Renato Santos de Almeida</v>
+        <v>2017 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - Renato Santos de Almeida</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
@@ -5173,13 +5173,13 @@
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f>CONCATENATE(financiadores!A66," -  ",financiadores!B66," (",financiadores!D66,"): ",financiadores!E66,". ",financiadores!F66,". R$",FIXED(financiadores!H66,2)," - ",financiadores!J66)</f>
-        <v>2017 -  FAPERJ (E-26/202.142/2017): Capacidade cardiorrespiratória em esforço de pessoas com deficiência física que praticam esportes. Bolsa de Iniciação Científica (IC). R$5.040,00 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2017 -  FAPERJ (E-26/202.142/2017): Capacidade cardiorrespiratória em esforço de pessoas com deficiência física que praticam esportes. Bolsa de Iniciação Científica (IC). R$5.040,00 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f>CONCATENATE(financiadores!A67," -  ",financiadores!B67," (",financiadores!D67,"): ",financiadores!E67,". ",financiadores!F67,". R$",FIXED(financiadores!H67,2)," - ",financiadores!J67)</f>
-        <v>2017 -  FAPERJ (E-26/203.256/2017): Crescimento, desenvolvimento e aptidão física de crianças e adolescentes com deficiência: integrando avaliação e intervenção nas ciências da reabilitação e educação física. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - EDF1074 - Patrícia dos Santos Vigário</v>
+        <v>2017 -  FAPERJ (E-26/203.256/2017): Crescimento, desenvolvimento e aptidão física de crianças e adolescentes com deficiência: integrando avaliação e intervenção nas ciências da reabilitação e educação física. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - Patrícia dos Santos Vigário</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
@@ -5203,7 +5203,7 @@
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f>CONCATENATE(financiadores!A71," -  ",financiadores!B71," (",financiadores!D71,"): ",financiadores!E71,". ",financiadores!F71,". R$",FIXED(financiadores!H71,2)," - ",financiadores!J71)</f>
-        <v>2018 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - FTO1152 - Renato Santos de Almeida</v>
+        <v>2018 -  CAPES (88882.314984/2013-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - Renato Santos de Almeida</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
@@ -5215,55 +5215,55 @@
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f>CONCATENATE(financiadores!A73," -  ",financiadores!B73," (",financiadores!D73,"): ",financiadores!E73,". ",financiadores!F73,". R$",FIXED(financiadores!H73,2)," - ",financiadores!J73)</f>
-        <v>2018 -  CNPq (155242/2019-9): Estratégias de avaliação e tratamento de indivíduos com ataxia espinocerebelar. Programa Institucional de Bolsas de Iniciação Científica. R$4.800,00 - FTO1111 - Laura Alice Santos de Oliveira</v>
+        <v>2018 -  CNPq (155242/2019-9): Estratégias de avaliação e tratamento de indivíduos com ataxia espinocerebelar. Programa Institucional de Bolsas de Iniciação Científica. R$4.800,00 - Laura Alice Santos de Oliveira</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f>CONCATENATE(financiadores!A74," -  ",financiadores!B74," (",financiadores!D74,"): ",financiadores!E74,". ",financiadores!F74,". R$",FIXED(financiadores!H74,2)," - ",financiadores!J74)</f>
-        <v>2018 -  CNPq (407138/2018-8): Recondicionamento físico em doenças negligenciadas: Efeitos sobre a qualidade de vida relacionada à saúde em adultos com anemia falciforme. Universal. R$60.000,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2018 -  CNPq (407138/2018-8): Recondicionamento físico em doenças negligenciadas: Efeitos sobre a qualidade de vida relacionada à saúde em adultos com anemia falciforme. Universal. R$60.000,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f>CONCATENATE(financiadores!A75," -  ",financiadores!B75," (",financiadores!D75,"): ",financiadores!E75,". ",financiadores!F75,". R$",FIXED(financiadores!H75,2)," - ",financiadores!J75)</f>
-        <v>2018 -  FAPERJ (E-26/200.214/2018): Comparação da Validade de Métodos de Rastreio do Risco Prospectivo de Queda em Idosos . Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2018 -  FAPERJ (E-26/200.214/2018): Comparação da Validade de Métodos de Rastreio do Risco Prospectivo de Queda em Idosos . Bolsa de Iniciação Científica (IC). R$5.040,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f>CONCATENATE(financiadores!A76," -  ",financiadores!B76," (",financiadores!D76,"): ",financiadores!E76,". ",financiadores!F76,". R$",FIXED(financiadores!H76,2)," - ",financiadores!J76)</f>
-        <v>2018 -  FAPERJ (E-26/200.160/2018): Avaliação do impacto da produção científica na área da fisioterapia para saúde da sociedade. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1152 - Renato Santos de Almeida</v>
+        <v>2018 -  FAPERJ (E-26/200.160/2018): Avaliação do impacto da produção científica na área da fisioterapia para saúde da sociedade. Bolsa de Iniciação Científica (IC). R$5.040,00 - Renato Santos de Almeida</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f>CONCATENATE(financiadores!A77," -  ",financiadores!B77," (",financiadores!D77,"): ",financiadores!E77,". ",financiadores!F77,". R$",FIXED(financiadores!H77,2)," - ",financiadores!J77)</f>
-        <v>2018 -  FAPERJ (E-26/200.235/2018): Exercícios terapêuticos cognitivo-funcionais: Estudo descritivo dos exercícios utilizados durante o ensaio clínico controlado aleatorizado. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1137 - Ney Armando de Mello Meziat Filho</v>
+        <v>2018 -  FAPERJ (E-26/200.235/2018): Exercícios terapêuticos cognitivo-funcionais: Estudo descritivo dos exercícios utilizados durante o ensaio clínico controlado aleatorizado. Bolsa de Iniciação Científica (IC). R$5.040,00 - Ney Armando de Mello Meziat Filho</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f>CONCATENATE(financiadores!A78," -  ",financiadores!B78," (",financiadores!D78,"): ",financiadores!E78,". ",financiadores!F78,". R$",FIXED(financiadores!H78,2)," - ",financiadores!J78)</f>
-        <v>2018 -  FAPERJ (E-26/201.727/2018): Esclerose sistêmica: avaliação cinemática durante o teste de caminhada de seis minutos. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2018 -  FAPERJ (E-26/201.727/2018): Esclerose sistêmica: avaliação cinemática durante o teste de caminhada de seis minutos. Bolsa de Iniciação Científica (IC). R$5.040,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f>CONCATENATE(financiadores!A79," -  ",financiadores!B79," (",financiadores!D79,"): ",financiadores!E79,". ",financiadores!F79,". R$",FIXED(financiadores!H79,2)," - ",financiadores!J79)</f>
-        <v>2018 -  FAPERJ (E-26/202.112/2018): Relação entre crenças inadequadas e fatores psicossociais com a dor e funcionalidade de pacientes com dor lombar. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1124 - Leandro Alberto Calazans Nogueira</v>
+        <v>2018 -  FAPERJ (E-26/202.112/2018): Relação entre crenças inadequadas e fatores psicossociais com a dor e funcionalidade de pacientes com dor lombar. Bolsa de Iniciação Científica (IC). R$5.040,00 - Leandro Alberto Calazans Nogueira</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f>CONCATENATE(financiadores!A80," -  ",financiadores!B80," (",financiadores!D80,"): ",financiadores!E80,". ",financiadores!F80,". R$",FIXED(financiadores!H80,2)," - ",financiadores!J80)</f>
-        <v>2018 -  FAPERJ (E-26/010.100987/2018): Eficácia da Terapia Cognitivo-Funcional em pacientes com dores lombares e cervicais crônicas inespecíficas: ensaios clínicos controlados aleatorizados. Programa Universidades Sediadas. R$45.436,51 - FTO1137 - Ney Armando de Mello Meziat Filho</v>
+        <v>2018 -  FAPERJ (E-26/010.100987/2018): Eficácia da Terapia Cognitivo-Funcional em pacientes com dores lombares e cervicais crônicas inespecíficas: ensaios clínicos controlados aleatorizados. Programa Universidades Sediadas. R$45.436,51 - Ney Armando de Mello Meziat Filho</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f>CONCATENATE(financiadores!A81," -  ",financiadores!B81," (",financiadores!D81,"): ",financiadores!E81,". ",financiadores!F81,". R$",FIXED(financiadores!H81,2)," - ",financiadores!J81)</f>
-        <v>2018 -  FAPERJ (E-26/202.679/2018): Acromegalia: Programa de reabilitação funcional e seu impacto na qualidade de vida e saúde global. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2018 -  FAPERJ (E-26/202.679/2018): Acromegalia: Programa de reabilitação funcional e seu impacto na qualidade de vida e saúde global. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
@@ -5287,13 +5287,13 @@
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f>CONCATENATE(financiadores!A85," -  ",financiadores!B85," (",financiadores!D85,"): ",financiadores!E85,". ",financiadores!F85,". R$",FIXED(financiadores!H85,2)," - ",financiadores!J85)</f>
-        <v>2018 -  FAPERJ (E-26/010.100996/2018): Neuromodulação não-invasiva associada ao treino de marcha em esteira com suporte parcial de peso para melhora do equilíbrio em idosos. Programa Universidades Sediadas. R$62.885,47 - FTO1111 - Laura Alice Santos de Oliveira</v>
+        <v>2018 -  FAPERJ (E-26/010.100996/2018): Neuromodulação não-invasiva associada ao treino de marcha em esteira com suporte parcial de peso para melhora do equilíbrio em idosos. Programa Universidades Sediadas. R$62.885,47 - Laura Alice Santos de Oliveira</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f>CONCATENATE(financiadores!A86," -  ",financiadores!B86," (",financiadores!D86,"): ",financiadores!E86,". ",financiadores!F86,". R$",FIXED(financiadores!H86,2)," - ",financiadores!J86)</f>
-        <v>2018 -  FAPERJ (E-26/202.748/2018): Neurociências e Tecnologia da Informação Aplicadas à Inovação em Reabilitação. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - FTO1107 - Erika de Carvalho Rodrigues</v>
+        <v>2018 -  FAPERJ (E-26/202.748/2018): Neurociências e Tecnologia da Informação Aplicadas à Inovação em Reabilitação. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - Erika de Carvalho Rodrigues</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
@@ -5317,7 +5317,7 @@
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f>CONCATENATE(financiadores!A90," -  ",financiadores!B90," (",financiadores!D90,"): ",financiadores!E90,". ",financiadores!F90,". R$",FIXED(financiadores!H90,2)," - ",financiadores!J90)</f>
-        <v>2019 -  CAPES (88882.464291/2019-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - FTO1152 - Renato Santos de Almeida</v>
+        <v>2019 -  CAPES (88882.464291/2019-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$49.200,00 - Renato Santos de Almeida</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
@@ -5329,25 +5329,25 @@
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f>CONCATENATE(financiadores!A92," -  ",financiadores!B92," (",financiadores!D92,"): ",financiadores!E92,". ",financiadores!F92,". R$",FIXED(financiadores!H92,2)," - ",financiadores!J92)</f>
-        <v>2019 -  CNPq (155242/2019-9): Esclerodermia: Avaliação da capacidade funcional durante o teste de AVD-GLITTRE. Programa Institucional de Bolsas de Iniciação Científica. R$4.800,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2019 -  CNPq (155242/2019-9): Esclerodermia: Avaliação da capacidade funcional durante o teste de AVD-GLITTRE. Programa Institucional de Bolsas de Iniciação Científica. R$4.800,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f>CONCATENATE(financiadores!A93," -  ",financiadores!B93," (",financiadores!D93,"): ",financiadores!E93,". ",financiadores!F93,". R$",FIXED(financiadores!H93,2)," - ",financiadores!J93)</f>
-        <v>2019 -  FAPERJ (E-26/200.503/2019): Estratégias de avaliação de tratamento de indivíduos com ataxia espnocerebelar (SCA). Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1111 - Laura Alice Santos de Oliveira</v>
+        <v>2019 -  FAPERJ (E-26/200.503/2019): Estratégias de avaliação de tratamento de indivíduos com ataxia espnocerebelar (SCA). Bolsa de Iniciação Científica (IC). R$5.040,00 - Laura Alice Santos de Oliveira</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f>CONCATENATE(financiadores!A94," -  ",financiadores!B94," (",financiadores!D94,"): ",financiadores!E94,". ",financiadores!F94,". R$",FIXED(financiadores!H94,2)," - ",financiadores!J94)</f>
-        <v>2019 -  FAPERJ (E-26/201.898/2019): Esclerodermia: Impacto da função da mão, musculatura periférica e função pulmonar sobre a capacidade funcional durante o teste de AVD-Glittre. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2019 -  FAPERJ (E-26/201.898/2019): Esclerodermia: Impacto da função da mão, musculatura periférica e função pulmonar sobre a capacidade funcional durante o teste de AVD-Glittre. Bolsa de Iniciação Científica (IC). R$5.040,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f>CONCATENATE(financiadores!A95," -  ",financiadores!B95," (",financiadores!D95,"): ",financiadores!E95,". ",financiadores!F95,". R$",FIXED(financiadores!H95,2)," - ",financiadores!J95)</f>
-        <v>2020 -  CAPES (88882.464291/2019-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$8.200,00 - FTO1152 - Renato Santos de Almeida</v>
+        <v>2020 -  CAPES (88882.464291/2019-01): Bolsas de Pós-Doutorado no País. Programa Nacional de Pós-Doutorado (PNPD). R$8.200,00 - Renato Santos de Almeida</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
@@ -5359,19 +5359,19 @@
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
         <f>CONCATENATE(financiadores!A97," -  ",financiadores!B97," (",financiadores!D97,"): ",financiadores!E97,". ",financiadores!F97,". R$",FIXED(financiadores!H97,2)," - ",financiadores!J97)</f>
-        <v>2020 -  CAPES (23038.000114/2020-80): Bolsas de Doutorado Sanduíche no Exterior. Programa de Doutorado Sanduíche no Exterior (PDSE). R$39.600,00 - FTO1124 - Leandro Alberto Calazans Nogueira</v>
+        <v>2020 -  CAPES (23038.000114/2020-80): Bolsas de Doutorado Sanduíche no Exterior. Programa de Doutorado Sanduíche no Exterior (PDSE). R$39.600,00 - Leandro Alberto Calazans Nogueira</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
         <f>CONCATENATE(financiadores!A98," -  ",financiadores!B98," (",financiadores!D98,"): ",financiadores!E98,". ",financiadores!F98,". R$",FIXED(financiadores!H98,2)," - ",financiadores!J98)</f>
-        <v>2020 -  CNPq (302215/2019-0): Esclerodermia: Confiabilidade do Teste de AVD-Glittre considerando a função da mão e a reabilitação. Bolsa de Produtividade em Pesquisa (PQ). R$39.600,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2020 -  CNPq (302215/2019-0): Esclerodermia: Confiabilidade do Teste de AVD-Glittre considerando a função da mão e a reabilitação. Bolsa de Produtividade em Pesquisa (PQ). R$39.600,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f>CONCATENATE(financiadores!A99," -  ",financiadores!B99," (",financiadores!D99,"): ",financiadores!E99,". ",financiadores!F99,". R$",FIXED(financiadores!H99,2)," - ",financiadores!J99)</f>
-        <v>2020 -  FAPERJ (E-26/200.857/2020): Avaliação da capacidade funcional utilizando o teste de caminhada de seis minutos na doença pulmonar obstrutiva crônica (DPOC) e no overlap asma-DPOC. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2020 -  FAPERJ (E-26/200.857/2020): Avaliação da capacidade funcional utilizando o teste de caminhada de seis minutos na doença pulmonar obstrutiva crônica (DPOC) e no overlap asma-DPOC. Bolsa de Iniciação Científica (IC). R$5.040,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
         <f>CONCATENATE(financiadores!A101," -  ",financiadores!B101," (",financiadores!D101,"): ",financiadores!E101,". ",financiadores!F101,". R$",FIXED(financiadores!H101,2)," - ",financiadores!J101)</f>
-        <v>2020 -  FAPERJ (E-26/201.398/2021): Gerenciamento do tecido neural adicionado a orientação para manter-se ativo nas medidas clínicas e na neurodinâmica do nervo ciático em pacientes com ciatalgia crônica: um ensaio clínico randomizado controlado. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - FTO1124 - Leandro Alberto Calazans Nogueira</v>
+        <v>2020 -  FAPERJ (E-26/201.398/2021): Gerenciamento do tecido neural adicionado a orientação para manter-se ativo nas medidas clínicas e na neurodinâmica do nervo ciático em pacientes com ciatalgia crônica: um ensaio clínico randomizado controlado. Jovem Cientista do Nosso Estado (JCNE). R$75.600,00 - Leandro Alberto Calazans Nogueira</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
@@ -5407,31 +5407,31 @@
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
         <f>CONCATENATE(financiadores!A105," -  ",financiadores!B105," (",financiadores!D105,"): ",financiadores!E105,". ",financiadores!F105,". R$",FIXED(financiadores!H105,2)," - ",financiadores!J105)</f>
-        <v>2021 -  FAPERJ (E-26/203.512/2021): Concordância e poder preditivo de métodos de avaliação de risco de queda na população idosa hospitalizada. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2021 -  FAPERJ (E-26/203.512/2021): Concordância e poder preditivo de métodos de avaliação de risco de queda na população idosa hospitalizada. Bolsa de Iniciação Científica (IC). R$5.040,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
         <f>CONCATENATE(financiadores!A106," -  ",financiadores!B106," (",financiadores!D106,"): ",financiadores!E106,". ",financiadores!F106,". R$",FIXED(financiadores!H106,2)," - ",financiadores!J106)</f>
-        <v>2021 -  FAPERJ (E-26/202.177/2021): Avaliação do equilíbrio postural e sua associação com qualidade de vida e funcionalidade em indivíduos pós- período de contaminação pela COVID- 19. Bolsa de Iniciação Científica (IC). R$5.040,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2021 -  FAPERJ (E-26/202.177/2021): Avaliação do equilíbrio postural e sua associação com qualidade de vida e funcionalidade em indivíduos pós- período de contaminação pela COVID- 19. Bolsa de Iniciação Científica (IC). R$5.040,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
         <f>CONCATENATE(financiadores!A107," -  ",financiadores!B107," (",financiadores!D107,"): ",financiadores!E107,". ",financiadores!F107,". R$",FIXED(financiadores!H107,2)," - ",financiadores!J107)</f>
-        <v>2021 -  FAPERJ (E-26/211.104/2021): Apoio ao Programa de Pós-graduação Stricto Sensu em Ciências da Reabilitação. Apoio emergencial para os programas e Cursos de pós graduação stricto Sensu do estado do Rio de Janeiro. R$94.922,10 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2021 -  FAPERJ (E-26/211.104/2021): Apoio ao Programa de Pós-graduação Stricto Sensu em Ciências da Reabilitação. Apoio emergencial para os programas e Cursos de pós graduação stricto Sensu do estado do Rio de Janeiro. R$94.922,10 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f>CONCATENATE(financiadores!A108," -  ",financiadores!B108," (",financiadores!D108,"): ",financiadores!E108,". ",financiadores!F108,". R$",FIXED(financiadores!H108,2)," - ",financiadores!J108)</f>
-        <v>2021 -  FAPERJ (E-26/211.638/2021): Fatores preditivos e autopercepção sobre dor musculoesquelética em indivíduos com alta hospitalar após COVID-19. Auxílio à Pesquisa (APQ1). R$62.945,00 - FTO1152 - Renato Santos de Almeida</v>
+        <v>2021 -  FAPERJ (E-26/211.638/2021): Fatores preditivos e autopercepção sobre dor musculoesquelética em indivíduos com alta hospitalar após COVID-19. Auxílio à Pesquisa (APQ1). R$62.945,00 - Renato Santos de Almeida</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
         <f>CONCATENATE(financiadores!A109," -  ",financiadores!B109," (",financiadores!D109,"): ",financiadores!E109,". ",financiadores!F109,". R$",FIXED(financiadores!H109,2)," - ",financiadores!J109)</f>
-        <v>2021 -  CNPq (315453/2021-4):  Avaliação da estabilidade postural na saúde e doenças neurológicas com métodos computacionais. Bolsa de Produtividade em Pesquisa (PQ). R$39.600,00 - FTO1096 - Arthur de Sá Ferreira</v>
+        <v>2021 -  CNPq (315453/2021-4):  Avaliação da estabilidade postural na saúde e doenças neurológicas com métodos computacionais. Bolsa de Produtividade em Pesquisa (PQ). R$39.600,00 - Arthur de Sá Ferreira</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
@@ -5461,7 +5461,7 @@
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
         <f>CONCATENATE(financiadores!A114," -  ",financiadores!B114," (",financiadores!D114,"): ",financiadores!E114,". ",financiadores!F114,". R$",FIXED(financiadores!H114,2)," - ",financiadores!J114)</f>
-        <v>2021 -  FAPERJ (E-26/200.929/2022): Uso da oscilometria de impulso e da reabilitação pulmonar domiciliar no acompanhamento dos sobreviventes da COVID-19 na Zona da Leopoldina. Cientista do Nosso Estado (CNE). R$108.000,00 - FTO1101 - Agnaldo José Lopes</v>
+        <v>2021 -  FAPERJ (E-26/200.929/2022): Uso da oscilometria de impulso e da reabilitação pulmonar domiciliar no acompanhamento dos sobreviventes da COVID-19 na Zona da Leopoldina. Cientista do Nosso Estado (CNE). R$108.000,00 - Agnaldo José Lopes</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
@@ -5485,7 +5485,7 @@
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
         <f>CONCATENATE(financiadores!A118," -  ",financiadores!B118," (",financiadores!D118,"): ",financiadores!E118,". ",financiadores!F118,". R$",FIXED(financiadores!H118,2)," - ",financiadores!J118)</f>
-        <v>2021 -  FAPERJ (Em processamento): Terapia Cognitivo-Funcional comparada à Pilates em pacientes idosos com dor lombar crônica submetidos a teleatendimento: ensaio clínico randomizado aleatorizado. Jovem Cientista do Nosso Estado (JCNE). R$86.400,00 - FTO1137 - Ney Armando de Mello Meziat Filho</v>
+        <v>2021 -  FAPERJ (Em processamento): Terapia Cognitivo-Funcional comparada à Pilates em pacientes idosos com dor lombar crônica submetidos a teleatendimento: ensaio clínico randomizado aleatorizado. Jovem Cientista do Nosso Estado (JCNE). R$86.400,00 - Ney Armando de Mello Meziat Filho</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
@@ -5518,7 +5518,7 @@
   </sheetPr>
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5549,31 +5549,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -5584,13 +5584,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>8</v>
@@ -5606,7 +5606,7 @@
         <v>8500</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="K2" s="23"/>
     </row>
@@ -5618,13 +5618,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>8</v>
@@ -5640,10 +5640,10 @@
         <v>8440</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5654,16 +5654,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>169159.38</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K4" s="58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5690,13 +5690,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>8</v>
@@ -5712,10 +5712,10 @@
         <v>7000</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -5726,13 +5726,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>8</v>
@@ -5748,10 +5748,10 @@
         <v>5063</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5762,13 +5762,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>8</v>
@@ -5784,10 +5784,10 @@
         <v>16500</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="K7" s="58" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5798,13 +5798,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>8</v>
@@ -5820,10 +5820,10 @@
         <v>18000</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K8" s="58" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5834,13 +5834,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>9</v>
@@ -5856,7 +5856,7 @@
         <v>9975</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -5868,13 +5868,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>9</v>
@@ -5890,7 +5890,7 @@
         <v>9999</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="K10" s="23"/>
     </row>
@@ -5902,13 +5902,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>9</v>
@@ -5924,7 +5924,7 @@
         <v>10000</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="K11" s="23"/>
     </row>
@@ -5936,19 +5936,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H12" s="21">
         <v>10000</v>
@@ -5958,7 +5958,7 @@
         <v>10000</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="K12" s="23"/>
     </row>
@@ -5970,13 +5970,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>8</v>
@@ -5992,10 +5992,10 @@
         <v>20000</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="K13" s="58" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6006,13 +6006,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>10</v>
@@ -6025,10 +6025,10 @@
         <v>75600</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K14" s="58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6093,19 +6093,19 @@
         <v>5</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H18" s="21">
         <v>14000</v>
@@ -6115,10 +6115,10 @@
         <v>14000</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K18" s="58" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6129,19 +6129,19 @@
         <v>5</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H19" s="35">
         <v>4800</v>
@@ -6151,7 +6151,7 @@
         <v>4800</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K19" s="24"/>
     </row>
@@ -6163,19 +6163,19 @@
         <v>5</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H20" s="35">
         <v>54000</v>
@@ -6185,7 +6185,7 @@
         <v>54000</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K20" s="24"/>
     </row>
@@ -6197,19 +6197,19 @@
         <v>5</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H21" s="35">
         <v>32400</v>
@@ -6219,7 +6219,7 @@
         <v>32400</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K21" s="24"/>
     </row>
@@ -6231,19 +6231,19 @@
         <v>5</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H22" s="21">
         <v>8200</v>
@@ -6253,7 +6253,7 @@
         <v>8200</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="K22" s="24"/>
     </row>
@@ -6265,13 +6265,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>8</v>
@@ -6287,10 +6287,10 @@
         <v>6000</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K23" s="58" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6301,13 +6301,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>8</v>
@@ -6323,10 +6323,10 @@
         <v>11088</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K24" s="58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6337,13 +6337,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>8</v>
@@ -6359,10 +6359,10 @@
         <v>19159.47</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K25" s="58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -6373,13 +6373,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>8</v>
@@ -6395,10 +6395,10 @@
         <v>20000</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="K26" s="58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6409,13 +6409,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>8</v>
@@ -6431,10 +6431,10 @@
         <v>21121.64</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="K27" s="58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -6445,13 +6445,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>8</v>
@@ -6467,10 +6467,10 @@
         <v>25500</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="K28" s="58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6481,16 +6481,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>0</v>
@@ -6503,10 +6503,10 @@
         <v>130000</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K29" s="58" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6517,19 +6517,19 @@
         <v>5</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H30" s="35">
         <v>55800</v>
@@ -6539,7 +6539,7 @@
         <v>55800</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K30" s="24"/>
     </row>
@@ -6551,19 +6551,19 @@
         <v>5</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H31" s="21">
         <f>4100*12</f>
@@ -6574,7 +6574,7 @@
         <v>49200</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="K31" s="24"/>
     </row>
@@ -6586,19 +6586,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H32" s="21">
         <f>420*12</f>
@@ -6609,7 +6609,7 @@
         <v>5040</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K32" s="23"/>
     </row>
@@ -6621,19 +6621,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H33" s="29">
         <v>9000</v>
@@ -6643,7 +6643,7 @@
         <v>9000</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K33" s="23"/>
     </row>
@@ -6655,13 +6655,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>8</v>
@@ -6677,10 +6677,10 @@
         <v>10200</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K34" s="58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6691,13 +6691,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>111</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>8</v>
@@ -6713,10 +6713,10 @@
         <v>12100</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K35" s="58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6727,16 +6727,16 @@
         <v>7</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>0</v>
@@ -6749,10 +6749,10 @@
         <v>14223</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="K36" s="58" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6763,13 +6763,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>8</v>
@@ -6785,10 +6785,10 @@
         <v>14262.94</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="K37" s="58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6799,13 +6799,13 @@
         <v>7</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>8</v>
@@ -6821,10 +6821,10 @@
         <v>15000</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="K38" s="58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6835,13 +6835,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>8</v>
@@ -6857,10 +6857,10 @@
         <v>18799</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="K39" s="58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6871,16 +6871,16 @@
         <v>7</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>0</v>
@@ -6893,10 +6893,10 @@
         <v>134540.6</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K40" s="58" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -6907,19 +6907,19 @@
         <v>5</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H41" s="35">
         <v>110000</v>
@@ -6929,7 +6929,7 @@
         <v>110000</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K41" s="24"/>
     </row>
@@ -6941,19 +6941,19 @@
         <v>5</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H42" s="21">
         <f>4100*12</f>
@@ -6964,7 +6964,7 @@
         <v>49200</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="K42" s="24"/>
     </row>
@@ -6976,19 +6976,19 @@
         <v>2</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H43" s="35">
         <v>113823.18</v>
@@ -6998,7 +6998,7 @@
         <v>113823.18</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="K43" s="36"/>
     </row>
@@ -7010,19 +7010,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H44" s="21">
         <v>8000</v>
@@ -7032,7 +7032,7 @@
         <v>8000</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K44" s="33"/>
     </row>
@@ -7044,13 +7044,13 @@
         <v>7</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>8</v>
@@ -7066,10 +7066,10 @@
         <v>10750</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K45" s="58" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="34" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -7080,13 +7080,13 @@
         <v>7</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>8</v>
@@ -7102,10 +7102,10 @@
         <v>14105.35</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K46" s="58" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -7116,16 +7116,16 @@
         <v>7</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>0</v>
@@ -7139,10 +7139,10 @@
         <v>36000</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="K47" s="58" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -7153,13 +7153,13 @@
         <v>7</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F48" s="19" t="s">
         <v>10</v>
@@ -7172,10 +7172,10 @@
         <v>75600</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K48" s="58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -7244,19 +7244,19 @@
         <v>5</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H52" s="35">
         <f>29600+132100</f>
@@ -7267,7 +7267,7 @@
         <v>161700</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K52" s="24"/>
     </row>
@@ -7279,19 +7279,19 @@
         <v>5</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H53" s="35">
         <v>49200</v>
@@ -7301,7 +7301,7 @@
         <v>49200</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="K53" s="24"/>
     </row>
@@ -7313,19 +7313,19 @@
         <v>5</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H54" s="35">
         <f>182400+137700</f>
@@ -7336,7 +7336,7 @@
         <v>320100</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K54" s="24"/>
     </row>
@@ -7348,13 +7348,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>3</v>
@@ -7370,10 +7370,10 @@
         <v>21000</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="K55" s="58" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -7384,19 +7384,19 @@
         <v>2</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F56" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H56" s="21">
         <f>1100*36</f>
@@ -7407,10 +7407,10 @@
         <v>39600</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K56" s="58" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -7421,19 +7421,19 @@
         <v>7</v>
       </c>
       <c r="C57" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H57" s="21">
         <f>420*12</f>
@@ -7444,10 +7444,10 @@
         <v>5040</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K57" s="58" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -7458,19 +7458,19 @@
         <v>7</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H58" s="21">
         <v>8290.61</v>
@@ -7480,7 +7480,7 @@
         <v>8290.61</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K58" s="23"/>
     </row>
@@ -7492,16 +7492,16 @@
         <v>7</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G59" s="19" t="s">
         <v>0</v>
@@ -7514,10 +7514,10 @@
         <v>460670</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="K59" s="58" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -7528,13 +7528,13 @@
         <v>7</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>10</v>
@@ -7547,10 +7547,10 @@
         <v>75600</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="K60" s="58" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -7612,19 +7612,19 @@
         <v>5</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H64" s="35">
         <v>49200</v>
@@ -7634,7 +7634,7 @@
         <v>49200</v>
       </c>
       <c r="J64" s="22" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="K64" s="24"/>
     </row>
@@ -7646,19 +7646,19 @@
         <v>5</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H65" s="35">
         <f>182400+137700</f>
@@ -7669,7 +7669,7 @@
         <v>320100</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K65" s="24"/>
     </row>
@@ -7681,19 +7681,19 @@
         <v>7</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F66" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H66" s="21">
         <f>420*12</f>
@@ -7704,10 +7704,10 @@
         <v>5040</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K66" s="58" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -7718,13 +7718,13 @@
         <v>7</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F67" s="19" t="s">
         <v>10</v>
@@ -7737,10 +7737,10 @@
         <v>75600</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K67" s="58" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -7802,19 +7802,19 @@
         <v>5</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H71" s="35">
         <v>49200</v>
@@ -7824,7 +7824,7 @@
         <v>49200</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="K71" s="24"/>
     </row>
@@ -7836,19 +7836,19 @@
         <v>5</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H72" s="35">
         <f>182400+136100</f>
@@ -7859,7 +7859,7 @@
         <v>318500</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K72" s="24"/>
     </row>
@@ -7871,19 +7871,19 @@
         <v>2</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H73" s="35">
         <f>400*12</f>
@@ -7894,10 +7894,10 @@
         <v>4800</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="K73" s="58" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="64" x14ac:dyDescent="0.2">
@@ -7908,13 +7908,13 @@
         <v>2</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F74" s="19" t="s">
         <v>3</v>
@@ -7930,10 +7930,10 @@
         <v>60000</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K74" s="58" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -7944,19 +7944,19 @@
         <v>7</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F75" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H75" s="21">
         <f>420*12</f>
@@ -7967,10 +7967,10 @@
         <v>5040</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K75" s="58" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -7981,19 +7981,19 @@
         <v>7</v>
       </c>
       <c r="C76" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="F76" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H76" s="21">
         <f>420*12</f>
@@ -8004,10 +8004,10 @@
         <v>5040</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="K76" s="58" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -8018,19 +8018,19 @@
         <v>7</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F77" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H77" s="21">
         <f>420*12</f>
@@ -8041,10 +8041,10 @@
         <v>5040</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="K77" s="58" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -8055,19 +8055,19 @@
         <v>7</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F78" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H78" s="21">
         <f>420*12</f>
@@ -8078,10 +8078,10 @@
         <v>5040</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K78" s="58" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -8092,19 +8092,19 @@
         <v>7</v>
       </c>
       <c r="C79" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>186</v>
       </c>
       <c r="F79" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H79" s="21">
         <f>420*12</f>
@@ -8115,10 +8115,10 @@
         <v>5040</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="K79" s="58" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -8129,16 +8129,16 @@
         <v>7</v>
       </c>
       <c r="C80" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D80" s="20" t="s">
-        <v>201</v>
-      </c>
       <c r="E80" s="19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G80" s="19" t="s">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>45436.51</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="K80" s="58" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>10</v>
@@ -8184,10 +8184,10 @@
         <v>75600</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K81" s="58" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -8249,16 +8249,16 @@
         <v>7</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>0</v>
@@ -8272,10 +8272,10 @@
         <v>62885.47</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="K85" s="58" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -8286,13 +8286,13 @@
         <v>7</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>10</v>
@@ -8305,10 +8305,10 @@
         <v>75600</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="K86" s="58" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -8370,19 +8370,19 @@
         <v>5</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H90" s="21">
         <f>45100+4100</f>
@@ -8393,7 +8393,7 @@
         <v>49200</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="K90" s="24"/>
     </row>
@@ -8405,19 +8405,19 @@
         <v>5</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H91" s="35">
         <f>91200+91200+63600+68800</f>
@@ -8428,7 +8428,7 @@
         <v>314800</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K91" s="24"/>
     </row>
@@ -8440,19 +8440,19 @@
         <v>2</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H92" s="35">
         <f>400*12</f>
@@ -8463,10 +8463,10 @@
         <v>4800</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K92" s="58" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -8477,19 +8477,19 @@
         <v>7</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H93" s="21">
         <f>420*12</f>
@@ -8500,10 +8500,10 @@
         <v>5040</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="K93" s="58" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -8514,19 +8514,19 @@
         <v>7</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F94" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H94" s="21">
         <f>420*12</f>
@@ -8537,10 +8537,10 @@
         <v>5040</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K94" s="58" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -8551,19 +8551,19 @@
         <v>5</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H95" s="21">
         <f>4100*2</f>
@@ -8574,7 +8574,7 @@
         <v>8200</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -8585,19 +8585,19 @@
         <v>5</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H96" s="35">
         <f>210800+158200</f>
@@ -8608,7 +8608,7 @@
         <v>369000</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K96" s="24"/>
     </row>
@@ -8620,19 +8620,19 @@
         <v>5</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H97" s="35">
         <f>6*1650*4</f>
@@ -8643,10 +8643,10 @@
         <v>39600</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="K97" s="58" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -8657,19 +8657,19 @@
         <v>2</v>
       </c>
       <c r="C98" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="F98" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H98" s="35">
         <f>1100*36</f>
@@ -8680,10 +8680,10 @@
         <v>39600</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K98" s="58" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -8694,19 +8694,19 @@
         <v>7</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F99" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H99" s="21">
         <f>420*12</f>
@@ -8717,10 +8717,10 @@
         <v>5040</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K99" s="58" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="32" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -8731,19 +8731,19 @@
         <v>5</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H100" s="35">
         <f>252000+192400</f>
@@ -8754,7 +8754,7 @@
         <v>444400</v>
       </c>
       <c r="J100" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K100" s="61"/>
     </row>
@@ -8766,13 +8766,13 @@
         <v>7</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="F101" s="19" t="s">
         <v>10</v>
@@ -8785,10 +8785,10 @@
         <v>75600</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="K101" s="58" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -8850,19 +8850,19 @@
         <v>7</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="F105" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H105" s="21">
         <f>420*12</f>
@@ -8873,10 +8873,10 @@
         <v>5040</v>
       </c>
       <c r="J105" s="22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K105" s="58" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -8887,19 +8887,19 @@
         <v>7</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="F106" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H106" s="21">
         <f>420*12</f>
@@ -8910,10 +8910,10 @@
         <v>5040</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K106" s="58" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -8924,16 +8924,16 @@
         <v>7</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G107" s="19" t="s">
         <v>0</v>
@@ -8946,10 +8946,10 @@
         <v>94922.1</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K107" s="58" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -8960,13 +8960,13 @@
         <v>7</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F108" s="19" t="s">
         <v>8</v>
@@ -8982,10 +8982,10 @@
         <v>62945</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="K108" s="58" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -8996,29 +8996,29 @@
         <v>2</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="F109" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H109" s="21">
         <f>SUM(I111:I113)</f>
         <v>39600</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K109" s="38" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="32" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -9029,19 +9029,19 @@
         <v>5</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H110" s="37">
         <f>252000+192400</f>
@@ -9052,7 +9052,7 @@
         <v>444400</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K110" s="61"/>
     </row>
@@ -9064,7 +9064,7 @@
         <v>2</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I111" s="21">
         <f>12*1100</f>
@@ -9079,7 +9079,7 @@
         <v>2</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I112" s="21">
         <f>12*1100</f>
@@ -9094,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I113" s="21">
         <f>12*1100</f>
@@ -9109,16 +9109,16 @@
         <v>7</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="G114" s="19" t="s">
         <v>0</v>
@@ -9128,10 +9128,10 @@
         <v>108000</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="K114" s="38" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -9187,13 +9187,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D118" s="59" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="F118" s="19" t="s">
         <v>10</v>
@@ -9206,10 +9206,10 @@
         <v>86400</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8F1BC6-DAD8-8B4D-9176-5528B1C0ABD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C481A75-896A-4240-9965-3956CF1A365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="286">
   <si>
     <t>CAPEX</t>
   </si>
@@ -888,6 +888,15 @@
   </si>
   <si>
     <t>Renato Santos de Almeida</t>
+  </si>
+  <si>
+    <t>2022-2</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Edital_FAPERJ_Nº_06_2022_Programa_de_Bolsa_de_Iniciação_Cient%C3%ADfica.pdf</t>
+  </si>
+  <si>
+    <t>Alterações longitudinais no Teste de AVD- Glittre em pacientes com Esclerodermia antes e após reabilitação</t>
   </si>
 </sst>
 </file>
@@ -1636,13 +1645,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5377,6 +5386,80 @@
         <v>28800</v>
       </c>
     </row>
+    <row r="122" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H122" s="10">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
+      <c r="I122" s="10">
+        <f t="shared" ref="I122" si="14">H122</f>
+        <v>5040</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="K122" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A123" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H123" s="10">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
+      <c r="I123" s="10">
+        <f t="shared" ref="I123" si="15">H123</f>
+        <v>5040</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="K123" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K102">
     <sortCondition ref="A2:A102"/>
@@ -5388,17 +5471,5 @@
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.28000000000000003" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56E8F0D2-B013-2A4A-8696-1BEEE1AFD19F}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C481A75-896A-4240-9965-3956CF1A365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A54BF8-864E-FD44-9C2A-68EC446BC340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="285">
   <si>
     <t>CAPEX</t>
   </si>
@@ -888,9 +888,6 @@
   </si>
   <si>
     <t>Renato Santos de Almeida</t>
-  </si>
-  <si>
-    <t>2022-2</t>
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_Edital_FAPERJ_Nº_06_2022_Programa_de_Bolsa_de_Iniciação_Cient%C3%ADfica.pdf</t>
@@ -1648,10 +1645,10 @@
   <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A123" sqref="A123"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5394,13 +5391,13 @@
         <v>7</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="D122" s="29" t="s">
         <v>239</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>11</v>
@@ -5420,7 +5417,7 @@
         <v>272</v>
       </c>
       <c r="K122" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5431,7 +5428,7 @@
         <v>7</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>239</v>
@@ -5457,7 +5454,7 @@
         <v>279</v>
       </c>
       <c r="K123" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A54BF8-864E-FD44-9C2A-68EC446BC340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA5B523-0A2F-5740-B60A-C7E799D43988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="295">
   <si>
     <t>CAPEX</t>
   </si>
@@ -894,6 +894,36 @@
   </si>
   <si>
     <t>Alterações longitudinais no Teste de AVD- Glittre em pacientes com Esclerodermia antes e após reabilitação</t>
+  </si>
+  <si>
+    <t>Programa de Desenvolvimento da Pós-Graduação (PDPG) Emergencial de Consolidação Estratégica dos Programas de Pós-Graduação stricto sensu acadêmicos</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/acesso-a-informacao/acoes-e-programas/bolsas/programas-estrategicos/desenvolvimento-regional/programa-de-desenvolvimento-da-pos-graduacao-estrategico-de-consolidacao-dos-programas-de-pos-graduacao-stricto-sensu-academicos</t>
+  </si>
+  <si>
+    <t>88887.708718/2022-00</t>
+  </si>
+  <si>
+    <t>PDPG Emergencial de Consolidação Estratégica dos Programas de Pós-Graduação (PPGs) stricto sensu acadêmicos com notas 3 e 4</t>
+  </si>
+  <si>
+    <t>88881.708719/2022-01</t>
+  </si>
+  <si>
+    <t>Projeto do Programa de Pós-Graduação em Ciências da Reabilitação para Bolsas de Pós- Doutorado Estratégico no Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Edital N.º 16/2022</t>
+  </si>
+  <si>
+    <t>Programa de Desenvolvimento da Pós-Graduação (PDPG) - Pós-Doutorado Estratégico</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/acesso-a-informacao/acoes-e-programas/bolsas/programas-estrategicos/desenvolvimento-regional/programa-de-desenvolvimento-da-pos-graduacao-pdpg-pos-doutorado-estrategico</t>
+  </si>
+  <si>
+    <t>88887.692761/2022-00</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1224,6 +1254,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1642,13 +1675,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5457,6 +5490,223 @@
         <v>283</v>
       </c>
     </row>
+    <row r="124" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A124" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H124" s="26">
+        <f>2*4*12*2200</f>
+        <v>211200</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K124" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H125" s="10">
+        <f>SUM(I126:I127)</f>
+        <v>50000</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K125" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I126" s="10">
+        <v>25000</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="10">
+        <v>25000</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A128" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H128" s="26">
+        <f>2*2*12*4400</f>
+        <v>211200</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="K128" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A129" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" s="10">
+        <f>SUM(I130:I132)</f>
+        <v>48000</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="K129" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" s="10">
+        <v>12000</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I131" s="10">
+        <v>24000</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I132" s="10">
+        <v>12000</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K102">
     <sortCondition ref="A2:A102"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA5B523-0A2F-5740-B60A-C7E799D43988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9E9349-C18C-EF43-ADD4-46CF3A9E5AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,102 +1161,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1686,18 +1656,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23" style="8" customWidth="1"/>
-    <col min="5" max="5" width="69" style="8" customWidth="1"/>
-    <col min="6" max="6" width="66" style="8" customWidth="1"/>
-    <col min="7" max="7" width="8" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="49.1640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="62.1640625" style="27" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23" style="7" customWidth="1"/>
+    <col min="5" max="5" width="69" style="7" customWidth="1"/>
+    <col min="6" max="6" width="66" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="49.1640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="62.1640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1731,3979 +1701,3959 @@
       <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>2006</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
         <v>8500</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <f t="shared" ref="I2:I13" si="0">H2</f>
         <v>8500</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2007</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="G3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
         <v>8440</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
         <v>8440</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2008</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <v>169159.38</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <f t="shared" si="0"/>
         <v>169159.38</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>2009</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
         <v>7000</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="20" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>2010</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="G6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
         <v>5063</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <f t="shared" si="0"/>
         <v>5063</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>2010</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
         <v>16500</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>16500</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>2011</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
         <v>18000</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>2012</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <v>9975</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>9975</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>2012</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
         <v>9999</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>9999</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>2012</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="G11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <v>10000</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>2012</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <v>10000</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>2012</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="G13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
         <v>20000</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>2012</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="G14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
         <f>SUM(I15:I17)</f>
         <v>75600</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>2013</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="G15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>2014</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="G16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="13"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>2015</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="G17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="B17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="13"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>2013</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="8">
         <v>14000</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <f>H18</f>
         <v>14000</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>2010</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="8">
         <v>4800</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <f t="shared" ref="I19" si="1">H19</f>
         <v>4800</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2011</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="8">
         <v>54000</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="8">
         <f t="shared" ref="I20" si="2">H20</f>
         <v>54000</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>2012</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="8">
         <v>32400</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="8">
         <f t="shared" ref="I21" si="3">H21</f>
         <v>32400</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K21" s="13"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>2013</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <v>8200</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <f t="shared" ref="I22" si="4">H22</f>
         <v>8200</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="K22" s="13"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>2013</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="G23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
         <v>6000</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <f t="shared" ref="I23:I47" si="5">H23</f>
         <v>6000</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>2013</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="G24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
         <v>11088</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="8">
         <f t="shared" si="5"/>
         <v>11088</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K24" s="28" t="s">
+      <c r="K24" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>2013</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="G25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
         <v>19159.47</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="8">
         <f t="shared" si="5"/>
         <v>19159.47</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>2013</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="G26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
         <v>20000</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="8">
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="K26" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>2013</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="G27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
         <v>21121.64</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <f t="shared" si="5"/>
         <v>21121.64</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>2013</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="G28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
         <v>25500</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <f t="shared" si="5"/>
         <v>25500</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>2013</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
+      <c r="G29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
         <v>130000</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="8">
         <f t="shared" si="5"/>
         <v>130000</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K29" s="28" t="s">
+      <c r="K29" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>2013</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="8">
         <v>55800</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <f t="shared" ref="I30" si="6">H30</f>
         <v>55800</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K30" s="13"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>2014</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
         <f>4100*12</f>
         <v>49200</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <f t="shared" si="5"/>
         <v>49200</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="K31" s="13"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>2014</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="8">
         <f t="shared" si="5"/>
         <v>5040</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>2014</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="14">
         <v>9000</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="8">
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>2014</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="19">
+      <c r="G34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
         <v>10200</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="8">
         <f t="shared" si="5"/>
         <v>10200</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>2014</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
+      <c r="G35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <v>12100</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="8">
         <f t="shared" si="5"/>
         <v>12100</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>2014</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="19">
+      <c r="G36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
         <v>14223</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="8">
         <f t="shared" si="5"/>
         <v>14223</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="K36" s="28" t="s">
+      <c r="K36" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>2014</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="20">
+      <c r="G37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
         <v>14262.94</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="8">
         <f t="shared" si="5"/>
         <v>14262.94</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="28" t="s">
+      <c r="K37" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>2014</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="19">
+      <c r="G38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
         <v>15000</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="8">
         <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>2014</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="17" t="s">
+      <c r="B39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="19">
+      <c r="G39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
         <v>18799</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="8">
         <f t="shared" si="5"/>
         <v>18799</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K39" s="28" t="s">
+      <c r="K39" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>2014</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
+      <c r="G40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
         <v>134540.6</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="8">
         <f t="shared" si="5"/>
         <v>134540.6</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K40" s="28" t="s">
+      <c r="K40" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>2014</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="8">
         <v>110000</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="8">
         <f t="shared" si="5"/>
         <v>110000</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K41" s="13"/>
+      <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>2015</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="8">
         <f>4100*12</f>
         <v>49200</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="8">
         <f t="shared" si="5"/>
         <v>49200</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="K42" s="13"/>
+      <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>2015</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="8">
         <v>113823.18</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="8">
         <f t="shared" si="5"/>
         <v>113823.18</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="K43" s="25"/>
+      <c r="K43" s="18"/>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>2015</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="8">
         <v>8000</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="8">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45" spans="1:11" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:11" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <v>2015</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10">
+      <c r="G45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
         <v>10750</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="8">
         <f t="shared" si="5"/>
         <v>10750</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K45" s="28" t="s">
+      <c r="K45" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+    <row r="46" spans="1:11" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <v>2015</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="10">
+      <c r="G46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
         <v>14105.35</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="8">
         <f t="shared" si="5"/>
         <v>14105.35</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K46" s="28" t="s">
+      <c r="K46" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>2015</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10">
+      <c r="G47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
         <f>3000*12</f>
         <v>36000</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="8">
         <f t="shared" si="5"/>
         <v>36000</v>
       </c>
-      <c r="J47" s="21" t="s">
+      <c r="J47" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="K47" s="28" t="s">
+      <c r="K47" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>2015</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="10">
+      <c r="G48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
         <f>SUM(I49:I51)</f>
         <v>75600</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K48" s="28" t="s">
+      <c r="K48" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="23" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+    <row r="49" spans="1:11" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
         <v>2016</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10">
+      <c r="B49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="13"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>2017</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="G50" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="10">
+      <c r="B50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="13"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>2018</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="G51" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="10">
+      <c r="B51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="13"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>2015</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="8">
         <f>29600+132100</f>
         <v>161700</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="8">
         <f t="shared" ref="I52" si="7">H52</f>
         <v>161700</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K52" s="13"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>2016</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="8">
         <v>49200</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="8">
         <f t="shared" ref="I53:I59" si="8">H53</f>
         <v>49200</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="K53" s="13"/>
+      <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>2016</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="8">
         <f>182400+137700</f>
         <v>320100</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="8">
         <f t="shared" si="8"/>
         <v>320100</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K54" s="13"/>
+      <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>2016</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55" s="24">
+      <c r="G55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
         <v>21000</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="8">
         <f t="shared" si="8"/>
         <v>21000</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K55" s="28" t="s">
+      <c r="K55" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>2016</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="8">
         <f>1100*36</f>
         <v>39600</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="8">
         <f t="shared" si="8"/>
         <v>39600</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K56" s="28" t="s">
+      <c r="K56" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>2016</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="8">
         <f t="shared" si="8"/>
         <v>5040</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K57" s="28" t="s">
+      <c r="K57" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>2016</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="8">
         <v>8290.61</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="8">
         <f t="shared" si="8"/>
         <v>8290.61</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K58" s="12"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>2016</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="26">
+      <c r="G59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="19">
         <v>460670</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="8">
         <f t="shared" si="8"/>
         <v>460670</v>
       </c>
-      <c r="J59" s="21" t="s">
+      <c r="J59" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="K59" s="28" t="s">
+      <c r="K59" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>2016</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
+      <c r="G60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8">
         <f>SUM(I61:I63)</f>
         <v>75600</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K60" s="28" t="s">
+      <c r="K60" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>2017</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="G61" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="10">
+      <c r="B61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K61" s="13"/>
+      <c r="K61" s="11"/>
     </row>
     <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>2018</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="G62" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I62" s="10">
+      <c r="B62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K62" s="13"/>
+      <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>2019</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="G63" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="10">
+      <c r="B63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K63" s="13"/>
+      <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>2017</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H64" s="24">
+      <c r="H64" s="8">
         <v>49200</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="8">
         <f>H64</f>
         <v>49200</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="K64" s="13"/>
+      <c r="K64" s="11"/>
     </row>
     <row r="65" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>2017</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H65" s="24">
+      <c r="H65" s="8">
         <f>182400+137700</f>
         <v>320100</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="8">
         <f>H65</f>
         <v>320100</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K65" s="13"/>
+      <c r="K65" s="11"/>
     </row>
     <row r="66" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>2017</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="8">
         <f>H66</f>
         <v>5040</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K66" s="28" t="s">
+      <c r="K66" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>2017</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="10">
+      <c r="G67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="8">
         <f>SUM(I68:I70)</f>
         <v>75600</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K67" s="28" t="s">
+      <c r="K67" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>2018</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="G68" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="10">
+      <c r="B68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K68" s="13"/>
+      <c r="K68" s="11"/>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>2019</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="G69" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="10">
+      <c r="B69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K69" s="13"/>
+      <c r="K69" s="11"/>
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>2020</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="G70" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I70" s="10">
+      <c r="B70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K70" s="13"/>
+      <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>2018</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H71" s="24">
+      <c r="H71" s="8">
         <v>49200</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="8">
         <f t="shared" ref="I71:I80" si="9">H71</f>
         <v>49200</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="K71" s="13"/>
+      <c r="K71" s="11"/>
     </row>
     <row r="72" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>2018</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H72" s="24">
+      <c r="H72" s="8">
         <f>182400+136100</f>
         <v>318500</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="8">
         <f t="shared" si="9"/>
         <v>318500</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K72" s="13"/>
+      <c r="K72" s="11"/>
     </row>
     <row r="73" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>2018</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="24">
+      <c r="H73" s="8">
         <f>400*12</f>
         <v>4800</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="8">
         <f t="shared" si="9"/>
         <v>4800</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K73" s="28" t="s">
+      <c r="K73" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>2018</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H74" s="24">
+      <c r="G74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="8">
         <v>60000</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="8">
         <f t="shared" si="9"/>
         <v>60000</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K74" s="28" t="s">
+      <c r="K74" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>2018</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I75" s="8">
         <f t="shared" si="9"/>
         <v>5040</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K75" s="28" t="s">
+      <c r="K75" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>2018</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="8" t="s">
+      <c r="B76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="8">
         <f t="shared" si="9"/>
         <v>5040</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J76" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K76" s="28" t="s">
+      <c r="K76" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>2018</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="B77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="8">
         <f t="shared" si="9"/>
         <v>5040</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="J77" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K77" s="28" t="s">
+      <c r="K77" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>2018</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="B78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="8">
         <f t="shared" si="9"/>
         <v>5040</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="J78" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K78" s="28" t="s">
+      <c r="K78" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>2018</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="8">
         <f t="shared" si="9"/>
         <v>5040</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J79" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="K79" s="28" t="s">
+      <c r="K79" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>2018</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="8" t="s">
+      <c r="B80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H80" s="24">
+      <c r="G80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="8">
         <v>45436.51</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="8">
         <f t="shared" si="9"/>
         <v>45436.51</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="J80" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K80" s="28" t="s">
+      <c r="K80" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>2018</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="B81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81" s="10">
+      <c r="G81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="8">
         <f>SUM(I82:I84)</f>
         <v>75600</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K81" s="28" t="s">
+      <c r="K81" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>2019</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="G82" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" s="10">
+      <c r="B82" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K82" s="13"/>
+      <c r="K82" s="11"/>
     </row>
     <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>2020</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="G83" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I83" s="10">
+      <c r="B83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K83" s="13"/>
+      <c r="K83" s="11"/>
     </row>
     <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>2021</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="G84" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I84" s="10">
+      <c r="B84" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I84" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K84" s="13"/>
+      <c r="K84" s="11"/>
     </row>
     <row r="85" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>2018</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="8" t="s">
+      <c r="B85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H85" s="24">
+      <c r="G85" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="8">
         <f>18866.47+44019</f>
         <v>62885.47</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I85" s="8">
         <f>H85</f>
         <v>62885.47</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="J85" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K85" s="28" t="s">
+      <c r="K85" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>2018</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="B86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H86" s="10">
+      <c r="G86" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="8">
         <f>SUM(I87:I89)</f>
         <v>75600</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="J86" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K86" s="28" t="s">
+      <c r="K86" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>2019</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="G87" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I87" s="10">
+      <c r="B87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I87" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K87" s="13"/>
+      <c r="K87" s="11"/>
     </row>
     <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>2020</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="9"/>
-      <c r="G88" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I88" s="10">
+      <c r="B88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I88" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K88" s="13"/>
+      <c r="K88" s="11"/>
     </row>
     <row r="89" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>2021</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="G89" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I89" s="10">
+      <c r="B89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I89" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K89" s="13"/>
+      <c r="K89" s="11"/>
     </row>
     <row r="90" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>2019</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="8">
         <f>45100+4100</f>
         <v>49200</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I90" s="8">
         <f t="shared" ref="I90:I100" si="10">H90</f>
         <v>49200</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="K90" s="13"/>
+      <c r="K90" s="11"/>
     </row>
     <row r="91" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>2019</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H91" s="24">
+      <c r="H91" s="8">
         <f>91200+91200+63600+68800</f>
         <v>314800</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91" s="8">
         <f t="shared" si="10"/>
         <v>314800</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K91" s="13"/>
+      <c r="K91" s="11"/>
     </row>
     <row r="92" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>2019</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H92" s="24">
+      <c r="H92" s="8">
         <f>400*12</f>
         <v>4800</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I92" s="8">
         <f t="shared" si="10"/>
         <v>4800</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K92" s="28" t="s">
+      <c r="K92" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>2019</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="8" t="s">
+      <c r="B93" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I93" s="8">
         <f t="shared" si="10"/>
         <v>5040</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K93" s="28" t="s">
+      <c r="K93" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>2019</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="8" t="s">
+      <c r="B94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I94" s="10">
+      <c r="I94" s="8">
         <f t="shared" si="10"/>
         <v>5040</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="J94" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K94" s="28" t="s">
+      <c r="K94" s="20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>2020</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="8">
         <f>4100*2</f>
         <v>8200</v>
       </c>
-      <c r="I95" s="10">
+      <c r="I95" s="8">
         <f t="shared" si="10"/>
         <v>8200</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="J95" s="9" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>2020</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H96" s="24">
+      <c r="H96" s="8">
         <f>210800+158200</f>
         <v>369000</v>
       </c>
-      <c r="I96" s="10">
+      <c r="I96" s="8">
         <f t="shared" si="10"/>
         <v>369000</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="J96" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K96" s="13"/>
+      <c r="K96" s="11"/>
     </row>
     <row r="97" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>2020</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H97" s="24">
+      <c r="H97" s="8">
         <f>6*1650*4</f>
         <v>39600</v>
       </c>
-      <c r="I97" s="10">
+      <c r="I97" s="8">
         <f t="shared" si="10"/>
         <v>39600</v>
       </c>
-      <c r="J97" s="11" t="s">
+      <c r="J97" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K97" s="28" t="s">
+      <c r="K97" s="20" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>2020</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H98" s="24">
+      <c r="H98" s="8">
         <f>1100*36</f>
         <v>39600</v>
       </c>
-      <c r="I98" s="10">
+      <c r="I98" s="8">
         <f t="shared" si="10"/>
         <v>39600</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="J98" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K98" s="28" t="s">
+      <c r="K98" s="20" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>2020</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="8" t="s">
+      <c r="B99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I99" s="10">
+      <c r="I99" s="8">
         <f t="shared" si="10"/>
         <v>5040</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="J99" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K99" s="28" t="s">
+      <c r="K99" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A100" s="30">
+    <row r="100" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
         <v>2021</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H100" s="24">
+      <c r="H100" s="8">
         <f>252000+192400</f>
         <v>444400</v>
       </c>
-      <c r="I100" s="24">
+      <c r="I100" s="8">
         <f t="shared" si="10"/>
         <v>444400</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="J100" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K100" s="31"/>
+      <c r="K100" s="22"/>
     </row>
     <row r="101" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>2020</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="9" t="s">
+      <c r="B101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101" s="10">
+      <c r="G101" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="8">
         <f>SUM(I102:I104)</f>
         <v>75600</v>
       </c>
-      <c r="J101" s="11" t="s">
+      <c r="J101" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K101" s="28" t="s">
+      <c r="K101" s="20" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>2021</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="G102" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I102" s="10">
+      <c r="B102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K102" s="13"/>
+      <c r="K102" s="11"/>
     </row>
     <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>2022</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="G103" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" s="10">
+      <c r="B103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I103" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K103" s="13"/>
+      <c r="K103" s="11"/>
     </row>
     <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>2023</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="G104" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I104" s="10">
+      <c r="B104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K104" s="13"/>
+      <c r="K104" s="11"/>
     </row>
     <row r="105" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>2021</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="8" t="s">
+      <c r="B105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I105" s="10">
+      <c r="I105" s="8">
         <f t="shared" ref="I105" si="11">H105</f>
         <v>5040</v>
       </c>
-      <c r="J105" s="11" t="s">
+      <c r="J105" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K105" s="28" t="s">
+      <c r="K105" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
+      <c r="A106" s="6">
         <v>2021</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="8" t="s">
+      <c r="B106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I106" s="10">
+      <c r="I106" s="8">
         <f t="shared" ref="I106:I107" si="12">H106</f>
         <v>5040</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K106" s="28" t="s">
+      <c r="K106" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>2021</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="8" t="s">
+      <c r="B107" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G107" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H107" s="10">
+      <c r="G107" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H107" s="8">
         <v>94922.1</v>
       </c>
-      <c r="I107" s="10">
+      <c r="I107" s="8">
         <f t="shared" si="12"/>
         <v>94922.1</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J107" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="K107" s="28" t="s">
+      <c r="K107" s="20" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>2021</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="8" t="s">
+      <c r="B108" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H108" s="10">
+      <c r="G108" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108" s="8">
         <f>I108</f>
         <v>62945</v>
       </c>
-      <c r="I108" s="24">
+      <c r="I108" s="8">
         <v>62945</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J108" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K108" s="28" t="s">
+      <c r="K108" s="20" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>2021</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="8">
         <f>SUM(I111:I113)</f>
         <v>39600</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="J109" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="K109" s="27" t="s">
+      <c r="K109" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="30">
+    <row r="110" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
         <v>2022</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H110" s="26">
+      <c r="H110" s="19">
         <f>252000+192400</f>
         <v>444400</v>
       </c>
-      <c r="I110" s="24">
+      <c r="I110" s="8">
         <f t="shared" ref="I110" si="13">H110</f>
         <v>444400</v>
       </c>
-      <c r="J110" s="11" t="s">
+      <c r="J110" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K110" s="31"/>
+      <c r="K110" s="22"/>
     </row>
     <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>2022</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G111" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I111" s="10">
+      <c r="I111" s="8">
         <f>12*1100</f>
         <v>13200</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
+      <c r="A112" s="6">
         <v>2023</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I112" s="10">
+      <c r="I112" s="8">
         <f>12*1100</f>
         <v>13200</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>2024</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="G113" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I113" s="10">
+      <c r="I113" s="8">
         <f>12*1100</f>
         <v>13200</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>2021</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="8" t="s">
+      <c r="B114" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G114" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H114" s="10">
+      <c r="G114" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
         <f>SUM(I115:I117)</f>
         <v>108000</v>
       </c>
-      <c r="J114" s="6" t="s">
+      <c r="J114" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="K114" s="27" t="s">
+      <c r="K114" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>2022</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I115" s="10">
+      <c r="B115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I115" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>2023</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I116" s="10">
+      <c r="B116" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I116" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>2024</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I117" s="10">
+      <c r="B117" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I117" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>2021</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="8" t="s">
+      <c r="B118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="D118" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H118" s="10">
+      <c r="G118" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" s="8">
         <f>SUM(I119:I121)</f>
         <v>86400</v>
       </c>
-      <c r="J118" s="6" t="s">
+      <c r="J118" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K118" s="27" t="s">
+      <c r="K118" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>2022</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I119" s="10">
+      <c r="B119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I119" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>2023</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I120" s="10">
+      <c r="B120" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I120" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>2024</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I121" s="10">
+      <c r="B121" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I121" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>2022</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="8" t="s">
+      <c r="B122" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D122" s="29" t="s">
+      <c r="D122" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G122" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H122" s="10">
+      <c r="H122" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I122" s="10">
+      <c r="I122" s="8">
         <f t="shared" ref="I122" si="14">H122</f>
         <v>5040</v>
       </c>
-      <c r="J122" s="11" t="s">
+      <c r="J122" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K122" s="28" t="s">
+      <c r="K122" s="20" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>2022</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="8" t="s">
+      <c r="B123" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D123" s="29" t="s">
+      <c r="D123" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G123" s="8" t="s">
+      <c r="G123" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I123" s="10">
+      <c r="I123" s="8">
         <f t="shared" ref="I123" si="15">H123</f>
         <v>5040</v>
       </c>
-      <c r="J123" s="11" t="s">
+      <c r="J123" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K123" s="28" t="s">
+      <c r="K123" s="20" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>2022</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G124" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H124" s="26">
+      <c r="H124" s="19">
         <f>2*4*12*2200</f>
         <v>211200</v>
       </c>
-      <c r="J124" s="6" t="s">
+      <c r="J124" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K124" s="28" t="s">
+      <c r="K124" s="20" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>2022</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G125" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H125" s="10">
+      <c r="G125" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H125" s="8">
         <f>SUM(I126:I127)</f>
         <v>50000</v>
       </c>
-      <c r="J125" s="6" t="s">
+      <c r="J125" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K125" s="28" t="s">
+      <c r="K125" s="20" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>2022</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G126" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I126" s="10">
+      <c r="G126" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I126" s="8">
         <v>25000</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>2023</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G127" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I127" s="10">
+      <c r="G127" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="8">
         <v>25000</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>2022</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H128" s="26">
+      <c r="H128" s="19">
         <f>2*2*12*4400</f>
         <v>211200</v>
       </c>
-      <c r="J128" s="11" t="s">
+      <c r="J128" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K128" s="32" t="s">
+      <c r="K128" s="20" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>2022</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D129" s="29" t="s">
+      <c r="D129" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G129" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H129" s="10">
+      <c r="G129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" s="8">
         <f>SUM(I130:I132)</f>
         <v>48000</v>
       </c>
-      <c r="J129" s="11" t="s">
+      <c r="J129" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K129" s="32" t="s">
+      <c r="K129" s="20" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>2022</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I130" s="10">
+      <c r="G130" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" s="8">
         <v>12000</v>
       </c>
-      <c r="J130" s="11" t="s">
+      <c r="J130" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>2023</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G131" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I131" s="10">
+      <c r="G131" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I131" s="8">
         <v>24000</v>
       </c>
-      <c r="J131" s="11" t="s">
+      <c r="J131" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>2024</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I132" s="10">
+      <c r="G132" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I132" s="8">
         <v>12000</v>
       </c>
-      <c r="J132" s="11" t="s">
+      <c r="J132" s="9" t="s">
         <v>244</v>
       </c>
     </row>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9E9349-C18C-EF43-ADD4-46CF3A9E5AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46818888-6A05-BD4A-95EA-90BA68FB6E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="300">
   <si>
     <t>CAPEX</t>
   </si>
@@ -128,9 +128,6 @@
     <t>http://www.faperj.br/?id=781.3.9</t>
   </si>
   <si>
-    <t>Edital N.º 12</t>
-  </si>
-  <si>
     <t>E-26/111.786/2008</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>http://www.faperj.br/downloads/formularios/resultado_APQ1_2011_2.pdf</t>
   </si>
   <si>
-    <t>Edital N.º 4</t>
-  </si>
-  <si>
     <t>23038.000664/2013-70</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>http://www.faperj.br/downloads/formularios/resultado_APQ1_2012_2.pdf</t>
   </si>
   <si>
-    <t>Edital N.º 6</t>
-  </si>
-  <si>
     <t>E-26/103.066/2012</t>
   </si>
   <si>
@@ -470,9 +461,6 @@
     <t>III Simpósio Paradesportivo Carioca</t>
   </si>
   <si>
-    <t>Edital N.º 10</t>
-  </si>
-  <si>
     <t>E-26/203.259/2016</t>
   </si>
   <si>
@@ -506,9 +494,6 @@
     <t>http://www.faperj.br/downloads/resultados_ic_2017_1.pdf</t>
   </si>
   <si>
-    <t>Edital N.º 3</t>
-  </si>
-  <si>
     <t>E-26/203.256/2017</t>
   </si>
   <si>
@@ -575,9 +560,6 @@
     <t>Neurociências e Tecnologia da Informação Aplicadas à Inovação em Reabilitação</t>
   </si>
   <si>
-    <t>Edital N.º 9</t>
-  </si>
-  <si>
     <t>407138/2018-8</t>
   </si>
   <si>
@@ -587,9 +569,6 @@
     <t>http://www.cnpq.br/web/guest/chamadas-publicas?p_p_id=resultadosportlet_WAR_resultadoscnpqportlet_INSTANCE_0ZaM&amp;idDivulgacao=8242&amp;filtro=encerradas&amp;detalha=chamadaDetalhada&amp;id=47-1191-5774</t>
   </si>
   <si>
-    <t>Edital N.º 11</t>
-  </si>
-  <si>
     <t>E-26/010.100996/2018</t>
   </si>
   <si>
@@ -608,9 +587,6 @@
     <t>Eficácia da Terapia Cognitivo-Funcional em pacientes com dores lombares e cervicais crônicas inespecíficas: ensaios clínicos controlados aleatorizados</t>
   </si>
   <si>
-    <t>Chamada N.º 3</t>
-  </si>
-  <si>
     <t>Programa Institucional de Bolsas de Iniciação Científica</t>
   </si>
   <si>
@@ -740,9 +716,6 @@
     <t>Apoio ao Programa de Pós-graduação Stricto Sensu em Ciências da Reabilitação</t>
   </si>
   <si>
-    <t>Edital N.º 29</t>
-  </si>
-  <si>
     <t>E-26/110.476/2010</t>
   </si>
   <si>
@@ -755,9 +728,6 @@
     <t>E-26/211.104/2021</t>
   </si>
   <si>
-    <t>Edital N.º 27</t>
-  </si>
-  <si>
     <t>Em processamento</t>
   </si>
   <si>
@@ -914,9 +884,6 @@
     <t>Projeto do Programa de Pós-Graduação em Ciências da Reabilitação para Bolsas de Pós- Doutorado Estratégico no Rio de Janeiro</t>
   </si>
   <si>
-    <t>Edital N.º 16/2022</t>
-  </si>
-  <si>
     <t>Programa de Desenvolvimento da Pós-Graduação (PDPG) - Pós-Doutorado Estratégico</t>
   </si>
   <si>
@@ -924,6 +891,54 @@
   </si>
   <si>
     <t>88887.692761/2022-00</t>
+  </si>
+  <si>
+    <t>Edital Nº 14/2022</t>
+  </si>
+  <si>
+    <t>Doutor Empreendedor: Transformando Conhecimento em Inovação</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de modelo de negócio para sistema de captura de movimento tridimensional sem marcadores através de inteligência artificial</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_14_2022_-_Doutor_Empreendedor_Transformando_Conhecimento_em_Inovação.pdf</t>
+  </si>
+  <si>
+    <t>Parceria</t>
+  </si>
+  <si>
+    <t>Edital Nº 16/2022</t>
+  </si>
+  <si>
+    <t>Edital Nº 12</t>
+  </si>
+  <si>
+    <t>Edital Nº 6</t>
+  </si>
+  <si>
+    <t>Edital Nº 4</t>
+  </si>
+  <si>
+    <t>Edital Nº 10</t>
+  </si>
+  <si>
+    <t>Edital Nº 3</t>
+  </si>
+  <si>
+    <t>Chamada Nº 3</t>
+  </si>
+  <si>
+    <t>Edital Nº 9</t>
+  </si>
+  <si>
+    <t>Edital Nº 11</t>
+  </si>
+  <si>
+    <t>Edital Nº 29</t>
+  </si>
+  <si>
+    <t>Edital Nº 27</t>
   </si>
 </sst>
 </file>
@@ -976,13 +991,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF37404E"/>
       <name val="Arial"/>
@@ -997,6 +1005,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1161,7 +1176,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1193,40 +1208,37 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1645,13 +1657,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A132" sqref="A132"/>
+      <selection pane="bottomRight" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1735,7 +1747,7 @@
         <v>8500</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -1769,9 +1781,9 @@
         <v>8440</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K3" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1783,16 +1795,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>0</v>
@@ -1805,10 +1817,10 @@
         <v>169159.38</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>33</v>
+        <v>255</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1819,13 +1831,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>8</v>
@@ -1841,10 +1853,10 @@
         <v>7000</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>223</v>
+        <v>256</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1855,13 +1867,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>8</v>
@@ -1877,10 +1889,10 @@
         <v>5063</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>37</v>
+        <v>257</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1891,13 +1903,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>8</v>
@@ -1913,10 +1925,10 @@
         <v>16500</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>37</v>
+        <v>254</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1927,13 +1939,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>8</v>
@@ -1949,10 +1961,10 @@
         <v>18000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>42</v>
+        <v>255</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1962,14 +1974,14 @@
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -1985,7 +1997,7 @@
         <v>9975</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -1996,14 +2008,14 @@
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>47</v>
+      <c r="C10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -2019,7 +2031,7 @@
         <v>9999</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="K10" s="10"/>
     </row>
@@ -2030,14 +2042,14 @@
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>52</v>
+      <c r="C11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>9</v>
@@ -2053,7 +2065,7 @@
         <v>10000</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K11" s="10"/>
     </row>
@@ -2064,20 +2076,20 @@
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>55</v>
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" s="8">
         <v>10000</v>
@@ -2087,7 +2099,7 @@
         <v>10000</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K12" s="10"/>
     </row>
@@ -2099,13 +2111,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>8</v>
@@ -2121,10 +2133,10 @@
         <v>20000</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>58</v>
+        <v>259</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2135,13 +2147,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>10</v>
@@ -2154,10 +2166,10 @@
         <v>75600</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>62</v>
+        <v>255</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2175,7 +2187,7 @@
         <v>25200</v>
       </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -2192,7 +2204,7 @@
         <v>25200</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -2209,7 +2221,7 @@
         <v>25200</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -2218,20 +2230,20 @@
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>43</v>
+      <c r="C18" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H18" s="8">
         <v>14000</v>
@@ -2241,10 +2253,10 @@
         <v>14000</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>226</v>
+        <v>255</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2255,19 +2267,19 @@
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H19" s="8">
         <v>4800</v>
@@ -2277,9 +2289,9 @@
         <v>4800</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K19" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -2289,19 +2301,19 @@
         <v>5</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H20" s="8">
         <v>54000</v>
@@ -2311,9 +2323,9 @@
         <v>54000</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K20" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
@@ -2323,19 +2335,19 @@
         <v>5</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H21" s="8">
         <v>32400</v>
@@ -2345,9 +2357,9 @@
         <v>32400</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K21" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
@@ -2357,19 +2369,19 @@
         <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H22" s="8">
         <v>8200</v>
@@ -2379,9 +2391,9 @@
         <v>8200</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="K22" s="11"/>
+        <v>261</v>
+      </c>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
@@ -2391,13 +2403,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>8</v>
@@ -2413,10 +2425,10 @@
         <v>6000</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>66</v>
+        <v>255</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2427,13 +2439,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>8</v>
@@ -2449,10 +2461,10 @@
         <v>11088</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>70</v>
+        <v>262</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2463,13 +2475,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>8</v>
@@ -2485,10 +2497,10 @@
         <v>19159.47</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>70</v>
+        <v>258</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2499,13 +2511,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>8</v>
@@ -2521,10 +2533,10 @@
         <v>20000</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>70</v>
+        <v>263</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2535,13 +2547,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>8</v>
@@ -2557,10 +2569,10 @@
         <v>21121.64</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>70</v>
+        <v>264</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2571,13 +2583,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>8</v>
@@ -2593,10 +2605,10 @@
         <v>25500</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>70</v>
+        <v>267</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2607,16 +2619,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>0</v>
@@ -2629,10 +2641,10 @@
         <v>130000</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>83</v>
+        <v>255</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2643,19 +2655,19 @@
         <v>5</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H30" s="8">
         <v>55800</v>
@@ -2665,9 +2677,9 @@
         <v>55800</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K30" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -2677,19 +2689,19 @@
         <v>5</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H31" s="8">
         <f>4100*12</f>
@@ -2700,9 +2712,9 @@
         <v>49200</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="K31" s="11"/>
+        <v>261</v>
+      </c>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -2712,19 +2724,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H32" s="8">
         <f>420*12</f>
@@ -2735,7 +2747,7 @@
         <v>5040</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K32" s="10"/>
     </row>
@@ -2746,22 +2758,22 @@
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>86</v>
+      <c r="C33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="14">
+        <v>44</v>
+      </c>
+      <c r="H33" s="13">
         <v>9000</v>
       </c>
       <c r="I33" s="8">
@@ -2769,7 +2781,7 @@
         <v>9000</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K33" s="10"/>
     </row>
@@ -2780,14 +2792,14 @@
       <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>94</v>
+      <c r="C34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>8</v>
@@ -2795,7 +2807,7 @@
       <c r="G34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="13">
         <v>10200</v>
       </c>
       <c r="I34" s="8">
@@ -2803,10 +2815,10 @@
         <v>10200</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>95</v>
+        <v>262</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2816,14 +2828,14 @@
       <c r="B35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>97</v>
+      <c r="C35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>8</v>
@@ -2839,10 +2851,10 @@
         <v>12100</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>95</v>
+        <v>258</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2853,21 +2865,21 @@
         <v>7</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="G36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="13">
         <v>14223</v>
       </c>
       <c r="I36" s="8">
@@ -2875,10 +2887,10 @@
         <v>14223</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>91</v>
+        <v>265</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2888,14 +2900,14 @@
       <c r="B37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>99</v>
+      <c r="C37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>8</v>
@@ -2903,7 +2915,7 @@
       <c r="G37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>14262.94</v>
       </c>
       <c r="I37" s="8">
@@ -2911,27 +2923,27 @@
         <v>14262.94</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2014</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>101</v>
+      <c r="C38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>8</v>
@@ -2939,7 +2951,7 @@
       <c r="G38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>15000</v>
       </c>
       <c r="I38" s="8">
@@ -2947,10 +2959,10 @@
         <v>15000</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>95</v>
+        <v>263</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2960,14 +2972,14 @@
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>103</v>
+      <c r="C39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>8</v>
@@ -2975,7 +2987,7 @@
       <c r="G39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>18799</v>
       </c>
       <c r="I39" s="8">
@@ -2983,10 +2995,10 @@
         <v>18799</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>95</v>
+        <v>267</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2997,16 +3009,16 @@
         <v>7</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>0</v>
@@ -3019,10 +3031,10 @@
         <v>134540.6</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>107</v>
+        <v>258</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3033,19 +3045,19 @@
         <v>5</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H41" s="8">
         <v>110000</v>
@@ -3055,9 +3067,9 @@
         <v>110000</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K41" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="K41" s="19"/>
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
@@ -3067,19 +3079,19 @@
         <v>5</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H42" s="8">
         <f>4100*12</f>
@@ -3090,9 +3102,9 @@
         <v>49200</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="K42" s="11"/>
+        <v>268</v>
+      </c>
+      <c r="K42" s="19"/>
     </row>
     <row r="43" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
@@ -3102,19 +3114,19 @@
         <v>2</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H43" s="8">
         <v>113823.18</v>
@@ -3124,9 +3136,9 @@
         <v>113823.18</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="K43" s="18"/>
+        <v>269</v>
+      </c>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
@@ -3136,19 +3148,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H44" s="8">
         <v>8000</v>
@@ -3158,11 +3170,11 @@
         <v>8000</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K44" s="16"/>
-    </row>
-    <row r="45" spans="1:11" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2015</v>
       </c>
@@ -3170,13 +3182,13 @@
         <v>7</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>8</v>
@@ -3192,13 +3204,13 @@
         <v>10750</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2015</v>
       </c>
@@ -3206,13 +3218,13 @@
         <v>7</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>8</v>
@@ -3228,10 +3240,10 @@
         <v>14105.35</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K46" s="20" t="s">
-        <v>120</v>
+        <v>258</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3242,16 +3254,16 @@
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>0</v>
@@ -3265,10 +3277,10 @@
         <v>36000</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="K47" s="20" t="s">
-        <v>124</v>
+        <v>270</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3279,13 +3291,13 @@
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>10</v>
@@ -3298,13 +3310,13 @@
         <v>75600</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2016</v>
       </c>
@@ -3324,7 +3336,7 @@
         <v>25200</v>
       </c>
       <c r="J49" s="9"/>
-      <c r="K49" s="11"/>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
@@ -3341,7 +3353,7 @@
         <v>25200</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="11"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
@@ -3358,7 +3370,7 @@
         <v>25200</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="K51" s="11"/>
+      <c r="K51" s="19"/>
     </row>
     <row r="52" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
@@ -3368,19 +3380,19 @@
         <v>5</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H52" s="8">
         <f>29600+132100</f>
@@ -3391,9 +3403,9 @@
         <v>161700</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K52" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="K52" s="19"/>
     </row>
     <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
@@ -3403,19 +3415,19 @@
         <v>5</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H53" s="8">
         <v>49200</v>
@@ -3425,9 +3437,9 @@
         <v>49200</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="K53" s="11"/>
+        <v>268</v>
+      </c>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
@@ -3437,19 +3449,19 @@
         <v>5</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H54" s="8">
         <f>182400+137700</f>
@@ -3460,9 +3472,9 @@
         <v>320100</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K54" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
@@ -3472,13 +3484,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>3</v>
@@ -3494,13 +3506,13 @@
         <v>21000</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="K55" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2016</v>
       </c>
@@ -3508,19 +3520,19 @@
         <v>2</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H56" s="8">
         <f>1100*36</f>
@@ -3531,10 +3543,10 @@
         <v>39600</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K56" s="20" t="s">
-        <v>137</v>
+        <v>262</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3545,19 +3557,19 @@
         <v>7</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H57" s="8">
         <f>420*12</f>
@@ -3568,10 +3580,10 @@
         <v>5040</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K57" s="20" t="s">
-        <v>140</v>
+        <v>262</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3582,19 +3594,19 @@
         <v>7</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H58" s="8">
         <v>8290.61</v>
@@ -3604,7 +3616,7 @@
         <v>8290.61</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K58" s="10"/>
     </row>
@@ -3616,21 +3628,21 @@
         <v>7</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="17">
         <v>460670</v>
       </c>
       <c r="I59" s="8">
@@ -3638,10 +3650,10 @@
         <v>460670</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>150</v>
+        <v>270</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3652,13 +3664,13 @@
         <v>7</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>143</v>
+        <v>293</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>10</v>
@@ -3671,10 +3683,10 @@
         <v>75600</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K60" s="20" t="s">
-        <v>146</v>
+        <v>271</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3691,7 +3703,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K61" s="11"/>
+      <c r="K61" s="19"/>
     </row>
     <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
@@ -3707,7 +3719,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K62" s="11"/>
+      <c r="K62" s="19"/>
     </row>
     <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
@@ -3723,7 +3735,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K63" s="11"/>
+      <c r="K63" s="19"/>
     </row>
     <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
@@ -3733,19 +3745,19 @@
         <v>5</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H64" s="8">
         <v>49200</v>
@@ -3755,9 +3767,9 @@
         <v>49200</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="K64" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="K64" s="19"/>
     </row>
     <row r="65" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
@@ -3767,19 +3779,19 @@
         <v>5</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H65" s="8">
         <f>182400+137700</f>
@@ -3790,9 +3802,9 @@
         <v>320100</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K65" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="K65" s="19"/>
     </row>
     <row r="66" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
@@ -3802,19 +3814,19 @@
         <v>7</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H66" s="8">
         <f>420*12</f>
@@ -3825,10 +3837,10 @@
         <v>5040</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K66" s="20" t="s">
-        <v>154</v>
+        <v>258</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3839,13 +3851,13 @@
         <v>7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
@@ -3858,10 +3870,10 @@
         <v>75600</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K67" s="20" t="s">
-        <v>158</v>
+        <v>258</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3878,7 +3890,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K68" s="11"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
@@ -3894,7 +3906,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K69" s="11"/>
+      <c r="K69" s="19"/>
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
@@ -3910,7 +3922,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K70" s="11"/>
+      <c r="K70" s="19"/>
     </row>
     <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
@@ -3920,19 +3932,19 @@
         <v>5</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H71" s="8">
         <v>49200</v>
@@ -3942,9 +3954,9 @@
         <v>49200</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="K71" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="K71" s="19"/>
     </row>
     <row r="72" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
@@ -3954,19 +3966,19 @@
         <v>5</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H72" s="8">
         <f>182400+136100</f>
@@ -3977,11 +3989,11 @@
         <v>318500</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="K72" s="19"/>
+    </row>
+    <row r="73" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2018</v>
       </c>
@@ -3989,19 +4001,19 @@
         <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H73" s="8">
         <f>400*12</f>
@@ -4012,13 +4024,13 @@
         <v>4800</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="K73" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2018</v>
       </c>
@@ -4026,13 +4038,13 @@
         <v>2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>3</v>
@@ -4048,10 +4060,10 @@
         <v>60000</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K74" s="20" t="s">
-        <v>181</v>
+        <v>262</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4062,19 +4074,19 @@
         <v>7</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H75" s="8">
         <f>420*12</f>
@@ -4085,10 +4097,10 @@
         <v>5040</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K75" s="20" t="s">
-        <v>162</v>
+        <v>255</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4099,19 +4111,19 @@
         <v>7</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H76" s="8">
         <f>420*12</f>
@@ -4122,10 +4134,10 @@
         <v>5040</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="K76" s="20" t="s">
-        <v>162</v>
+        <v>272</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4136,19 +4148,19 @@
         <v>7</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H77" s="8">
         <f>420*12</f>
@@ -4159,10 +4171,10 @@
         <v>5040</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="K77" s="20" t="s">
-        <v>162</v>
+        <v>268</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4173,19 +4185,19 @@
         <v>7</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H78" s="8">
         <f>420*12</f>
@@ -4196,10 +4208,10 @@
         <v>5040</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K78" s="20" t="s">
-        <v>170</v>
+        <v>262</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4210,19 +4222,19 @@
         <v>7</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H79" s="8">
         <f>420*12</f>
@@ -4233,10 +4245,10 @@
         <v>5040</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="K79" s="20" t="s">
-        <v>170</v>
+        <v>269</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -4247,16 +4259,16 @@
         <v>7</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>0</v>
@@ -4269,10 +4281,10 @@
         <v>45436.51</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="K80" s="20" t="s">
-        <v>186</v>
+        <v>268</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4283,13 +4295,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>10</v>
@@ -4302,10 +4314,10 @@
         <v>75600</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K81" s="20" t="s">
-        <v>175</v>
+        <v>262</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4322,7 +4334,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K82" s="11"/>
+      <c r="K82" s="19"/>
     </row>
     <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
@@ -4338,7 +4350,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K83" s="11"/>
+      <c r="K83" s="19"/>
     </row>
     <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
@@ -4354,9 +4366,9 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K84" s="11"/>
-    </row>
-    <row r="85" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="K84" s="19"/>
+    </row>
+    <row r="85" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2018</v>
       </c>
@@ -4364,16 +4376,16 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>0</v>
@@ -4387,10 +4399,10 @@
         <v>62885.47</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="K85" s="20" t="s">
-        <v>186</v>
+        <v>263</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4401,13 +4413,13 @@
         <v>7</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>10</v>
@@ -4420,10 +4432,10 @@
         <v>75600</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="K86" s="20" t="s">
-        <v>175</v>
+        <v>267</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4440,7 +4452,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K87" s="11"/>
+      <c r="K87" s="19"/>
     </row>
     <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
@@ -4456,7 +4468,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K88" s="11"/>
+      <c r="K88" s="19"/>
     </row>
     <row r="89" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
@@ -4472,7 +4484,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K89" s="11"/>
+      <c r="K89" s="19"/>
     </row>
     <row r="90" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
@@ -4482,19 +4494,19 @@
         <v>5</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H90" s="8">
         <f>45100+4100</f>
@@ -4505,9 +4517,9 @@
         <v>49200</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="K90" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="K90" s="19"/>
     </row>
     <row r="91" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
@@ -4517,19 +4529,19 @@
         <v>5</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H91" s="8">
         <f>91200+91200+63600+68800</f>
@@ -4540,11 +4552,11 @@
         <v>314800</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K91" s="11"/>
-    </row>
-    <row r="92" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="K91" s="19"/>
+    </row>
+    <row r="92" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2019</v>
       </c>
@@ -4552,19 +4564,19 @@
         <v>2</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H92" s="8">
         <f>400*12</f>
@@ -4575,10 +4587,10 @@
         <v>4800</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K92" s="20" t="s">
-        <v>227</v>
+        <v>262</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4589,19 +4601,19 @@
         <v>7</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H93" s="8">
         <f>420*12</f>
@@ -4612,10 +4624,10 @@
         <v>5040</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="K93" s="20" t="s">
-        <v>195</v>
+        <v>263</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -4626,19 +4638,19 @@
         <v>7</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H94" s="8">
         <f>420*12</f>
@@ -4649,10 +4661,10 @@
         <v>5040</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K94" s="20" t="s">
-        <v>199</v>
+        <v>262</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4663,19 +4675,19 @@
         <v>5</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H95" s="8">
         <f>4100*2</f>
@@ -4686,7 +4698,7 @@
         <v>8200</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4697,19 +4709,19 @@
         <v>5</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H96" s="8">
         <f>210800+158200</f>
@@ -4720,11 +4732,11 @@
         <v>369000</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K96" s="11"/>
-    </row>
-    <row r="97" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="K96" s="19"/>
+    </row>
+    <row r="97" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2020</v>
       </c>
@@ -4732,19 +4744,19 @@
         <v>5</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H97" s="8">
         <f>6*1650*4</f>
@@ -4755,10 +4767,10 @@
         <v>39600</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="K97" s="20" t="s">
-        <v>263</v>
+        <v>269</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4769,19 +4781,19 @@
         <v>2</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H98" s="8">
         <f>1100*36</f>
@@ -4792,10 +4804,10 @@
         <v>39600</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K98" s="20" t="s">
-        <v>202</v>
+        <v>262</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -4806,19 +4818,19 @@
         <v>7</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H99" s="8">
         <f>420*12</f>
@@ -4829,10 +4841,10 @@
         <v>5040</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K99" s="20" t="s">
-        <v>205</v>
+        <v>255</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4843,19 +4855,19 @@
         <v>5</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H100" s="8">
         <f>252000+192400</f>
@@ -4866,9 +4878,9 @@
         <v>444400</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K100" s="22"/>
+        <v>234</v>
+      </c>
+      <c r="K100" s="21"/>
     </row>
     <row r="101" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
@@ -4878,13 +4890,13 @@
         <v>7</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>10</v>
@@ -4897,10 +4909,10 @@
         <v>75600</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="K101" s="20" t="s">
-        <v>214</v>
+        <v>269</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4917,7 +4929,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K102" s="11"/>
+      <c r="K102" s="19"/>
     </row>
     <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
@@ -4933,7 +4945,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K103" s="11"/>
+      <c r="K103" s="19"/>
     </row>
     <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
@@ -4949,7 +4961,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K104" s="11"/>
+      <c r="K104" s="19"/>
     </row>
     <row r="105" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
@@ -4959,19 +4971,19 @@
         <v>7</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H105" s="8">
         <f>420*12</f>
@@ -4982,10 +4994,10 @@
         <v>5040</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="K105" s="20" t="s">
-        <v>219</v>
+        <v>255</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -4996,19 +5008,19 @@
         <v>7</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H106" s="8">
         <f>420*12</f>
@@ -5019,13 +5031,13 @@
         <v>5040</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K106" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2021</v>
       </c>
@@ -5033,16 +5045,16 @@
         <v>7</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>0</v>
@@ -5055,13 +5067,13 @@
         <v>94922.1</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="K107" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2021</v>
       </c>
@@ -5069,13 +5081,13 @@
         <v>7</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>8</v>
@@ -5091,10 +5103,10 @@
         <v>62945</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="K108" s="20" t="s">
-        <v>241</v>
+        <v>272</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5105,29 +5117,29 @@
         <v>2</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H109" s="8">
         <f>SUM(I111:I113)</f>
         <v>39600</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5138,21 +5150,21 @@
         <v>5</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H110" s="19">
+        <v>107</v>
+      </c>
+      <c r="H110" s="17">
         <f>252000+192400</f>
         <v>444400</v>
       </c>
@@ -5161,9 +5173,9 @@
         <v>444400</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K110" s="22"/>
+        <v>234</v>
+      </c>
+      <c r="K110" s="21"/>
     </row>
     <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
@@ -5173,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I111" s="8">
         <f>12*1100</f>
@@ -5188,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I112" s="8">
         <f>12*1100</f>
@@ -5203,7 +5215,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I113" s="8">
         <f>12*1100</f>
@@ -5218,16 +5230,16 @@
         <v>7</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>0</v>
@@ -5237,10 +5249,10 @@
         <v>108000</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5296,13 +5308,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>10</v>
@@ -5315,10 +5327,10 @@
         <v>86400</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5366,7 +5378,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2022</v>
       </c>
@@ -5374,19 +5386,19 @@
         <v>7</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>239</v>
+        <v>291</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H122" s="8">
         <f>420*12</f>
@@ -5397,10 +5409,10 @@
         <v>5040</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K122" s="20" t="s">
-        <v>283</v>
+        <v>262</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5411,19 +5423,19 @@
         <v>7</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>239</v>
+        <v>291</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H123" s="8">
         <f>420*12</f>
@@ -5434,10 +5446,10 @@
         <v>5040</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="K123" s="20" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="204" x14ac:dyDescent="0.2">
@@ -5448,29 +5460,29 @@
         <v>5</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H124" s="19">
+        <v>107</v>
+      </c>
+      <c r="H124" s="17">
         <f>2*4*12*2200</f>
         <v>211200</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="K124" s="20" t="s">
-        <v>286</v>
+        <v>234</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="204" x14ac:dyDescent="0.2">
@@ -5481,16 +5493,16 @@
         <v>5</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>0</v>
@@ -5500,10 +5512,10 @@
         <v>50000</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="K125" s="20" t="s">
-        <v>286</v>
+        <v>234</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5520,7 +5532,7 @@
         <v>25000</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5537,10 +5549,10 @@
         <v>25000</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2022</v>
       </c>
@@ -5548,32 +5560,32 @@
         <v>5</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>294</v>
+        <v>289</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H128" s="19">
+        <v>107</v>
+      </c>
+      <c r="H128" s="17">
         <f>2*2*12*4400</f>
         <v>211200</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K128" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2022</v>
       </c>
@@ -5581,16 +5593,16 @@
         <v>5</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>294</v>
+        <v>289</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>0</v>
@@ -5600,10 +5612,10 @@
         <v>48000</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K129" s="20" t="s">
-        <v>293</v>
+        <v>234</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5620,7 +5632,7 @@
         <v>12000</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5637,7 +5649,7 @@
         <v>24000</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5654,7 +5666,39 @@
         <v>12000</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>244</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G133" s="18"/>
+      <c r="H133" s="17">
+        <f>SUM(I133)</f>
+        <v>0</v>
+      </c>
+      <c r="I133" s="17"/>
+      <c r="J133" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46818888-6A05-BD4A-95EA-90BA68FB6E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556E0447-2AE0-A049-AC1C-4A17A8DD7E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,9 +692,6 @@
     <t>Avaliação postural e eletromiográfica de idosos com disfunção vestibular periférica</t>
   </si>
   <si>
-    <t>Fórum Nacional de Pesquisa e Pós-Graduação Strictu Sensu em Fisioterapia</t>
-  </si>
-  <si>
     <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/resultado-edital-04-2012-2013-pdf</t>
   </si>
   <si>
@@ -939,6 +936,9 @@
   </si>
   <si>
     <t>Edital Nº 27</t>
+  </si>
+  <si>
+    <t>VIII Fórum Nacional de Pesquisa e Pós-Graduação Strictu Sensu em Fisioterapia</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1747,7 @@
         <v>8500</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -1781,7 +1781,7 @@
         <v>8440</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
@@ -1795,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>29</v>
@@ -1817,7 +1817,7 @@
         <v>169159.38</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>32</v>
@@ -1834,7 +1834,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>216</v>
@@ -1853,7 +1853,7 @@
         <v>7000</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>215</v>
@@ -1870,7 +1870,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>35</v>
@@ -1889,7 +1889,7 @@
         <v>5063</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>36</v>
@@ -1925,7 +1925,7 @@
         <v>16500</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>36</v>
@@ -1961,7 +1961,7 @@
         <v>18000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>41</v>
@@ -1997,7 +1997,7 @@
         <v>9975</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -2031,7 +2031,7 @@
         <v>9999</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K10" s="10"/>
     </row>
@@ -2065,7 +2065,7 @@
         <v>10000</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K11" s="10"/>
     </row>
@@ -2099,7 +2099,7 @@
         <v>10000</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K12" s="10"/>
     </row>
@@ -2133,7 +2133,7 @@
         <v>20000</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>56</v>
@@ -2147,7 +2147,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>75600</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>59</v>
@@ -2231,13 +2231,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -2253,10 +2253,10 @@
         <v>14000</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2273,10 +2273,10 @@
         <v>202</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>107</v>
@@ -2289,7 +2289,7 @@
         <v>4800</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K19" s="19"/>
     </row>
@@ -2307,10 +2307,10 @@
         <v>202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>107</v>
@@ -2323,7 +2323,7 @@
         <v>54000</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K20" s="19"/>
     </row>
@@ -2341,10 +2341,10 @@
         <v>202</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>107</v>
@@ -2357,7 +2357,7 @@
         <v>32400</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K21" s="19"/>
     </row>
@@ -2375,7 +2375,7 @@
         <v>203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>200</v>
@@ -2391,7 +2391,7 @@
         <v>8200</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K22" s="19"/>
     </row>
@@ -2425,7 +2425,7 @@
         <v>6000</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>63</v>
@@ -2461,7 +2461,7 @@
         <v>11088</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>67</v>
@@ -2497,7 +2497,7 @@
         <v>19159.47</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>67</v>
@@ -2533,7 +2533,7 @@
         <v>20000</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>67</v>
@@ -2569,7 +2569,7 @@
         <v>21121.64</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>67</v>
@@ -2605,7 +2605,7 @@
         <v>25500</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>67</v>
@@ -2641,7 +2641,7 @@
         <v>130000</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>80</v>
@@ -2661,10 +2661,10 @@
         <v>202</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>107</v>
@@ -2677,7 +2677,7 @@
         <v>55800</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K30" s="19"/>
     </row>
@@ -2695,7 +2695,7 @@
         <v>203</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>200</v>
@@ -2712,7 +2712,7 @@
         <v>49200</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K31" s="19"/>
     </row>
@@ -2747,7 +2747,7 @@
         <v>5040</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K32" s="10"/>
     </row>
@@ -2781,7 +2781,7 @@
         <v>9000</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K33" s="10"/>
     </row>
@@ -2815,7 +2815,7 @@
         <v>10200</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>92</v>
@@ -2851,7 +2851,7 @@
         <v>12100</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>92</v>
@@ -2887,7 +2887,7 @@
         <v>14223</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>88</v>
@@ -2923,7 +2923,7 @@
         <v>14262.94</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>92</v>
@@ -2959,7 +2959,7 @@
         <v>15000</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>92</v>
@@ -2995,7 +2995,7 @@
         <v>18799</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>92</v>
@@ -3014,7 +3014,7 @@
       <c r="D40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="11" t="s">
         <v>103</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -3031,7 +3031,7 @@
         <v>134540.6</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>104</v>
@@ -3051,10 +3051,10 @@
         <v>202</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>107</v>
@@ -3067,7 +3067,7 @@
         <v>110000</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K41" s="19"/>
     </row>
@@ -3085,7 +3085,7 @@
         <v>203</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>200</v>
@@ -3102,7 +3102,7 @@
         <v>49200</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K42" s="19"/>
     </row>
@@ -3136,7 +3136,7 @@
         <v>113823.18</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K43" s="20"/>
     </row>
@@ -3170,7 +3170,7 @@
         <v>8000</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K44" s="15"/>
     </row>
@@ -3204,7 +3204,7 @@
         <v>10750</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>111</v>
@@ -3240,7 +3240,7 @@
         <v>14105.35</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>117</v>
@@ -3254,7 +3254,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>118</v>
@@ -3277,7 +3277,7 @@
         <v>36000</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -3291,7 +3291,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>122</v>
@@ -3310,7 +3310,7 @@
         <v>75600</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>59</v>
@@ -3386,10 +3386,10 @@
         <v>202</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>107</v>
@@ -3403,7 +3403,7 @@
         <v>161700</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K52" s="19"/>
     </row>
@@ -3421,7 +3421,7 @@
         <v>203</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>200</v>
@@ -3437,7 +3437,7 @@
         <v>49200</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K53" s="19"/>
     </row>
@@ -3455,10 +3455,10 @@
         <v>202</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>107</v>
@@ -3472,7 +3472,7 @@
         <v>320100</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K54" s="19"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>21000</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3543,7 +3543,7 @@
         <v>39600</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>134</v>
@@ -3580,7 +3580,7 @@
         <v>5040</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>137</v>
@@ -3616,7 +3616,7 @@
         <v>8290.61</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K58" s="10"/>
     </row>
@@ -3650,7 +3650,7 @@
         <v>460670</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>146</v>
@@ -3664,7 +3664,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>140</v>
@@ -3683,7 +3683,7 @@
         <v>75600</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>142</v>
@@ -3751,7 +3751,7 @@
         <v>203</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>200</v>
@@ -3767,7 +3767,7 @@
         <v>49200</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K64" s="19"/>
     </row>
@@ -3785,10 +3785,10 @@
         <v>202</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>107</v>
@@ -3802,7 +3802,7 @@
         <v>320100</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K65" s="19"/>
     </row>
@@ -3837,7 +3837,7 @@
         <v>5040</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>150</v>
@@ -3851,7 +3851,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>151</v>
@@ -3870,7 +3870,7 @@
         <v>75600</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>153</v>
@@ -3938,7 +3938,7 @@
         <v>203</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>200</v>
@@ -3954,7 +3954,7 @@
         <v>49200</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K71" s="19"/>
     </row>
@@ -3972,10 +3972,10 @@
         <v>202</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>107</v>
@@ -3989,7 +3989,7 @@
         <v>318500</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K72" s="19"/>
     </row>
@@ -4001,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>183</v>
@@ -4024,10 +4024,10 @@
         <v>4800</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -4038,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>173</v>
@@ -4060,7 +4060,7 @@
         <v>60000</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>175</v>
@@ -4097,7 +4097,7 @@
         <v>5040</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>157</v>
@@ -4134,7 +4134,7 @@
         <v>5040</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>157</v>
@@ -4171,7 +4171,7 @@
         <v>5040</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>157</v>
@@ -4208,7 +4208,7 @@
         <v>5040</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>165</v>
@@ -4245,7 +4245,7 @@
         <v>5040</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>165</v>
@@ -4259,7 +4259,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>180</v>
@@ -4281,7 +4281,7 @@
         <v>45436.51</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>179</v>
@@ -4295,7 +4295,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>168</v>
@@ -4314,7 +4314,7 @@
         <v>75600</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>170</v>
@@ -4376,7 +4376,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>176</v>
@@ -4399,7 +4399,7 @@
         <v>62885.47</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>179</v>
@@ -4413,7 +4413,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>171</v>
@@ -4432,7 +4432,7 @@
         <v>75600</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>170</v>
@@ -4500,7 +4500,7 @@
         <v>201</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>200</v>
@@ -4517,7 +4517,7 @@
         <v>49200</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K90" s="19"/>
     </row>
@@ -4535,10 +4535,10 @@
         <v>202</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>107</v>
@@ -4552,7 +4552,7 @@
         <v>314800</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K91" s="19"/>
     </row>
@@ -4564,7 +4564,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>183</v>
@@ -4587,10 +4587,10 @@
         <v>4800</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4624,7 +4624,7 @@
         <v>5040</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>187</v>
@@ -4661,7 +4661,7 @@
         <v>5040</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>191</v>
@@ -4681,7 +4681,7 @@
         <v>201</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>200</v>
@@ -4698,7 +4698,7 @@
         <v>8200</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4712,13 +4712,13 @@
         <v>204</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>107</v>
@@ -4732,7 +4732,7 @@
         <v>369000</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K96" s="19"/>
     </row>
@@ -4747,13 +4747,13 @@
         <v>101</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>107</v>
@@ -4767,10 +4767,10 @@
         <v>39600</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4804,7 +4804,7 @@
         <v>39600</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>194</v>
@@ -4841,7 +4841,7 @@
         <v>5040</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>197</v>
@@ -4858,13 +4858,13 @@
         <v>204</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>107</v>
@@ -4878,7 +4878,7 @@
         <v>444400</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K100" s="21"/>
     </row>
@@ -4893,7 +4893,7 @@
         <v>214</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>207</v>
@@ -4909,7 +4909,7 @@
         <v>75600</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K101" s="5" t="s">
         <v>206</v>
@@ -4974,7 +4974,7 @@
         <v>210</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>212</v>
@@ -4994,7 +4994,7 @@
         <v>5040</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>211</v>
@@ -5011,7 +5011,7 @@
         <v>210</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>213</v>
@@ -5031,7 +5031,7 @@
         <v>5040</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>211</v>
@@ -5045,13 +5045,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>120</v>
@@ -5067,10 +5067,10 @@
         <v>94922.1</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -5081,13 +5081,13 @@
         <v>7</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>8</v>
@@ -5103,10 +5103,10 @@
         <v>62945</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5117,13 +5117,13 @@
         <v>2</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>4</v>
@@ -5136,10 +5136,10 @@
         <v>39600</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5153,13 +5153,13 @@
         <v>204</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>107</v>
@@ -5173,7 +5173,7 @@
         <v>444400</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K110" s="21"/>
     </row>
@@ -5230,16 +5230,16 @@
         <v>7</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E114" s="7" t="s">
+      <c r="F114" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>0</v>
@@ -5249,10 +5249,10 @@
         <v>108000</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5308,13 +5308,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>10</v>
@@ -5327,10 +5327,10 @@
         <v>86400</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5386,13 +5386,13 @@
         <v>7</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>11</v>
@@ -5409,10 +5409,10 @@
         <v>5040</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5423,10 +5423,10 @@
         <v>7</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>207</v>
@@ -5446,10 +5446,10 @@
         <v>5040</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="204" x14ac:dyDescent="0.2">
@@ -5460,16 +5460,16 @@
         <v>5</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>107</v>
@@ -5479,10 +5479,10 @@
         <v>211200</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="204" x14ac:dyDescent="0.2">
@@ -5493,16 +5493,16 @@
         <v>5</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>0</v>
@@ -5512,10 +5512,10 @@
         <v>50000</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5532,7 +5532,7 @@
         <v>25000</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5549,7 +5549,7 @@
         <v>25000</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5560,16 +5560,16 @@
         <v>5</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E128" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F128" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>107</v>
@@ -5579,10 +5579,10 @@
         <v>211200</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5593,16 +5593,16 @@
         <v>5</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E129" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         <v>48000</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5632,7 +5632,7 @@
         <v>12000</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5649,7 +5649,7 @@
         <v>24000</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5666,7 +5666,7 @@
         <v>12000</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5677,16 +5677,16 @@
         <v>7</v>
       </c>
       <c r="C133" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F133" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="G133" s="18"/>
       <c r="H133" s="17">
@@ -5695,10 +5695,10 @@
       </c>
       <c r="I133" s="17"/>
       <c r="J133" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556E0447-2AE0-A049-AC1C-4A17A8DD7E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0A9D09-E8CC-F34E-AF89-D81E62B53A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="295">
   <si>
     <t>CAPEX</t>
   </si>
@@ -878,18 +878,6 @@
     <t>88881.708719/2022-01</t>
   </si>
   <si>
-    <t>Projeto do Programa de Pós-Graduação em Ciências da Reabilitação para Bolsas de Pós- Doutorado Estratégico no Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Programa de Desenvolvimento da Pós-Graduação (PDPG) - Pós-Doutorado Estratégico</t>
-  </si>
-  <si>
-    <t>https://www.gov.br/capes/pt-br/acesso-a-informacao/acoes-e-programas/bolsas/programas-estrategicos/desenvolvimento-regional/programa-de-desenvolvimento-da-pos-graduacao-pdpg-pos-doutorado-estrategico</t>
-  </si>
-  <si>
-    <t>88887.692761/2022-00</t>
-  </si>
-  <si>
     <t>Edital Nº 14/2022</t>
   </si>
   <si>
@@ -903,9 +891,6 @@
   </si>
   <si>
     <t>Parceria</t>
-  </si>
-  <si>
-    <t>Edital Nº 16/2022</t>
   </si>
   <si>
     <t>Edital Nº 12</t>
@@ -1657,13 +1642,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A133" sqref="A133"/>
+      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1795,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>29</v>
@@ -2147,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>57</v>
@@ -2231,13 +2216,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -3254,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>118</v>
@@ -3291,7 +3276,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>122</v>
@@ -3664,7 +3649,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>140</v>
@@ -3851,7 +3836,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>151</v>
@@ -4001,7 +3986,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>183</v>
@@ -4038,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>173</v>
@@ -4259,7 +4244,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>180</v>
@@ -4295,7 +4280,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>168</v>
@@ -4376,7 +4361,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>176</v>
@@ -4413,7 +4398,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>171</v>
@@ -4564,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>183</v>
@@ -5045,7 +5030,7 @@
         <v>7</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>227</v>
@@ -5081,7 +5066,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>246</v>
@@ -5117,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>240</v>
@@ -5386,7 +5371,7 @@
         <v>7</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>228</v>
@@ -5423,7 +5408,7 @@
         <v>7</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>228</v>
@@ -5557,148 +5542,31 @@
         <v>2022</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G128" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="G128" s="18"/>
       <c r="H128" s="17">
-        <f>2*2*12*4400</f>
-        <v>211200</v>
-      </c>
-      <c r="J128" s="9" t="s">
-        <v>233</v>
+        <f>SUM(I128)</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="17"/>
+      <c r="J128" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D129" s="18" t="s">
         <v>282</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H129" s="8">
-        <f>SUM(I130:I132)</f>
-        <v>48000</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K129" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I130" s="8">
-        <v>12000</v>
-      </c>
-      <c r="J130" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I131" s="8">
-        <v>24000</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
-        <v>2024</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I132" s="8">
-        <v>12000</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G133" s="18"/>
-      <c r="H133" s="17">
-        <f>SUM(I133)</f>
-        <v>0</v>
-      </c>
-      <c r="I133" s="17"/>
-      <c r="J133" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K133" s="5" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0A9D09-E8CC-F34E-AF89-D81E62B53A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17413690-2A44-F241-8853-41E496D8A42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="295">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1161,7 +1161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1224,6 +1224,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1642,13 +1645,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5558,8 +5561,8 @@
       </c>
       <c r="G128" s="18"/>
       <c r="H128" s="17">
-        <f>SUM(I128)</f>
-        <v>0</v>
+        <f>SUM(I129:I131)</f>
+        <v>185600</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="5" t="s">
@@ -5567,6 +5570,54 @@
       </c>
       <c r="K128" s="5" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="22"/>
+      <c r="G129" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17">
+        <f>5125*12+525*12</f>
+        <v>67800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17">
+        <f>5125*12+525*12</f>
+        <v>67800</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17413690-2A44-F241-8853-41E496D8A42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B21EF-B139-8548-B9E3-0100989B85E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,12 +884,6 @@
     <t>Doutor Empreendedor: Transformando Conhecimento em Inovação</t>
   </si>
   <si>
-    <t>Desenvolvimento de modelo de negócio para sistema de captura de movimento tridimensional sem marcadores através de inteligência artificial</t>
-  </si>
-  <si>
-    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_14_2022_-_Doutor_Empreendedor_Transformando_Conhecimento_em_Inovação.pdf</t>
-  </si>
-  <si>
     <t>Parceria</t>
   </si>
   <si>
@@ -924,6 +918,12 @@
   </si>
   <si>
     <t>VIII Fórum Nacional de Pesquisa e Pós-Graduação Strictu Sensu em Fisioterapia</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de modelo de negócio para sistema de captura de movimento tridimensional sem marcadores atráves de inteligencia artificial</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_da_2ª_Etapa_Edital_FAPERJ_Nº_14_2022___Doutor_Empreendedor_Transformando_Conhecimento_em_Inovação.pdf</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1224,9 +1224,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1783,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>29</v>
@@ -2135,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>57</v>
@@ -2219,13 +2216,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -3242,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>118</v>
@@ -3279,7 +3276,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>122</v>
@@ -3652,7 +3649,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>140</v>
@@ -3839,7 +3836,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>151</v>
@@ -3989,7 +3986,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>183</v>
@@ -4026,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>173</v>
@@ -4247,7 +4244,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>180</v>
@@ -4283,7 +4280,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>168</v>
@@ -4364,7 +4361,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>176</v>
@@ -4401,7 +4398,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>171</v>
@@ -4552,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>183</v>
@@ -5033,7 +5030,7 @@
         <v>7</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>227</v>
@@ -5069,7 +5066,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>246</v>
@@ -5105,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>240</v>
@@ -5374,7 +5371,7 @@
         <v>7</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>228</v>
@@ -5411,7 +5408,7 @@
         <v>7</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>228</v>
@@ -5540,7 +5537,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2022</v>
       </c>
@@ -5554,7 +5551,7 @@
         <v>228</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>280</v>
@@ -5566,10 +5563,10 @@
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5579,7 +5576,6 @@
       <c r="B129" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="22"/>
       <c r="G129" s="18" t="s">
         <v>0</v>
       </c>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B21EF-B139-8548-B9E3-0100989B85E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD87B97-80A5-FF4D-B0E3-9582A8480030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="302">
   <si>
     <t>CAPEX</t>
   </si>
@@ -725,9 +725,6 @@
     <t>E-26/211.104/2021</t>
   </si>
   <si>
-    <t>Em processamento</t>
-  </si>
-  <si>
     <t>Fatores preditivos e autopercepção sobre dor musculoesquelética em indivíduos com alta hospitalar após COVID-19</t>
   </si>
   <si>
@@ -860,9 +857,6 @@
     <t>https://www.faperj.br/rp/downloads/Resultado_Edital_FAPERJ_Nº_06_2022_Programa_de_Bolsa_de_Iniciação_Cient%C3%ADfica.pdf</t>
   </si>
   <si>
-    <t>Alterações longitudinais no Teste de AVD- Glittre em pacientes com Esclerodermia antes e após reabilitação</t>
-  </si>
-  <si>
     <t>Programa de Desenvolvimento da Pós-Graduação (PDPG) Emergencial de Consolidação Estratégica dos Programas de Pós-Graduação stricto sensu acadêmicos</t>
   </si>
   <si>
@@ -924,6 +918,33 @@
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_da_2ª_Etapa_Edital_FAPERJ_Nº_14_2022___Doutor_Empreendedor_Transformando_Conhecimento_em_Inovação.pdf</t>
+  </si>
+  <si>
+    <t>E-26/204.215/2022</t>
+  </si>
+  <si>
+    <t>Alterações longitudinais no Teste de AVD-Glittre em pacientes com Esclerodermia antes e após reabilitação</t>
+  </si>
+  <si>
+    <t>e-26/201.357/2022</t>
+  </si>
+  <si>
+    <t>30196712022-9</t>
+  </si>
+  <si>
+    <t>http://memoria2.cnpq.br/web/guest/chamadas-publicas?p_p_id=resultadosportlet_WAR_resultadoscnpqportlet_INSTANCE_0ZaM&amp;filtro=encerradas&amp;detalha=chamadaDivulgada&amp;idDivulgacao=10628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edital Nº 09/2022 </t>
+  </si>
+  <si>
+    <t>Alterações longitudinais no Teste de AVD-Glittre em pacientes com câncer de pulmão: Análise pré e pós-operatória usando reabilitação em ensaio randomizado controlado</t>
+  </si>
+  <si>
+    <t>E-26/204.560/2022</t>
+  </si>
+  <si>
+    <t>SEI-260.117/2023</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1214,9 +1235,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1224,6 +1242,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1642,13 +1669,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A131" sqref="A131"/>
+      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1759,7 @@
         <v>8500</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -1766,7 +1793,7 @@
         <v>8440</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
@@ -1780,7 +1807,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>29</v>
@@ -1802,7 +1829,7 @@
         <v>169159.38</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>32</v>
@@ -1838,7 +1865,7 @@
         <v>7000</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>215</v>
@@ -1874,7 +1901,7 @@
         <v>5063</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>36</v>
@@ -1910,7 +1937,7 @@
         <v>16500</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>36</v>
@@ -1946,7 +1973,7 @@
         <v>18000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>41</v>
@@ -1982,7 +2009,7 @@
         <v>9975</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -2016,7 +2043,7 @@
         <v>9999</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K10" s="10"/>
     </row>
@@ -2050,7 +2077,7 @@
         <v>10000</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K11" s="10"/>
     </row>
@@ -2084,7 +2111,7 @@
         <v>10000</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K12" s="10"/>
     </row>
@@ -2118,7 +2145,7 @@
         <v>20000</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>56</v>
@@ -2132,7 +2159,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>57</v>
@@ -2151,7 +2178,7 @@
         <v>75600</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>59</v>
@@ -2172,7 +2199,7 @@
         <v>25200</v>
       </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="19"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -2189,7 +2216,7 @@
         <v>25200</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -2206,7 +2233,7 @@
         <v>25200</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="19"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -2216,13 +2243,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -2238,7 +2265,7 @@
         <v>14000</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>217</v>
@@ -2258,10 +2285,10 @@
         <v>202</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>107</v>
@@ -2274,9 +2301,9 @@
         <v>4800</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K19" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -2292,10 +2319,10 @@
         <v>202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>107</v>
@@ -2308,9 +2335,9 @@
         <v>54000</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K20" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
@@ -2326,10 +2353,10 @@
         <v>202</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>107</v>
@@ -2342,9 +2369,9 @@
         <v>32400</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K21" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
@@ -2360,7 +2387,7 @@
         <v>203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>200</v>
@@ -2376,9 +2403,9 @@
         <v>8200</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="K22" s="19"/>
+        <v>259</v>
+      </c>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
@@ -2410,7 +2437,7 @@
         <v>6000</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>63</v>
@@ -2446,7 +2473,7 @@
         <v>11088</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>67</v>
@@ -2482,7 +2509,7 @@
         <v>19159.47</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>67</v>
@@ -2518,7 +2545,7 @@
         <v>20000</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>67</v>
@@ -2554,7 +2581,7 @@
         <v>21121.64</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>67</v>
@@ -2590,7 +2617,7 @@
         <v>25500</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>67</v>
@@ -2626,7 +2653,7 @@
         <v>130000</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>80</v>
@@ -2646,10 +2673,10 @@
         <v>202</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>107</v>
@@ -2662,9 +2689,9 @@
         <v>55800</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K30" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -2680,7 +2707,7 @@
         <v>203</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>200</v>
@@ -2697,9 +2724,9 @@
         <v>49200</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="K31" s="19"/>
+        <v>259</v>
+      </c>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -2732,7 +2759,7 @@
         <v>5040</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K32" s="10"/>
     </row>
@@ -2766,7 +2793,7 @@
         <v>9000</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K33" s="10"/>
     </row>
@@ -2800,7 +2827,7 @@
         <v>10200</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>92</v>
@@ -2836,7 +2863,7 @@
         <v>12100</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>92</v>
@@ -2872,7 +2899,7 @@
         <v>14223</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>88</v>
@@ -2908,7 +2935,7 @@
         <v>14262.94</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>92</v>
@@ -2944,7 +2971,7 @@
         <v>15000</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>92</v>
@@ -2980,7 +3007,7 @@
         <v>18799</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>92</v>
@@ -3016,7 +3043,7 @@
         <v>134540.6</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>104</v>
@@ -3036,10 +3063,10 @@
         <v>202</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>107</v>
@@ -3052,9 +3079,9 @@
         <v>110000</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K41" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
@@ -3070,7 +3097,7 @@
         <v>203</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>200</v>
@@ -3087,9 +3114,9 @@
         <v>49200</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="K42" s="19"/>
+        <v>266</v>
+      </c>
+      <c r="K42" s="18"/>
     </row>
     <row r="43" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
@@ -3121,9 +3148,9 @@
         <v>113823.18</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="K43" s="20"/>
+        <v>267</v>
+      </c>
+      <c r="K43" s="19"/>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
@@ -3155,7 +3182,7 @@
         <v>8000</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K44" s="15"/>
     </row>
@@ -3189,7 +3216,7 @@
         <v>10750</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>111</v>
@@ -3225,7 +3252,7 @@
         <v>14105.35</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>117</v>
@@ -3239,7 +3266,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>118</v>
@@ -3262,7 +3289,7 @@
         <v>36000</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -3276,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>122</v>
@@ -3295,7 +3322,7 @@
         <v>75600</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>59</v>
@@ -3321,7 +3348,7 @@
         <v>25200</v>
       </c>
       <c r="J49" s="9"/>
-      <c r="K49" s="19"/>
+      <c r="K49" s="18"/>
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
@@ -3338,7 +3365,7 @@
         <v>25200</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="19"/>
+      <c r="K50" s="18"/>
     </row>
     <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
@@ -3355,7 +3382,7 @@
         <v>25200</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="K51" s="19"/>
+      <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
@@ -3371,10 +3398,10 @@
         <v>202</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>107</v>
@@ -3388,9 +3415,9 @@
         <v>161700</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K52" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
@@ -3406,7 +3433,7 @@
         <v>203</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>200</v>
@@ -3422,9 +3449,9 @@
         <v>49200</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="K53" s="19"/>
+        <v>266</v>
+      </c>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
@@ -3440,10 +3467,10 @@
         <v>202</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>107</v>
@@ -3457,9 +3484,9 @@
         <v>320100</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K54" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K54" s="18"/>
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
@@ -3491,7 +3518,7 @@
         <v>21000</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>221</v>
@@ -3528,7 +3555,7 @@
         <v>39600</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>134</v>
@@ -3565,7 +3592,7 @@
         <v>5040</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>137</v>
@@ -3601,7 +3628,7 @@
         <v>8290.61</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K58" s="10"/>
     </row>
@@ -3635,7 +3662,7 @@
         <v>460670</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>146</v>
@@ -3649,7 +3676,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>140</v>
@@ -3668,7 +3695,7 @@
         <v>75600</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>142</v>
@@ -3688,7 +3715,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K61" s="19"/>
+      <c r="K61" s="18"/>
     </row>
     <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
@@ -3704,7 +3731,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K62" s="19"/>
+      <c r="K62" s="18"/>
     </row>
     <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
@@ -3720,7 +3747,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K63" s="19"/>
+      <c r="K63" s="18"/>
     </row>
     <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
@@ -3736,7 +3763,7 @@
         <v>203</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>200</v>
@@ -3752,9 +3779,9 @@
         <v>49200</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="K64" s="19"/>
+        <v>270</v>
+      </c>
+      <c r="K64" s="18"/>
     </row>
     <row r="65" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
@@ -3770,10 +3797,10 @@
         <v>202</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>107</v>
@@ -3787,9 +3814,9 @@
         <v>320100</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K65" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
@@ -3822,7 +3849,7 @@
         <v>5040</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>150</v>
@@ -3836,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>151</v>
@@ -3855,7 +3882,7 @@
         <v>75600</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>153</v>
@@ -3875,7 +3902,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K68" s="19"/>
+      <c r="K68" s="18"/>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
@@ -3891,7 +3918,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K69" s="19"/>
+      <c r="K69" s="18"/>
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
@@ -3907,7 +3934,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K70" s="19"/>
+      <c r="K70" s="18"/>
     </row>
     <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
@@ -3923,7 +3950,7 @@
         <v>203</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>200</v>
@@ -3939,9 +3966,9 @@
         <v>49200</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="K71" s="19"/>
+        <v>270</v>
+      </c>
+      <c r="K71" s="18"/>
     </row>
     <row r="72" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
@@ -3957,10 +3984,10 @@
         <v>202</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>107</v>
@@ -3974,9 +4001,9 @@
         <v>318500</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K72" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K72" s="18"/>
     </row>
     <row r="73" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
@@ -3986,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>183</v>
@@ -4009,7 +4036,7 @@
         <v>4800</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>218</v>
@@ -4023,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>173</v>
@@ -4045,7 +4072,7 @@
         <v>60000</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>175</v>
@@ -4082,7 +4109,7 @@
         <v>5040</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>157</v>
@@ -4119,7 +4146,7 @@
         <v>5040</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>157</v>
@@ -4156,7 +4183,7 @@
         <v>5040</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>157</v>
@@ -4193,7 +4220,7 @@
         <v>5040</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>165</v>
@@ -4230,7 +4257,7 @@
         <v>5040</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>165</v>
@@ -4244,7 +4271,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>180</v>
@@ -4266,7 +4293,7 @@
         <v>45436.51</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>179</v>
@@ -4280,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>168</v>
@@ -4299,7 +4326,7 @@
         <v>75600</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>170</v>
@@ -4319,7 +4346,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K82" s="19"/>
+      <c r="K82" s="18"/>
     </row>
     <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
@@ -4335,7 +4362,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K83" s="19"/>
+      <c r="K83" s="18"/>
     </row>
     <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
@@ -4351,7 +4378,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K84" s="19"/>
+      <c r="K84" s="18"/>
     </row>
     <row r="85" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
@@ -4361,7 +4388,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>176</v>
@@ -4384,7 +4411,7 @@
         <v>62885.47</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>179</v>
@@ -4398,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>171</v>
@@ -4417,7 +4444,7 @@
         <v>75600</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>170</v>
@@ -4437,7 +4464,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K87" s="19"/>
+      <c r="K87" s="18"/>
     </row>
     <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
@@ -4453,7 +4480,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K88" s="19"/>
+      <c r="K88" s="18"/>
     </row>
     <row r="89" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
@@ -4469,7 +4496,7 @@
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K89" s="19"/>
+      <c r="K89" s="18"/>
     </row>
     <row r="90" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
@@ -4485,7 +4512,7 @@
         <v>201</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>200</v>
@@ -4498,13 +4525,13 @@
         <v>49200</v>
       </c>
       <c r="I90" s="8">
-        <f t="shared" ref="I90:I100" si="10">H90</f>
+        <f t="shared" ref="I90:I103" si="10">H90</f>
         <v>49200</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="K90" s="19"/>
+        <v>270</v>
+      </c>
+      <c r="K90" s="18"/>
     </row>
     <row r="91" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
@@ -4520,10 +4547,10 @@
         <v>202</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>107</v>
@@ -4537,9 +4564,9 @@
         <v>314800</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K91" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K91" s="18"/>
     </row>
     <row r="92" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
@@ -4549,7 +4576,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>183</v>
@@ -4572,7 +4599,7 @@
         <v>4800</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>218</v>
@@ -4609,7 +4636,7 @@
         <v>5040</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>187</v>
@@ -4646,7 +4673,7 @@
         <v>5040</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>191</v>
@@ -4666,7 +4693,7 @@
         <v>201</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>200</v>
@@ -4683,7 +4710,7 @@
         <v>8200</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4697,13 +4724,13 @@
         <v>204</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>107</v>
@@ -4717,9 +4744,9 @@
         <v>369000</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K96" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="K96" s="18"/>
     </row>
     <row r="97" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
@@ -4732,13 +4759,13 @@
         <v>101</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>107</v>
@@ -4752,10 +4779,10 @@
         <v>39600</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4781,420 +4808,399 @@
         <v>107</v>
       </c>
       <c r="H98" s="8">
-        <f>1100*36</f>
+        <f>SUM(I99:I101)</f>
         <v>39600</v>
       </c>
-      <c r="I98" s="8">
-        <f t="shared" si="10"/>
-        <v>39600</v>
-      </c>
       <c r="J98" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H99" s="8">
+      <c r="I99" s="8">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+      <c r="J99" s="9"/>
+    </row>
+    <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I100" s="8">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+      <c r="J100" s="9"/>
+    </row>
+    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I101" s="8">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+      <c r="J101" s="9"/>
+    </row>
+    <row r="102" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I99" s="8">
+      <c r="I102" s="8">
         <f t="shared" si="10"/>
         <v>5040</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="K99" s="5" t="s">
+      <c r="J102" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K102" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+    <row r="103" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
         <v>2021</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G100" s="7" t="s">
+      <c r="D103" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H100" s="8">
+      <c r="H103" s="8">
         <f>252000+192400</f>
         <v>444400</v>
       </c>
-      <c r="I100" s="8">
+      <c r="I103" s="8">
         <f t="shared" si="10"/>
         <v>444400</v>
       </c>
-      <c r="J100" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K100" s="21"/>
-    </row>
-    <row r="101" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="J103" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
         <v>2020</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="7" t="s">
+      <c r="B104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101" s="8">
-        <f>SUM(I102:I104)</f>
+      <c r="G104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104" s="8">
+        <f>SUM(I105:I107)</f>
         <v>75600</v>
       </c>
-      <c r="J101" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K101" s="5" t="s">
+      <c r="J104" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K104" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
         <v>2021</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I102" s="8">
+      <c r="B105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K102" s="19"/>
-    </row>
-    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+      <c r="K105" s="18"/>
+    </row>
+    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
         <v>2022</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" s="8">
+      <c r="B106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I106" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K103" s="19"/>
-    </row>
-    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
+      <c r="K106" s="18"/>
+    </row>
+    <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
         <v>2023</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I104" s="8">
+      <c r="B107" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K104" s="19"/>
-    </row>
-    <row r="105" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+      <c r="K107" s="18"/>
+    </row>
+    <row r="108" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
         <v>2021</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="7" t="s">
+      <c r="B108" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D108" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E108" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F108" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H105" s="8">
+      <c r="H108" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I105" s="8">
-        <f t="shared" ref="I105" si="11">H105</f>
+      <c r="I108" s="8">
+        <f t="shared" ref="I108" si="11">H108</f>
         <v>5040</v>
       </c>
-      <c r="J105" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="K105" s="5" t="s">
+      <c r="J108" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K108" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
+    <row r="109" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
         <v>2021</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="7" t="s">
+      <c r="B109" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D109" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E109" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="G109" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H106" s="8">
+      <c r="H109" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I106" s="8">
-        <f t="shared" ref="I106:I107" si="12">H106</f>
+      <c r="I109" s="8">
+        <f t="shared" ref="I109:I110" si="12">H109</f>
         <v>5040</v>
       </c>
-      <c r="J106" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="K106" s="5" t="s">
+      <c r="J109" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K109" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+    <row r="110" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
         <v>2021</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D107" s="7" t="s">
+      <c r="B110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E110" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F110" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H107" s="8">
+      <c r="G110" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" s="8">
         <v>94922.1</v>
       </c>
-      <c r="I107" s="8">
+      <c r="I110" s="8">
         <f t="shared" si="12"/>
         <v>94922.1</v>
       </c>
-      <c r="J107" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K107" s="5" t="s">
+      <c r="J110" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="K110" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+    <row r="111" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
         <v>2021</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E108" s="7" t="s">
+      <c r="B111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H111" s="8">
+        <f>I111</f>
+        <v>62945</v>
+      </c>
+      <c r="I111" s="8">
+        <v>62945</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K111" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H108" s="8">
-        <f>I108</f>
-        <v>62945</v>
-      </c>
-      <c r="I108" s="8">
-        <v>62945</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+    </row>
+    <row r="112" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
         <v>2021</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H109" s="8">
-        <f>SUM(I111:I113)</f>
-        <v>39600</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K109" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H110" s="17">
-        <f>252000+192400</f>
-        <v>444400</v>
-      </c>
-      <c r="I110" s="8">
-        <f t="shared" ref="I110" si="13">H110</f>
-        <v>444400</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K110" s="21"/>
-    </row>
-    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I111" s="8">
-        <f>12*1100</f>
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
-        <v>2023</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="C112" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="G112" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I112" s="8">
-        <f>12*1100</f>
-        <v>13200</v>
+      <c r="H112" s="8">
+        <f>SUM(I113:I115)</f>
+        <v>39600</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>2</v>
@@ -5207,420 +5213,562 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H114" s="8">
-        <f>SUM(I115:I117)</f>
-        <v>108000</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>238</v>
+        <v>107</v>
+      </c>
+      <c r="I114" s="8">
+        <f>12*1100</f>
+        <v>13200</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I115" s="8">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
         <v>2022</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I115" s="8">
+      <c r="B116" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H116" s="17">
+        <f>252000+192400</f>
+        <v>444400</v>
+      </c>
+      <c r="I116" s="8">
+        <f t="shared" ref="I116" si="13">H116</f>
+        <v>444400</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117" s="8">
+        <f>SUM(I118:I120)</f>
+        <v>108000</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+    <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
         <v>2023</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I116" s="8">
+      <c r="B119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I119" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
+    <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
         <v>2024</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I117" s="8">
+      <c r="B120" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I120" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
+    <row r="121" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
         <v>2021</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F118" s="7" t="s">
+      <c r="B121" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H118" s="8">
-        <f>SUM(I119:I121)</f>
+      <c r="G121" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H121" s="8">
+        <f>SUM(I122:I124)</f>
         <v>86400</v>
       </c>
-      <c r="J118" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
+      <c r="J121" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
         <v>2022</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I119" s="8">
+      <c r="B122" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I122" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
+    <row r="123" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
         <v>2023</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I120" s="8">
+      <c r="B123" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I123" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+    <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
         <v>2024</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I121" s="8">
+      <c r="B124" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I124" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
+    <row r="125" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
         <v>2022</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F122" s="7" t="s">
+      <c r="B125" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H122" s="8">
+      <c r="H125" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I122" s="8">
-        <f t="shared" ref="I122" si="14">H122</f>
+      <c r="I125" s="8">
+        <f t="shared" ref="I125" si="14">H125</f>
         <v>5040</v>
       </c>
-      <c r="J122" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="K122" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
+      <c r="J125" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
         <v>2022</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E123" s="7" t="s">
+      <c r="B126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G126" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H123" s="8">
+      <c r="H126" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I123" s="8">
-        <f t="shared" ref="I123" si="15">H123</f>
+      <c r="I126" s="8">
+        <f t="shared" ref="I126" si="15">H126</f>
         <v>5040</v>
       </c>
-      <c r="J123" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K123" s="5" t="s">
+      <c r="J126" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="7" t="s">
+      <c r="D127" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G124" s="7" t="s">
+      <c r="E127" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H124" s="17">
+      <c r="H127" s="8">
         <f>2*4*12*2200</f>
         <v>211200</v>
       </c>
-      <c r="J124" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K124" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H125" s="8">
-        <f>SUM(I126:I127)</f>
-        <v>50000</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K125" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I126" s="8">
-        <v>25000</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I127" s="8">
-        <v>25000</v>
-      </c>
       <c r="J127" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2022</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>228</v>
+        <v>272</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G128" s="18"/>
-      <c r="H128" s="17">
-        <f>SUM(I129:I131)</f>
-        <v>185600</v>
-      </c>
-      <c r="I128" s="17"/>
+        <v>275</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H128" s="8">
+        <f>SUM(I129:I130)</f>
+        <v>50000</v>
+      </c>
       <c r="J128" s="5" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I129" s="8">
+        <v>25000</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2023</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G130" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" s="8">
+        <v>25000</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H131" s="8">
+        <f>SUM(I132:I134)</f>
+        <v>185600</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I132" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17">
+      <c r="I133" s="8">
         <f>5125*12+525*12</f>
         <v>67800</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
+    <row r="134" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
         <v>2024</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G131" s="18" t="s">
+      <c r="B134" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17">
+      <c r="I134" s="8">
         <f>5125*12+525*12</f>
         <v>67800</v>
       </c>
     </row>
+    <row r="135" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H135" s="14">
+        <f>SUM(I136:I138)</f>
+        <v>39600</v>
+      </c>
+      <c r="I135" s="14"/>
+      <c r="J135" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K135" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K102">
-    <sortCondition ref="A2:A102"/>
-    <sortCondition ref="B2:B102"/>
-    <sortCondition ref="H2:H102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K105">
+    <sortCondition ref="A2:A105"/>
+    <sortCondition ref="B2:B105"/>
+    <sortCondition ref="H2:H105"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="K97" r:id="rId1" xr:uid="{0BDF45E4-69FF-4B44-90A6-A3D6FD389C69}"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD87B97-80A5-FF4D-B0E3-9582A8480030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7142D3E0-07DC-494B-B413-40E461E703CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,9 +875,6 @@
     <t>Edital Nº 14/2022</t>
   </si>
   <si>
-    <t>Doutor Empreendedor: Transformando Conhecimento em Inovação</t>
-  </si>
-  <si>
     <t>Parceria</t>
   </si>
   <si>
@@ -945,6 +942,9 @@
   </si>
   <si>
     <t>SEI-260.117/2023</t>
+  </si>
+  <si>
+    <t>Programa Doutor Empreendedor</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1807,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>29</v>
@@ -2159,7 +2159,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>57</v>
@@ -2243,13 +2243,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -3266,7 +3266,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>118</v>
@@ -3303,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>122</v>
@@ -3676,7 +3676,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>140</v>
@@ -3863,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>151</v>
@@ -4013,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>183</v>
@@ -4050,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>173</v>
@@ -4271,7 +4271,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>180</v>
@@ -4307,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>168</v>
@@ -4388,7 +4388,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>176</v>
@@ -4425,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>171</v>
@@ -4576,7 +4576,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>183</v>
@@ -5101,7 +5101,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>227</v>
@@ -5137,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>245</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>239</v>
@@ -5367,7 +5367,7 @@
         <v>233</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>238</v>
@@ -5442,13 +5442,13 @@
         <v>7</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D125" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>11</v>
@@ -5479,10 +5479,10 @@
         <v>7</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>207</v>
@@ -5619,23 +5619,23 @@
         <v>277</v>
       </c>
       <c r="D131" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F131" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H131" s="8">
         <f>SUM(I132:I134)</f>
         <v>185600</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5690,13 +5690,13 @@
         <v>2</v>
       </c>
       <c r="C135" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E135" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>4</v>
@@ -5713,7 +5713,7 @@
         <v>260</v>
       </c>
       <c r="K135" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7142D3E0-07DC-494B-B413-40E461E703CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47FBFD2-7007-5146-AEF4-E7B0342896A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="307">
   <si>
     <t>CAPEX</t>
   </si>
@@ -945,6 +945,21 @@
   </si>
   <si>
     <t>Programa Doutor Empreendedor</t>
+  </si>
+  <si>
+    <t>IFTO</t>
+  </si>
+  <si>
+    <t>Edital No 27/2019/REI/IFTO</t>
+  </si>
+  <si>
+    <t>23235.008495/2020-19</t>
+  </si>
+  <si>
+    <t>Pró-Qualificar</t>
+  </si>
+  <si>
+    <t>http://www.ifto.edu.br/ifto/reitoria/diretoria-sistemica/dgp/seletivos-dgp/processo-seletivo/edital-de-abertura-n-o-27-2019/edital-27-2019-pro-qualificar.pdf</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1197,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1248,9 +1263,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,13 +1681,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
+      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4525,7 +4537,7 @@
         <v>49200</v>
       </c>
       <c r="I90" s="8">
-        <f t="shared" ref="I90:I103" si="10">H90</f>
+        <f t="shared" ref="I90:I107" si="10">H90</f>
         <v>49200</v>
       </c>
       <c r="J90" s="9" t="s">
@@ -4679,682 +4691,682 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>2020</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H95" s="8">
+        <f>SUM(I96:I98)</f>
+        <v>32400</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I96" s="8">
+        <f>900*12</f>
+        <v>10800</v>
+      </c>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I97" s="8">
+        <f>900*12</f>
+        <v>10800</v>
+      </c>
+      <c r="J97" s="9"/>
+    </row>
+    <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I98" s="8">
+        <f>900*12</f>
+        <v>10800</v>
+      </c>
+      <c r="J98" s="9"/>
+    </row>
+    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D99" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H95" s="8">
+      <c r="G99" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H99" s="8">
         <f>4100*2</f>
         <v>8200</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I99" s="8">
         <f t="shared" si="10"/>
         <v>8200</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J99" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+    <row r="100" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
         <v>2020</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B100" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C100" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D100" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H96" s="8">
+      <c r="G100" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H100" s="8">
         <f>210800+158200</f>
         <v>369000</v>
       </c>
-      <c r="I96" s="8">
+      <c r="I100" s="8">
         <f t="shared" si="10"/>
         <v>369000</v>
       </c>
-      <c r="J96" s="9" t="s">
+      <c r="J100" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K96" s="18"/>
-    </row>
-    <row r="97" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="K100" s="18"/>
+    </row>
+    <row r="101" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
         <v>2020</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B101" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C101" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D101" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H97" s="8">
+      <c r="G101" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H101" s="8">
         <f>6*1650*4</f>
         <v>39600</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I101" s="8">
         <f t="shared" si="10"/>
         <v>39600</v>
       </c>
-      <c r="J97" s="9" t="s">
+      <c r="J101" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K97" s="5" t="s">
+      <c r="K101" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+    <row r="102" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
         <v>2020</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B102" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F102" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H98" s="8">
-        <f>SUM(I99:I101)</f>
+      <c r="G102" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102" s="8">
+        <f>SUM(I103:I105)</f>
         <v>39600</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="J102" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K98" s="5" t="s">
+      <c r="K102" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
         <v>2021</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I99" s="8">
+      <c r="G103" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I103" s="8">
         <f>12*1100</f>
         <v>13200</v>
       </c>
-      <c r="J99" s="9"/>
-    </row>
-    <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
         <v>2022</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I100" s="8">
+      <c r="G104" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I104" s="8">
         <f>12*1100</f>
         <v>13200</v>
       </c>
-      <c r="J100" s="9"/>
-    </row>
-    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
         <v>2023</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I101" s="8">
+      <c r="G105" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I105" s="8">
         <f>12*1100</f>
         <v>13200</v>
       </c>
-      <c r="J101" s="9"/>
-    </row>
-    <row r="102" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
         <v>2020</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="7" t="s">
+      <c r="B106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D106" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H102" s="8">
+      <c r="G106" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H106" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I102" s="8">
+      <c r="I106" s="8">
         <f t="shared" si="10"/>
         <v>5040</v>
       </c>
-      <c r="J102" s="9" t="s">
+      <c r="J106" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="K102" s="5" t="s">
+      <c r="K106" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+    <row r="107" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
         <v>2021</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B107" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D107" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H103" s="8">
+      <c r="G107" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H107" s="8">
         <f>252000+192400</f>
         <v>444400</v>
       </c>
-      <c r="I103" s="8">
+      <c r="I107" s="8">
         <f t="shared" si="10"/>
         <v>444400</v>
       </c>
-      <c r="J103" s="9" t="s">
+      <c r="J107" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K103" s="20"/>
-    </row>
-    <row r="104" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
+      <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
         <v>2020</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="7" t="s">
+      <c r="B108" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D108" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E108" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F108" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H104" s="8">
-        <f>SUM(I105:I107)</f>
+      <c r="G108" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108" s="8">
+        <f>SUM(I109:I111)</f>
         <v>75600</v>
       </c>
-      <c r="J104" s="9" t="s">
+      <c r="J108" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K104" s="5" t="s">
+      <c r="K108" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
         <v>2021</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I105" s="8">
+      <c r="B109" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K105" s="18"/>
-    </row>
-    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
+      <c r="K109" s="18"/>
+    </row>
+    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
         <v>2022</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I106" s="8">
+      <c r="B110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K106" s="18"/>
-    </row>
-    <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+      <c r="K110" s="18"/>
+    </row>
+    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
         <v>2023</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="8">
+      <c r="B111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I111" s="8">
         <f>2100*36/3</f>
         <v>25200</v>
       </c>
-      <c r="K107" s="18"/>
-    </row>
-    <row r="108" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+      <c r="K111" s="18"/>
+    </row>
+    <row r="112" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
         <v>2021</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="7" t="s">
+      <c r="B112" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D112" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E112" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F112" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H108" s="8">
+      <c r="G112" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H112" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I108" s="8">
-        <f t="shared" ref="I108" si="11">H108</f>
+      <c r="I112" s="8">
+        <f t="shared" ref="I112" si="11">H112</f>
         <v>5040</v>
       </c>
-      <c r="J108" s="9" t="s">
+      <c r="J112" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="K108" s="5" t="s">
+      <c r="K112" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+    <row r="113" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
         <v>2021</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="7" t="s">
+      <c r="B113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D113" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E113" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G109" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H109" s="8">
+      <c r="G113" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H113" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I109" s="8">
-        <f t="shared" ref="I109:I110" si="12">H109</f>
+      <c r="I113" s="8">
+        <f t="shared" ref="I113:I114" si="12">H113</f>
         <v>5040</v>
       </c>
-      <c r="J109" s="9" t="s">
+      <c r="J113" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K109" s="5" t="s">
+      <c r="K113" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+    <row r="114" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
         <v>2021</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="7" t="s">
+      <c r="B114" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D114" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E114" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F114" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G110" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H110" s="8">
+      <c r="G114" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
         <v>94922.1</v>
       </c>
-      <c r="I110" s="8">
+      <c r="I114" s="8">
         <f t="shared" si="12"/>
         <v>94922.1</v>
       </c>
-      <c r="J110" s="5" t="s">
+      <c r="J114" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="K110" s="5" t="s">
+      <c r="K114" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
+    <row r="115" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
         <v>2021</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="7" t="s">
+      <c r="B115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D115" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E115" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F115" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H111" s="8">
-        <f>I111</f>
+      <c r="G115" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115" s="8">
+        <f>I115</f>
         <v>62945</v>
       </c>
-      <c r="I111" s="8">
+      <c r="I115" s="8">
         <v>62945</v>
       </c>
-      <c r="J111" s="5" t="s">
+      <c r="J115" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="K111" s="5" t="s">
+      <c r="K115" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
+    <row r="116" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
         <v>2021</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B116" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C116" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D116" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E116" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F116" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H112" s="8">
-        <f>SUM(I113:I115)</f>
+      <c r="G116" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H116" s="8">
+        <f>SUM(I117:I119)</f>
         <v>39600</v>
       </c>
-      <c r="J112" s="5" t="s">
+      <c r="J116" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="K112" s="5" t="s">
+      <c r="K116" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+    <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
         <v>2022</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B117" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I113" s="8">
+      <c r="G117" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I117" s="8">
         <f>12*1100</f>
         <v>13200</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
+    <row r="118" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
         <v>2023</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B118" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G114" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I114" s="8">
+      <c r="G118" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I118" s="8">
         <f>12*1100</f>
         <v>13200</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+    <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
         <v>2024</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B119" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G115" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I115" s="8">
+      <c r="G119" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I119" s="8">
         <f>12*1100</f>
         <v>13200</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+    <row r="120" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
         <v>2022</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B120" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F120" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G116" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H116" s="17">
+      <c r="G120" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H120" s="17">
         <f>252000+192400</f>
         <v>444400</v>
       </c>
-      <c r="I116" s="8">
-        <f t="shared" ref="I116" si="13">H116</f>
+      <c r="I120" s="8">
+        <f t="shared" ref="I120" si="13">H120</f>
         <v>444400</v>
       </c>
-      <c r="J116" s="9" t="s">
+      <c r="J120" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K116" s="20"/>
-    </row>
-    <row r="117" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H117" s="8">
-        <f>SUM(I118:I120)</f>
-        <v>108000</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="K117" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I118" s="8">
-        <f>3000*36/3</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I119" s="8">
-        <f>3000*36/3</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
-        <v>2024</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I120" s="8">
-        <f>3000*36/3</f>
-        <v>36000</v>
-      </c>
+      <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
@@ -5367,26 +5379,26 @@
         <v>233</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H121" s="8">
         <f>SUM(I122:I124)</f>
-        <v>86400</v>
+        <v>108000</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5400,8 +5412,8 @@
         <v>0</v>
       </c>
       <c r="I122" s="8">
-        <f>2400*36/3</f>
-        <v>28800</v>
+        <f>3000*36/3</f>
+        <v>36000</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5415,8 +5427,8 @@
         <v>0</v>
       </c>
       <c r="I123" s="8">
-        <f>2400*36/3</f>
-        <v>28800</v>
+        <f>3000*36/3</f>
+        <v>36000</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5430,256 +5442,260 @@
         <v>0</v>
       </c>
       <c r="I124" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H125" s="8">
+        <f>SUM(I126:I128)</f>
+        <v>86400</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I126" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
+    <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="8">
+        <f>2400*36/3</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I128" s="8">
+        <f>2400*36/3</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
         <v>2022</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="7" t="s">
+      <c r="B129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D129" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E129" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F129" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H125" s="8">
+      <c r="G129" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H129" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I125" s="8">
-        <f t="shared" ref="I125" si="14">H125</f>
+      <c r="I129" s="8">
+        <f t="shared" ref="I129" si="14">H129</f>
         <v>5040</v>
       </c>
-      <c r="J125" s="9" t="s">
+      <c r="J129" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K125" s="5" t="s">
+      <c r="K129" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
+    <row r="130" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
         <v>2022</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="7" t="s">
+      <c r="B130" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D130" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E130" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F130" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G126" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H126" s="8">
+      <c r="G130" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H130" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I126" s="8">
-        <f t="shared" ref="I126" si="15">H126</f>
+      <c r="I130" s="8">
+        <f t="shared" ref="I130" si="15">H130</f>
         <v>5040</v>
       </c>
-      <c r="J126" s="9" t="s">
+      <c r="J130" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K126" s="5" t="s">
+      <c r="K130" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
+    <row r="131" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
         <v>2022</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B131" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D131" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E131" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F131" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G127" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H127" s="8">
+      <c r="G131" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H131" s="8">
         <f>2*4*12*2200</f>
         <v>211200</v>
       </c>
-      <c r="J127" s="5" t="s">
+      <c r="J131" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K127" s="5" t="s">
+      <c r="K131" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
+    <row r="132" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
         <v>2022</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B132" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C132" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E132" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F132" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G128" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H128" s="8">
-        <f>SUM(I129:I130)</f>
+      <c r="G132" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" s="8">
+        <f>SUM(I133:I134)</f>
         <v>50000</v>
       </c>
-      <c r="J128" s="5" t="s">
+      <c r="J132" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K128" s="5" t="s">
+      <c r="K132" s="5" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I129" s="8">
-        <v>25000</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I130" s="8">
-        <v>25000</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H131" s="8">
-        <f>SUM(I132:I134)</f>
-        <v>185600</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I132" s="8">
-        <v>50000</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="I133" s="8">
-        <f>5125*12+525*12</f>
-        <v>67800</v>
+        <v>25000</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="I134" s="8">
-        <f>5125*12+525*12</f>
-        <v>67800</v>
+        <v>25000</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -5687,33 +5703,29 @@
         <v>2022</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G135" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H135" s="14">
+        <v>301</v>
+      </c>
+      <c r="H135" s="8">
         <f>SUM(I136:I138)</f>
-        <v>39600</v>
-      </c>
-      <c r="I135" s="14"/>
-      <c r="J135" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="K135" s="21" t="s">
-        <v>296</v>
+        <v>185600</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5721,57 +5733,136 @@
         <v>2023</v>
       </c>
       <c r="B136" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I136" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I137" s="8">
+        <f>5125*12+525*12</f>
+        <v>67800</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I138" s="8">
+        <f>5125*12+525*12</f>
+        <v>67800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G136" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14">
+      <c r="C139" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H139" s="14">
+        <f>SUM(I140:I142)</f>
+        <v>39600</v>
+      </c>
+      <c r="I139" s="14"/>
+      <c r="J139" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K139" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14">
         <f>12*1100</f>
         <v>13200</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
+    <row r="141" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
         <v>2024</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B141" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G137" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14">
+      <c r="G141" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14">
         <f>12*1100</f>
         <v>13200</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
+    <row r="142" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
         <v>2025</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B142" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G138" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14">
+      <c r="G142" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14">
         <f>12*1100</f>
         <v>13200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K105">
-    <sortCondition ref="A2:A105"/>
-    <sortCondition ref="B2:B105"/>
-    <sortCondition ref="H2:H105"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K109">
+    <sortCondition ref="A2:A109"/>
+    <sortCondition ref="B2:B109"/>
+    <sortCondition ref="H2:H109"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="K97" r:id="rId1" xr:uid="{0BDF45E4-69FF-4B44-90A6-A3D6FD389C69}"/>
+    <hyperlink ref="K101" r:id="rId1" xr:uid="{0BDF45E4-69FF-4B44-90A6-A3D6FD389C69}"/>
+    <hyperlink ref="K95" r:id="rId2" xr:uid="{2417EFB1-30AE-3F43-810C-4080C6CE760E}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.28000000000000003" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47FBFD2-7007-5146-AEF4-E7B0342896A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A33AD9-9D2A-8C41-B50E-7277FECDFD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="314">
   <si>
     <t>CAPEX</t>
   </si>
@@ -770,9 +770,6 @@
     <t>23038.001971/2022-69</t>
   </si>
   <si>
-    <t>23038.003145/2021-73</t>
-  </si>
-  <si>
     <t>23038.001989/2020-07</t>
   </si>
   <si>
@@ -960,6 +957,30 @@
   </si>
   <si>
     <t>http://www.ifto.edu.br/ifto/reitoria/diretoria-sistemica/dgp/seletivos-dgp/processo-seletivo/edital-de-abertura-n-o-27-2019/edital-27-2019-pro-qualificar.pdf</t>
+  </si>
+  <si>
+    <t>23038.003788/2023-89</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/web/dou/-/extrato-de-termo-de-cooperacao-tecnica-478372214</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/web/dou/-/extrato-de-cooperacao-tecnica-201904966</t>
+  </si>
+  <si>
+    <t>23038.009043/2019-47</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/web/dou/-/extrato-de-termo-de-cooperacao-tecnica-407200613</t>
+  </si>
+  <si>
+    <t>23038.007223/2022-90</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/web/dou/-/extrato-de-termo-de-cooperacao-tecnica-42867806</t>
+  </si>
+  <si>
+    <t>23038.000222/2016-76</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1218,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1263,6 +1284,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1681,13 +1708,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
+      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1771,7 +1798,7 @@
         <v>8500</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -1805,7 +1832,7 @@
         <v>8440</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
@@ -1819,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>29</v>
@@ -1841,7 +1868,7 @@
         <v>169159.38</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>32</v>
@@ -1877,7 +1904,7 @@
         <v>7000</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>215</v>
@@ -1913,7 +1940,7 @@
         <v>5063</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>36</v>
@@ -1949,7 +1976,7 @@
         <v>16500</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>36</v>
@@ -1985,7 +2012,7 @@
         <v>18000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>41</v>
@@ -2021,7 +2048,7 @@
         <v>9975</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -2055,7 +2082,7 @@
         <v>9999</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K10" s="10"/>
     </row>
@@ -2089,7 +2116,7 @@
         <v>10000</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K11" s="10"/>
     </row>
@@ -2123,7 +2150,7 @@
         <v>10000</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K12" s="10"/>
     </row>
@@ -2157,7 +2184,7 @@
         <v>20000</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>56</v>
@@ -2171,7 +2198,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>57</v>
@@ -2190,7 +2217,7 @@
         <v>75600</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>59</v>
@@ -2255,13 +2282,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -2277,7 +2304,7 @@
         <v>14000</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>217</v>
@@ -2297,7 +2324,7 @@
         <v>202</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>240</v>
@@ -2331,7 +2358,7 @@
         <v>202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>240</v>
@@ -2365,7 +2392,7 @@
         <v>202</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>240</v>
@@ -2399,7 +2426,7 @@
         <v>203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>200</v>
@@ -2415,7 +2442,7 @@
         <v>8200</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K22" s="18"/>
     </row>
@@ -2449,7 +2476,7 @@
         <v>6000</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>63</v>
@@ -2485,7 +2512,7 @@
         <v>11088</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>67</v>
@@ -2521,7 +2548,7 @@
         <v>19159.47</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>67</v>
@@ -2557,7 +2584,7 @@
         <v>20000</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>67</v>
@@ -2593,7 +2620,7 @@
         <v>21121.64</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>67</v>
@@ -2629,7 +2656,7 @@
         <v>25500</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>67</v>
@@ -2665,7 +2692,7 @@
         <v>130000</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>80</v>
@@ -2685,7 +2712,7 @@
         <v>202</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>240</v>
@@ -2719,7 +2746,7 @@
         <v>203</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>200</v>
@@ -2736,7 +2763,7 @@
         <v>49200</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K31" s="18"/>
     </row>
@@ -2771,7 +2798,7 @@
         <v>5040</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K32" s="10"/>
     </row>
@@ -2805,7 +2832,7 @@
         <v>9000</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K33" s="10"/>
     </row>
@@ -2839,7 +2866,7 @@
         <v>10200</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>92</v>
@@ -2875,7 +2902,7 @@
         <v>12100</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>92</v>
@@ -2911,7 +2938,7 @@
         <v>14223</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>88</v>
@@ -2947,7 +2974,7 @@
         <v>14262.94</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>92</v>
@@ -2983,7 +3010,7 @@
         <v>15000</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>92</v>
@@ -3019,7 +3046,7 @@
         <v>18799</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>92</v>
@@ -3055,7 +3082,7 @@
         <v>134540.6</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>104</v>
@@ -3075,7 +3102,7 @@
         <v>202</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>240</v>
@@ -3109,7 +3136,7 @@
         <v>203</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>200</v>
@@ -3126,7 +3153,7 @@
         <v>49200</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K42" s="18"/>
     </row>
@@ -3160,7 +3187,7 @@
         <v>113823.18</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K43" s="19"/>
     </row>
@@ -3194,7 +3221,7 @@
         <v>8000</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K44" s="15"/>
     </row>
@@ -3228,7 +3255,7 @@
         <v>10750</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>111</v>
@@ -3264,7 +3291,7 @@
         <v>14105.35</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>117</v>
@@ -3278,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>118</v>
@@ -3301,7 +3328,7 @@
         <v>36000</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -3315,7 +3342,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>122</v>
@@ -3334,7 +3361,7 @@
         <v>75600</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>59</v>
@@ -3410,7 +3437,7 @@
         <v>202</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>240</v>
@@ -3445,7 +3472,7 @@
         <v>203</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>200</v>
@@ -3461,7 +3488,7 @@
         <v>49200</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K53" s="18"/>
     </row>
@@ -3479,7 +3506,7 @@
         <v>202</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>240</v>
@@ -3530,7 +3557,7 @@
         <v>21000</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>221</v>
@@ -3567,7 +3594,7 @@
         <v>39600</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>134</v>
@@ -3604,7 +3631,7 @@
         <v>5040</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>137</v>
@@ -3640,7 +3667,7 @@
         <v>8290.61</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K58" s="10"/>
     </row>
@@ -3674,7 +3701,7 @@
         <v>460670</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>146</v>
@@ -3688,7 +3715,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>140</v>
@@ -3707,7 +3734,7 @@
         <v>75600</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>142</v>
@@ -3775,7 +3802,7 @@
         <v>203</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>200</v>
@@ -3791,7 +3818,7 @@
         <v>49200</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K64" s="18"/>
     </row>
@@ -3809,7 +3836,7 @@
         <v>202</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>240</v>
@@ -3861,7 +3888,7 @@
         <v>5040</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>150</v>
@@ -3875,7 +3902,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>151</v>
@@ -3894,7 +3921,7 @@
         <v>75600</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>153</v>
@@ -3962,7 +3989,7 @@
         <v>203</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>200</v>
@@ -3978,7 +4005,7 @@
         <v>49200</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K71" s="18"/>
     </row>
@@ -3993,10 +4020,10 @@
         <v>204</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>240</v>
@@ -4015,7 +4042,9 @@
       <c r="J72" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K72" s="18"/>
+      <c r="K72" s="5" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
@@ -4025,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>183</v>
@@ -4048,7 +4077,7 @@
         <v>4800</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>218</v>
@@ -4062,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>173</v>
@@ -4084,7 +4113,7 @@
         <v>60000</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>175</v>
@@ -4121,7 +4150,7 @@
         <v>5040</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>157</v>
@@ -4158,7 +4187,7 @@
         <v>5040</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>157</v>
@@ -4195,7 +4224,7 @@
         <v>5040</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>157</v>
@@ -4232,7 +4261,7 @@
         <v>5040</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>165</v>
@@ -4269,7 +4298,7 @@
         <v>5040</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>165</v>
@@ -4283,7 +4312,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>180</v>
@@ -4305,7 +4334,7 @@
         <v>45436.51</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>179</v>
@@ -4319,7 +4348,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>168</v>
@@ -4338,7 +4367,7 @@
         <v>75600</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>170</v>
@@ -4400,7 +4429,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>176</v>
@@ -4423,7 +4452,7 @@
         <v>62885.47</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>179</v>
@@ -4437,7 +4466,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>171</v>
@@ -4456,7 +4485,7 @@
         <v>75600</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>170</v>
@@ -4524,7 +4553,7 @@
         <v>201</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>200</v>
@@ -4541,7 +4570,7 @@
         <v>49200</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K90" s="18"/>
     </row>
@@ -4556,10 +4585,10 @@
         <v>204</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>240</v>
@@ -4578,7 +4607,9 @@
       <c r="J91" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K91" s="18"/>
+      <c r="K91" s="5" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="92" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
@@ -4588,7 +4619,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>183</v>
@@ -4611,7 +4642,7 @@
         <v>4800</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>218</v>
@@ -4648,7 +4679,7 @@
         <v>5040</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>187</v>
@@ -4685,7 +4716,7 @@
         <v>5040</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>191</v>
@@ -4696,16 +4727,16 @@
         <v>2020</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="D95" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>107</v>
@@ -4715,10 +4746,10 @@
         <v>32400</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4726,7 +4757,7 @@
         <v>2020</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>107</v>
@@ -4742,7 +4773,7 @@
         <v>2021</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>107</v>
@@ -4758,7 +4789,7 @@
         <v>2022</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>107</v>
@@ -4783,7 +4814,7 @@
         <v>201</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>200</v>
@@ -4800,7 +4831,7 @@
         <v>8200</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4814,10 +4845,10 @@
         <v>204</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>240</v>
@@ -4836,7 +4867,7 @@
       <c r="J100" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K100" s="18"/>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
@@ -4849,13 +4880,13 @@
         <v>101</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>107</v>
@@ -4869,10 +4900,10 @@
         <v>39600</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4902,7 +4933,7 @@
         <v>39600</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>194</v>
@@ -4987,7 +5018,7 @@
         <v>5040</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>197</v>
@@ -5004,10 +5035,10 @@
         <v>204</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>240</v>
@@ -5055,7 +5086,7 @@
         <v>75600</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>206</v>
@@ -5140,7 +5171,7 @@
         <v>5040</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>211</v>
@@ -5177,7 +5208,7 @@
         <v>5040</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>211</v>
@@ -5191,7 +5222,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>227</v>
@@ -5213,7 +5244,7 @@
         <v>94922.1</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>222</v>
@@ -5227,10 +5258,10 @@
         <v>7</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>228</v>
@@ -5249,7 +5280,7 @@
         <v>62945</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>229</v>
@@ -5263,7 +5294,7 @@
         <v>2</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>239</v>
@@ -5282,7 +5313,7 @@
         <v>39600</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>231</v>
@@ -5347,7 +5378,7 @@
         <v>242</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>240</v>
@@ -5355,7 +5386,7 @@
       <c r="G120" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H120" s="17">
+      <c r="H120" s="23">
         <f>252000+192400</f>
         <v>444400</v>
       </c>
@@ -5366,7 +5397,9 @@
       <c r="J120" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K120" s="20"/>
+      <c r="K120" s="24" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="121" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
@@ -5395,7 +5428,7 @@
         <v>108000</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>237</v>
@@ -5457,7 +5490,7 @@
         <v>233</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>238</v>
@@ -5473,7 +5506,7 @@
         <v>86400</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K125" s="5" t="s">
         <v>236</v>
@@ -5532,13 +5565,13 @@
         <v>7</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D129" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E129" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>11</v>
@@ -5555,10 +5588,10 @@
         <v>5040</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5569,10 +5602,10 @@
         <v>7</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>207</v>
@@ -5592,10 +5625,10 @@
         <v>5040</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="204" x14ac:dyDescent="0.2">
@@ -5606,16 +5639,16 @@
         <v>5</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>107</v>
@@ -5628,7 +5661,7 @@
         <v>232</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="204" x14ac:dyDescent="0.2">
@@ -5639,16 +5672,16 @@
         <v>5</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>0</v>
@@ -5661,7 +5694,7 @@
         <v>232</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5706,26 +5739,26 @@
         <v>7</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D135" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F135" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H135" s="8">
         <f>SUM(I136:I138)</f>
         <v>185600</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5780,13 +5813,13 @@
         <v>2</v>
       </c>
       <c r="C139" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E139" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>4</v>
@@ -5800,10 +5833,10 @@
       </c>
       <c r="I139" s="14"/>
       <c r="J139" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K139" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5852,6 +5885,43 @@
       <c r="I142" s="14">
         <f>12*1100</f>
         <v>13200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H143" s="23">
+        <f>(8*3100+16*800+7*2100+11*800)*12</f>
+        <v>733200</v>
+      </c>
+      <c r="I143" s="8">
+        <f t="shared" ref="I143" si="16">H143</f>
+        <v>733200</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K143" s="24" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5863,6 +5933,7 @@
   <hyperlinks>
     <hyperlink ref="K101" r:id="rId1" xr:uid="{0BDF45E4-69FF-4B44-90A6-A3D6FD389C69}"/>
     <hyperlink ref="K95" r:id="rId2" xr:uid="{2417EFB1-30AE-3F43-810C-4080C6CE760E}"/>
+    <hyperlink ref="K143" r:id="rId3" xr:uid="{92FD8AF5-2C5D-AA4E-924F-DD3F5A942F85}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.28000000000000003" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A33AD9-9D2A-8C41-B50E-7277FECDFD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BBAC35-EABA-2E4D-A3EB-55154279999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="324">
   <si>
     <t>CAPEX</t>
   </si>
@@ -929,9 +929,6 @@
     <t>http://memoria2.cnpq.br/web/guest/chamadas-publicas?p_p_id=resultadosportlet_WAR_resultadoscnpqportlet_INSTANCE_0ZaM&amp;filtro=encerradas&amp;detalha=chamadaDivulgada&amp;idDivulgacao=10628</t>
   </si>
   <si>
-    <t xml:space="preserve">Edital Nº 09/2022 </t>
-  </si>
-  <si>
     <t>Alterações longitudinais no Teste de AVD-Glittre em pacientes com câncer de pulmão: Análise pré e pós-operatória usando reabilitação em ensaio randomizado controlado</t>
   </si>
   <si>
@@ -981,6 +978,39 @@
   </si>
   <si>
     <t>23038.000222/2016-76</t>
+  </si>
+  <si>
+    <t>FAPEMIG</t>
+  </si>
+  <si>
+    <t>Luciana Crepaldi Lunkes</t>
+  </si>
+  <si>
+    <t>PROGRAMA INSTITUCIONAL DE BOLSAS DE INICIAÇÃO CIENTÍFICA – PIBIC/CNPq  EDITAL 2021/01</t>
+  </si>
+  <si>
+    <t>https://unilavras.edu.br/new_site/wp-content/uploads/2021/04/Edital-2021-CNPQ-1.pdf</t>
+  </si>
+  <si>
+    <t>Edital Nº 09/2022</t>
+  </si>
+  <si>
+    <t>Edital Nº 2021/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMA INSTITUCIONAL DE BOLSAS DE INICIAÇÃO CIENTÍFICA – PIBIC / FAPEMIG  EDITAL 01/2021  </t>
+  </si>
+  <si>
+    <t>https://unilavras.edu.br/new_site/wp-content/uploads/2021/04/Edital-2021-Fapemig-1.pdf</t>
+  </si>
+  <si>
+    <t>Edital Nº 01/2021</t>
+  </si>
+  <si>
+    <t>Estudo de revisão sobre a presença de dor cervical associada ao “text neck” utilizando os critérios de causalidade de Hill</t>
+  </si>
+  <si>
+    <t>A influência da prática do pilates nos sintomas de ansiedade, estresse e depressão em estudantes</t>
   </si>
 </sst>
 </file>
@@ -1280,16 +1310,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1708,19 +1738,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
+      <selection pane="bottomRight" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="23" style="7" customWidth="1"/>
     <col min="5" max="5" width="69" style="7" customWidth="1"/>
@@ -2908,7 +2938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2014</v>
       </c>
@@ -4020,7 +4050,7 @@
         <v>204</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>245</v>
@@ -4043,7 +4073,7 @@
         <v>232</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="85" x14ac:dyDescent="0.2">
@@ -4585,7 +4615,7 @@
         <v>204</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>245</v>
@@ -4608,7 +4638,7 @@
         <v>232</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="85" x14ac:dyDescent="0.2">
@@ -4727,16 +4757,16 @@
         <v>2020</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="D95" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>107</v>
@@ -4749,7 +4779,7 @@
         <v>265</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4757,7 +4787,7 @@
         <v>2020</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>107</v>
@@ -4773,7 +4803,7 @@
         <v>2021</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>107</v>
@@ -4789,7 +4819,7 @@
         <v>2022</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>107</v>
@@ -5035,7 +5065,7 @@
         <v>204</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>245</v>
@@ -5286,72 +5316,112 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2021</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>239</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D116" s="23"/>
       <c r="E116" s="7" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>4</v>
+        <v>319</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H116" s="8">
-        <f>SUM(I117:I119)</f>
-        <v>39600</v>
+        <f>I116</f>
+        <v>4800</v>
+      </c>
+      <c r="I116" s="8">
+        <f>400*12</f>
+        <v>4800</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K116" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="K116" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="C117" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D117" s="23"/>
+      <c r="E117" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="G117" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="H117" s="8">
+        <f>I117</f>
+        <v>4800</v>
+      </c>
       <c r="I117" s="8">
-        <f>12*1100</f>
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <f>400*12</f>
+        <v>4800</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="K117" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="C118" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="G118" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I118" s="8">
-        <f>12*1100</f>
-        <v>13200</v>
+      <c r="H118" s="8">
+        <f>SUM(I119:I121)</f>
+        <v>39600</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>2</v>
@@ -5364,109 +5434,109 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I120" s="8">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I121" s="8">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
         <v>2022</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B122" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C122" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D122" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E122" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F122" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G120" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H120" s="23">
+      <c r="G122" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H122" s="8">
         <f>252000+192400</f>
         <v>444400</v>
       </c>
-      <c r="I120" s="8">
-        <f t="shared" ref="I120" si="13">H120</f>
+      <c r="I122" s="8">
+        <f t="shared" ref="I122" si="13">H122</f>
         <v>444400</v>
       </c>
-      <c r="J120" s="9" t="s">
+      <c r="J122" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K120" s="24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+      <c r="K122" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
         <v>2021</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="7" t="s">
+      <c r="B123" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D123" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E123" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F123" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G121" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H121" s="8">
-        <f>SUM(I122:I124)</f>
+      <c r="G123" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H123" s="8">
+        <f>SUM(I124:I126)</f>
         <v>108000</v>
       </c>
-      <c r="J121" s="5" t="s">
+      <c r="J123" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="K121" s="5" t="s">
+      <c r="K123" s="5" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I122" s="8">
-        <f>3000*36/3</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I123" s="8">
-        <f>3000*36/3</f>
-        <v>36000</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>7</v>
@@ -5479,42 +5549,24 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="G125" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H125" s="8">
-        <f>SUM(I126:I128)</f>
-        <v>86400</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="K125" s="5" t="s">
-        <v>236</v>
+      <c r="I125" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>7</v>
@@ -5523,28 +5575,46 @@
         <v>0</v>
       </c>
       <c r="I126" s="8">
-        <f>2400*36/3</f>
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <f>3000*36/3</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="C127" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="G127" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I127" s="8">
-        <f>2400*36/3</f>
-        <v>28800</v>
+      <c r="H127" s="8">
+        <f>SUM(I128:I130)</f>
+        <v>86400</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>7</v>
@@ -5557,208 +5627,191 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I129" s="8">
+        <f>2400*36/3</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" s="8">
+        <f>2400*36/3</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
         <v>2022</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="7" t="s">
+      <c r="B131" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D131" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E131" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F131" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G129" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H129" s="8">
+      <c r="G131" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H131" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I129" s="8">
-        <f t="shared" ref="I129" si="14">H129</f>
+      <c r="I131" s="8">
+        <f t="shared" ref="I131" si="14">H131</f>
         <v>5040</v>
       </c>
-      <c r="J129" s="9" t="s">
+      <c r="J131" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="K129" s="5" t="s">
+      <c r="K131" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
+    <row r="132" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
         <v>2022</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="7" t="s">
+      <c r="B132" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E130" s="7" t="s">
+      <c r="D132" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F132" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H130" s="8">
+      <c r="G132" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H132" s="8">
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="I130" s="8">
-        <f t="shared" ref="I130" si="15">H130</f>
+      <c r="I132" s="8">
+        <f t="shared" ref="I132" si="15">H132</f>
         <v>5040</v>
       </c>
-      <c r="J130" s="9" t="s">
+      <c r="J132" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K130" s="5" t="s">
+      <c r="K132" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
+    <row r="133" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
         <v>2022</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B133" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E133" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F133" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G131" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H131" s="8">
+      <c r="G133" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H133" s="8">
         <f>2*4*12*2200</f>
         <v>211200</v>
       </c>
-      <c r="J131" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H132" s="8">
-        <f>SUM(I133:I134)</f>
-        <v>50000</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I133" s="8">
-        <v>25000</v>
-      </c>
       <c r="J133" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="K133" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C134" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="G134" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I134" s="8">
-        <v>25000</v>
+      <c r="H134" s="8">
+        <f>SUM(I135:I136)</f>
+        <v>50000</v>
       </c>
       <c r="J134" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="K134" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2022</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H135" s="8">
-        <f>SUM(I136:I138)</f>
-        <v>185600</v>
+        <v>5</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I135" s="8">
+        <v>25000</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="K135" s="5" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5766,119 +5819,134 @@
         <v>2023</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I136" s="8">
+        <v>25000</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H137" s="8">
+        <f>SUM(I138:I140)</f>
+        <v>185600</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I138" s="8">
         <v>50000</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
+    <row r="139" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
         <v>2023</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I137" s="8">
+      <c r="B139" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I139" s="8">
         <f>5125*12+525*12</f>
         <v>67800</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
+    <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
         <v>2024</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I138" s="8">
+      <c r="B140" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I140" s="8">
         <f>5125*12+525*12</f>
         <v>67800</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
+    <row r="141" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
         <v>2022</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G139" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H139" s="14">
-        <f>SUM(I140:I142)</f>
-        <v>39600</v>
-      </c>
-      <c r="I139" s="14"/>
-      <c r="J139" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="K139" s="21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G140" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14">
-        <f>12*1100</f>
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
-        <v>2024</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G141" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14">
-        <f>12*1100</f>
-        <v>13200</v>
+      <c r="C141" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H141" s="14">
+        <f>SUM(I142:I144)</f>
+        <v>39600</v>
+      </c>
+      <c r="I141" s="14"/>
+      <c r="J141" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K141" s="22" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G142" s="22" t="s">
+      <c r="G142" s="21" t="s">
         <v>107</v>
       </c>
       <c r="H142" s="14"/>
@@ -5887,42 +5955,78 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
         <v>2023</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B145" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C145" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E143" s="7" t="s">
+      <c r="D145" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E145" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F145" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G143" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H143" s="23">
+      <c r="G145" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H145" s="8">
         <f>(8*3100+16*800+7*2100+11*800)*12</f>
         <v>733200</v>
       </c>
-      <c r="I143" s="8">
-        <f t="shared" ref="I143" si="16">H143</f>
+      <c r="I145" s="8">
+        <f t="shared" ref="I145" si="16">H145</f>
         <v>733200</v>
       </c>
-      <c r="J143" s="9" t="s">
+      <c r="J145" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K143" s="24" t="s">
-        <v>307</v>
-      </c>
+      <c r="K145" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C146" s="24"/>
+      <c r="E146" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K109">
@@ -5933,7 +6037,8 @@
   <hyperlinks>
     <hyperlink ref="K101" r:id="rId1" xr:uid="{0BDF45E4-69FF-4B44-90A6-A3D6FD389C69}"/>
     <hyperlink ref="K95" r:id="rId2" xr:uid="{2417EFB1-30AE-3F43-810C-4080C6CE760E}"/>
-    <hyperlink ref="K143" r:id="rId3" xr:uid="{92FD8AF5-2C5D-AA4E-924F-DD3F5A942F85}"/>
+    <hyperlink ref="K145" r:id="rId3" xr:uid="{92FD8AF5-2C5D-AA4E-924F-DD3F5A942F85}"/>
+    <hyperlink ref="K116" r:id="rId4" xr:uid="{E4A37AEB-1060-BA4B-8F47-41B5A099E881}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.28000000000000003" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BBAC35-EABA-2E4D-A3EB-55154279999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8BB003-F72A-034F-BA37-12D32B7A4A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="325">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1011,6 +1011,9 @@
   </si>
   <si>
     <t>A influência da prática do pilates nos sintomas de ansiedade, estresse e depressão em estudantes</t>
+  </si>
+  <si>
+    <t>Text neck: definição conceitual e de um ponto de corte para a avaliação quantitativa</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,9 +1320,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1735,21 +1735,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A145" sqref="A145"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="23" style="7" customWidth="1"/>
@@ -1798,7 +1798,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2006</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2007</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2009</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2010</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2010</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2011</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2012</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2012</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2012</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2012</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2013</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2014</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2013</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2010</v>
       </c>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2011</v>
       </c>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2012</v>
       </c>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2013</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2013</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2013</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2013</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2013</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2013</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2013</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2013</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2013</v>
       </c>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2014</v>
       </c>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2014</v>
       </c>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2014</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2014</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2014</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2014</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2014</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2014</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2014</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2014</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2014</v>
       </c>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="K42" s="18"/>
     </row>
-    <row r="43" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2015</v>
       </c>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2015</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="16" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2015</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="16" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2015</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2015</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2015</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="16" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2016</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="18"/>
     </row>
-    <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2017</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2018</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2015</v>
       </c>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="K53" s="18"/>
     </row>
-    <row r="54" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2016</v>
       </c>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="K54" s="18"/>
     </row>
-    <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2016</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2016</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2016</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2016</v>
       </c>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2016</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2016</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2017</v>
       </c>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="K61" s="18"/>
     </row>
-    <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2018</v>
       </c>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2019</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2017</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="K64" s="18"/>
     </row>
-    <row r="65" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2017</v>
       </c>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2017</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2017</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2018</v>
       </c>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K68" s="18"/>
     </row>
-    <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2019</v>
       </c>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2020</v>
       </c>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="K70" s="18"/>
     </row>
-    <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2018</v>
       </c>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2018</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2018</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2018</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2018</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2018</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2018</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>2018</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>2018</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>2019</v>
       </c>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="K82" s="18"/>
     </row>
-    <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>2020</v>
       </c>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K83" s="18"/>
     </row>
-    <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>2021</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="K84" s="18"/>
     </row>
-    <row r="85" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2018</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2018</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2019</v>
       </c>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="K87" s="18"/>
     </row>
-    <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2020</v>
       </c>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="K88" s="18"/>
     </row>
-    <row r="89" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2021</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="K89" s="18"/>
     </row>
-    <row r="90" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2019</v>
       </c>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="K90" s="18"/>
     </row>
-    <row r="91" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2019</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2019</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2019</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2019</v>
       </c>
@@ -4765,6 +4765,9 @@
       <c r="D95" s="7" t="s">
         <v>302</v>
       </c>
+      <c r="E95" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="F95" s="7" t="s">
         <v>303</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2020</v>
       </c>
@@ -4798,7 +4801,7 @@
       </c>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2021</v>
       </c>
@@ -4814,7 +4817,7 @@
       </c>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2022</v>
       </c>
@@ -4830,7 +4833,7 @@
       </c>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2020</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2020</v>
       </c>
@@ -4899,7 +4902,7 @@
       </c>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2020</v>
       </c>
@@ -4936,7 +4939,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2020</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2021</v>
       </c>
@@ -4985,7 +4988,7 @@
       </c>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>2022</v>
       </c>
@@ -5001,7 +5004,7 @@
       </c>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2023</v>
       </c>
@@ -5017,7 +5020,7 @@
       </c>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2020</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2021</v>
       </c>
@@ -5089,7 +5092,7 @@
       </c>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2020</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>2021</v>
       </c>
@@ -5138,7 +5141,7 @@
       </c>
       <c r="K109" s="18"/>
     </row>
-    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2022</v>
       </c>
@@ -5154,7 +5157,7 @@
       </c>
       <c r="K110" s="18"/>
     </row>
-    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2023</v>
       </c>
@@ -5170,7 +5173,7 @@
       </c>
       <c r="K111" s="18"/>
     </row>
-    <row r="112" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2021</v>
       </c>
@@ -5207,7 +5210,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2021</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2021</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2021</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2021</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2021</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2021</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2022</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2023</v>
       </c>
@@ -5449,7 +5452,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>2024</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2022</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>2021</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>2022</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>2023</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>2024</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2022</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2023</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2024</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>2022</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2022</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>2022</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>2022</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2022</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>2023</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>2022</v>
       </c>
@@ -5861,7 +5864,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>2023</v>
       </c>
@@ -5875,7 +5878,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>2023</v>
       </c>
@@ -5890,7 +5893,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>2024</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>2022</v>
       </c>
@@ -5939,7 +5942,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>2023</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>2024</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>2025</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>2023</v>
       </c>
@@ -6025,10 +6028,16 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C146" s="24"/>
       <c r="E146" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K145" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Ney Armando de Mello Meziat Filho"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K109">
     <sortCondition ref="A2:A109"/>
     <sortCondition ref="B2:B109"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8BB003-F72A-034F-BA37-12D32B7A4A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F7007F-6C4A-1746-A486-6D74FA52BD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,7 +1251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1320,6 +1320,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="127" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1735,31 +1738,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="7" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="69" style="7" customWidth="1"/>
     <col min="6" max="6" width="66" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="8" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="49.1640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="62.1640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="62.1640625" style="5" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -1798,7 +1800,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2006</v>
       </c>
@@ -1832,7 +1834,7 @@
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2007</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -1904,7 +1906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2009</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2010</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2010</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2011</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -2082,7 +2084,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2012</v>
       </c>
@@ -2116,7 +2118,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -2150,7 +2152,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2012</v>
       </c>
@@ -2184,7 +2186,7 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2012</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2012</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2013</v>
       </c>
@@ -2270,7 +2272,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2014</v>
       </c>
@@ -2287,7 +2289,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -2304,7 +2306,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2013</v>
       </c>
@@ -2340,7 +2342,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2010</v>
       </c>
@@ -2374,7 +2376,7 @@
       </c>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2011</v>
       </c>
@@ -2408,7 +2410,7 @@
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2012</v>
       </c>
@@ -2442,7 +2444,7 @@
       </c>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2013</v>
       </c>
@@ -2476,7 +2478,7 @@
       </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2013</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2013</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2013</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2013</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2013</v>
       </c>
@@ -2656,7 +2658,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2013</v>
       </c>
@@ -2692,7 +2694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2013</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2013</v>
       </c>
@@ -2762,7 +2764,7 @@
       </c>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2014</v>
       </c>
@@ -2797,7 +2799,7 @@
       </c>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2014</v>
       </c>
@@ -2832,7 +2834,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2014</v>
       </c>
@@ -2866,7 +2868,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2014</v>
       </c>
@@ -2902,7 +2904,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2014</v>
       </c>
@@ -2938,7 +2940,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2014</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2014</v>
       </c>
@@ -3010,7 +3012,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2014</v>
       </c>
@@ -3046,7 +3048,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2014</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2014</v>
       </c>
@@ -3118,7 +3120,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2014</v>
       </c>
@@ -3187,7 +3189,7 @@
       </c>
       <c r="K42" s="18"/>
     </row>
-    <row r="43" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2015</v>
       </c>
@@ -3221,7 +3223,7 @@
       </c>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2015</v>
       </c>
@@ -3255,7 +3257,7 @@
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="16" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2015</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="16" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2015</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2015</v>
       </c>
@@ -3364,7 +3366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2015</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="16" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2016</v>
       </c>
@@ -3419,7 +3421,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="18"/>
     </row>
-    <row r="50" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2017</v>
       </c>
@@ -3436,7 +3438,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2018</v>
       </c>
@@ -3453,7 +3455,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2015</v>
       </c>
@@ -3522,7 +3524,7 @@
       </c>
       <c r="K53" s="18"/>
     </row>
-    <row r="54" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2016</v>
       </c>
@@ -3557,7 +3559,7 @@
       </c>
       <c r="K54" s="18"/>
     </row>
-    <row r="55" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2016</v>
       </c>
@@ -3593,7 +3595,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2016</v>
       </c>
@@ -3630,7 +3632,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2016</v>
       </c>
@@ -3667,7 +3669,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2016</v>
       </c>
@@ -3701,7 +3703,7 @@
       </c>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2016</v>
       </c>
@@ -3737,7 +3739,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2016</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2017</v>
       </c>
@@ -3786,7 +3788,7 @@
       </c>
       <c r="K61" s="18"/>
     </row>
-    <row r="62" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2018</v>
       </c>
@@ -3802,7 +3804,7 @@
       </c>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2019</v>
       </c>
@@ -3818,7 +3820,7 @@
       </c>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2017</v>
       </c>
@@ -3852,7 +3854,7 @@
       </c>
       <c r="K64" s="18"/>
     </row>
-    <row r="65" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2017</v>
       </c>
@@ -3887,7 +3889,7 @@
       </c>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2017</v>
       </c>
@@ -3924,7 +3926,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2017</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2018</v>
       </c>
@@ -3973,7 +3975,7 @@
       </c>
       <c r="K68" s="18"/>
     </row>
-    <row r="69" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2019</v>
       </c>
@@ -3989,7 +3991,7 @@
       </c>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2020</v>
       </c>
@@ -4005,7 +4007,7 @@
       </c>
       <c r="K70" s="18"/>
     </row>
-    <row r="71" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2018</v>
       </c>
@@ -4039,7 +4041,7 @@
       </c>
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2018</v>
       </c>
@@ -4076,7 +4078,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2018</v>
       </c>
@@ -4113,7 +4115,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2018</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2018</v>
       </c>
@@ -4186,7 +4188,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2018</v>
       </c>
@@ -4260,7 +4262,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2018</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>2018</v>
       </c>
@@ -4370,7 +4372,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>2018</v>
       </c>
@@ -4394,7 +4396,7 @@
       </c>
       <c r="H81" s="8">
         <f>SUM(I82:I84)</f>
-        <v>75600</v>
+        <v>55440</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>259</v>
@@ -4403,7 +4405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>2019</v>
       </c>
@@ -4419,7 +4421,7 @@
       </c>
       <c r="K82" s="18"/>
     </row>
-    <row r="83" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>2020</v>
       </c>
@@ -4435,23 +4437,44 @@
       </c>
       <c r="K83" s="18"/>
     </row>
-    <row r="84" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>2021</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="C84" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G84" s="7" t="s">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="H84" s="8">
+        <f>420*12</f>
+        <v>5040</v>
       </c>
       <c r="I84" s="8">
-        <f>2100*36/3</f>
-        <v>25200</v>
-      </c>
-      <c r="K84" s="18"/>
-    </row>
-    <row r="85" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <f>H84</f>
+        <v>5040</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2018</v>
       </c>
@@ -4488,7 +4511,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2018</v>
       </c>
@@ -4512,7 +4535,7 @@
       </c>
       <c r="H86" s="8">
         <f>SUM(I87:I89)</f>
-        <v>75600</v>
+        <v>50400</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>264</v>
@@ -4521,7 +4544,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2019</v>
       </c>
@@ -4537,7 +4560,7 @@
       </c>
       <c r="K87" s="18"/>
     </row>
-    <row r="88" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2020</v>
       </c>
@@ -4553,23 +4576,40 @@
       </c>
       <c r="K88" s="18"/>
     </row>
-    <row r="89" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2021</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="C89" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="G89" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I89" s="8">
-        <f>2100*36/3</f>
-        <v>25200</v>
-      </c>
-      <c r="K89" s="18"/>
-    </row>
-    <row r="90" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H89" s="8">
+        <f>SUM(I90:I92)</f>
+        <v>368800</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2019</v>
       </c>
@@ -4596,7 +4636,7 @@
         <v>49200</v>
       </c>
       <c r="I90" s="8">
-        <f t="shared" ref="I90:I107" si="10">H90</f>
+        <f>H90</f>
         <v>49200</v>
       </c>
       <c r="J90" s="9" t="s">
@@ -4604,7 +4644,7 @@
       </c>
       <c r="K90" s="18"/>
     </row>
-    <row r="91" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2019</v>
       </c>
@@ -4631,7 +4671,7 @@
         <v>314800</v>
       </c>
       <c r="I91" s="8">
-        <f t="shared" si="10"/>
+        <f>H91</f>
         <v>314800</v>
       </c>
       <c r="J91" s="9" t="s">
@@ -4641,7 +4681,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2019</v>
       </c>
@@ -4668,7 +4708,7 @@
         <v>4800</v>
       </c>
       <c r="I92" s="8">
-        <f t="shared" si="10"/>
+        <f>H92</f>
         <v>4800</v>
       </c>
       <c r="J92" s="9" t="s">
@@ -4678,7 +4718,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2019</v>
       </c>
@@ -4705,17 +4745,17 @@
         <v>5040</v>
       </c>
       <c r="I93" s="8">
-        <f t="shared" si="10"/>
+        <f>H93</f>
         <v>5040</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K93" s="5" t="s">
+      <c r="K93" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2019</v>
       </c>
@@ -4742,7 +4782,7 @@
         <v>5040</v>
       </c>
       <c r="I94" s="8">
-        <f t="shared" si="10"/>
+        <f>H94</f>
         <v>5040</v>
       </c>
       <c r="J94" s="9" t="s">
@@ -4776,7 +4816,7 @@
       </c>
       <c r="H95" s="8">
         <f>SUM(I96:I98)</f>
-        <v>32400</v>
+        <v>15840</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>265</v>
@@ -4785,7 +4825,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2020</v>
       </c>
@@ -4801,39 +4841,78 @@
       </c>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>300</v>
+        <v>7</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="H97" s="8">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
       <c r="I97" s="8">
-        <f>900*12</f>
-        <v>10800</v>
-      </c>
-      <c r="J97" s="9"/>
-    </row>
-    <row r="98" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <f>H97</f>
+        <v>5040</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2022</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I98" s="8">
-        <f>900*12</f>
-        <v>10800</v>
-      </c>
-      <c r="J98" s="9"/>
-    </row>
-    <row r="99" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H98" s="14">
+        <f>SUM(I99:I101)</f>
+        <v>416800</v>
+      </c>
+      <c r="I98" s="14"/>
+      <c r="J98" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K98" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2020</v>
       </c>
@@ -4860,14 +4939,14 @@
         <v>8200</v>
       </c>
       <c r="I99" s="8">
-        <f t="shared" si="10"/>
+        <f>H99</f>
         <v>8200</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2020</v>
       </c>
@@ -4894,7 +4973,7 @@
         <v>369000</v>
       </c>
       <c r="I100" s="8">
-        <f t="shared" si="10"/>
+        <f>H100</f>
         <v>369000</v>
       </c>
       <c r="J100" s="9" t="s">
@@ -4902,7 +4981,7 @@
       </c>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2020</v>
       </c>
@@ -4929,7 +5008,7 @@
         <v>39600</v>
       </c>
       <c r="I101" s="8">
-        <f t="shared" si="10"/>
+        <f>H101</f>
         <v>39600</v>
       </c>
       <c r="J101" s="9" t="s">
@@ -4939,7 +5018,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2020</v>
       </c>
@@ -4963,7 +5042,7 @@
       </c>
       <c r="H102" s="8">
         <f>SUM(I103:I105)</f>
-        <v>39600</v>
+        <v>113162.1</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>259</v>
@@ -4972,39 +5051,80 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2021</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="H103" s="8">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
       <c r="I103" s="8">
-        <f>12*1100</f>
-        <v>13200</v>
-      </c>
-      <c r="J103" s="9"/>
-    </row>
-    <row r="104" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <f>H103</f>
+        <v>5040</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="H104" s="8">
+        <v>94922.1</v>
       </c>
       <c r="I104" s="8">
-        <f>12*1100</f>
-        <v>13200</v>
-      </c>
-      <c r="J104" s="9"/>
-    </row>
-    <row r="105" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <f>H104</f>
+        <v>94922.1</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2023</v>
       </c>
@@ -5020,7 +5140,7 @@
       </c>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2020</v>
       </c>
@@ -5047,7 +5167,7 @@
         <v>5040</v>
       </c>
       <c r="I106" s="8">
-        <f t="shared" si="10"/>
+        <f>H106</f>
         <v>5040</v>
       </c>
       <c r="J106" s="9" t="s">
@@ -5057,42 +5177,40 @@
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2021</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H107" s="8">
-        <f>252000+192400</f>
-        <v>444400</v>
-      </c>
-      <c r="I107" s="8">
-        <f t="shared" si="10"/>
-        <v>444400</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <f>SUM(I108:I110)</f>
+        <v>9840</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2020</v>
       </c>
@@ -5116,7 +5234,7 @@
       </c>
       <c r="H108" s="8">
         <f>SUM(I109:I111)</f>
-        <v>75600</v>
+        <v>35040</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>266</v>
@@ -5125,39 +5243,79 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H109" s="8">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
+      <c r="I109" s="8">
+        <f>H109</f>
+        <v>5040</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
         <v>2021</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I109" s="8">
-        <f>2100*36/3</f>
-        <v>25200</v>
-      </c>
-      <c r="K109" s="18"/>
-    </row>
-    <row r="110" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
-        <v>2022</v>
-      </c>
       <c r="B110" s="7" t="s">
-        <v>7</v>
+        <v>313</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D110" s="23"/>
+      <c r="E110" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="H110" s="8">
+        <f>I110</f>
+        <v>4800</v>
       </c>
       <c r="I110" s="8">
-        <f>2100*36/3</f>
-        <v>25200</v>
-      </c>
-      <c r="K110" s="18"/>
-    </row>
-    <row r="111" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <f>400*12</f>
+        <v>4800</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="K110" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2023</v>
       </c>
@@ -5173,44 +5331,42 @@
       </c>
       <c r="K111" s="18"/>
     </row>
-    <row r="112" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2021</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D112" s="23"/>
       <c r="E112" s="7" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="8">
-        <f>420*12</f>
-        <v>5040</v>
+        <f>I112</f>
+        <v>4800</v>
       </c>
       <c r="I112" s="8">
-        <f t="shared" ref="I112" si="11">H112</f>
-        <v>5040</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K112" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <f>400*12</f>
+        <v>4800</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="K112" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2021</v>
       </c>
@@ -5218,226 +5374,217 @@
         <v>7</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H113" s="8">
-        <f>420*12</f>
-        <v>5040</v>
-      </c>
-      <c r="I113" s="8">
-        <f t="shared" ref="I113:I114" si="12">H113</f>
-        <v>5040</v>
-      </c>
-      <c r="J113" s="9" t="s">
-        <v>259</v>
+        <f>SUM(I114:I116)</f>
+        <v>888800</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="H114" s="8">
-        <v>94922.1</v>
-      </c>
-      <c r="I114" s="8">
-        <f t="shared" si="12"/>
-        <v>94922.1</v>
+        <f>SUM(I115:I117)</f>
+        <v>888800</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2021</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H115" s="8">
-        <f>I115</f>
-        <v>62945</v>
+        <f>252000+192400</f>
+        <v>444400</v>
       </c>
       <c r="I115" s="8">
-        <v>62945</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K115" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <f>H115</f>
+        <v>444400</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D116" s="23"/>
+        <v>204</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="E116" s="7" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H116" s="8">
-        <f>I116</f>
-        <v>4800</v>
+        <f>252000+192400</f>
+        <v>444400</v>
       </c>
       <c r="I116" s="8">
-        <f>400*12</f>
-        <v>4800</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>314</v>
+        <f>H116</f>
+        <v>444400</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D117" s="23"/>
+        <v>271</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="E117" s="7" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H117" s="8">
-        <f>I117</f>
-        <v>4800</v>
-      </c>
-      <c r="I117" s="8">
-        <f>400*12</f>
-        <v>4800</v>
+        <f>2*4*12*2200</f>
+        <v>211200</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="K117" s="22" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H118" s="8">
-        <f>SUM(I119:I121)</f>
-        <v>39600</v>
+        <f>SUM(I119:I120)</f>
+        <v>38200</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2022</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="I119" s="8">
-        <f>12*1100</f>
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>25000</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2023</v>
       </c>
@@ -5452,7 +5599,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>2024</v>
       </c>
@@ -5467,79 +5614,61 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H122" s="8">
-        <f>252000+192400</f>
-        <v>444400</v>
+        <f>I122</f>
+        <v>62945</v>
       </c>
       <c r="I122" s="8">
-        <f t="shared" ref="I122" si="13">H122</f>
-        <v>444400</v>
-      </c>
-      <c r="J122" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="K122" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>62945</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>2021</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="G123" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H123" s="8">
-        <f>SUM(I124:I126)</f>
-        <v>108000</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="K123" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I123" s="8">
+        <f>2100*36/3</f>
+        <v>25200</v>
+      </c>
+      <c r="K123" s="18"/>
+    </row>
+    <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>7</v>
@@ -5548,11 +5677,12 @@
         <v>0</v>
       </c>
       <c r="I124" s="8">
-        <f>3000*36/3</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <f>2100*36/3</f>
+        <v>25200</v>
+      </c>
+      <c r="K124" s="18"/>
+    </row>
+    <row r="125" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>2023</v>
       </c>
@@ -5567,7 +5697,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>2024</v>
       </c>
@@ -5582,55 +5712,39 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>2021</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H127" s="8">
-        <f>SUM(I128:I130)</f>
-        <v>86400</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="K127" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I127" s="8">
+        <f>900*12</f>
+        <v>10800</v>
+      </c>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2022</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I128" s="8">
-        <f>2400*36/3</f>
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <f>900*12</f>
+        <v>10800</v>
+      </c>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2023</v>
       </c>
@@ -5645,7 +5759,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2024</v>
       </c>
@@ -5660,164 +5774,86 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H131" s="8">
-        <f>420*12</f>
-        <v>5040</v>
-      </c>
       <c r="I131" s="8">
-        <f t="shared" ref="I131" si="14">H131</f>
-        <v>5040</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2022</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H132" s="8">
-        <f>420*12</f>
-        <v>5040</v>
-      </c>
       <c r="I132" s="8">
-        <f t="shared" ref="I132" si="15">H132</f>
-        <v>5040</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="204" hidden="1" x14ac:dyDescent="0.2">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>271</v>
+        <v>7</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H133" s="8">
-        <f>2*4*12*2200</f>
-        <v>211200</v>
-      </c>
-      <c r="J133" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K133" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="204" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I133" s="8">
+        <f>2100*36/3</f>
+        <v>25200</v>
+      </c>
+      <c r="K133" s="18"/>
+    </row>
+    <row r="134" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>2022</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>274</v>
+        <v>7</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H134" s="8">
-        <f>SUM(I135:I136)</f>
-        <v>50000</v>
-      </c>
-      <c r="J134" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K134" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I134" s="8">
+        <f>2100*36/3</f>
+        <v>25200</v>
+      </c>
+      <c r="K134" s="18"/>
+    </row>
+    <row r="135" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2022</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I135" s="8">
-        <v>25000</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <f>12*1100</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>2023</v>
       </c>
@@ -5834,37 +5870,22 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>2022</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H137" s="8">
-        <f>SUM(I138:I140)</f>
-        <v>185600</v>
-      </c>
-      <c r="J137" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="K137" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G137" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I137" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>2023</v>
       </c>
@@ -5878,7 +5899,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>2023</v>
       </c>
@@ -5893,7 +5914,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>2024</v>
       </c>
@@ -5908,41 +5929,22 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>2022</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G141" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H141" s="14">
-        <f>SUM(I142:I144)</f>
-        <v>39600</v>
-      </c>
-      <c r="I141" s="14"/>
-      <c r="J141" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="K141" s="22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I141" s="8">
+        <f>2400*36/3</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>2023</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>2024</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>2025</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>2023</v>
       </c>
@@ -6017,7 +6019,7 @@
         <v>733200</v>
       </c>
       <c r="I145" s="8">
-        <f t="shared" ref="I145" si="16">H145</f>
+        <f t="shared" ref="I145" si="10">H145</f>
         <v>733200</v>
       </c>
       <c r="J145" s="9" t="s">
@@ -6031,13 +6033,6 @@
       <c r="E146" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K145" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Ney Armando de Mello Meziat Filho"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K109">
     <sortCondition ref="A2:A109"/>
     <sortCondition ref="B2:B109"/>
@@ -6047,7 +6042,8 @@
     <hyperlink ref="K101" r:id="rId1" xr:uid="{0BDF45E4-69FF-4B44-90A6-A3D6FD389C69}"/>
     <hyperlink ref="K95" r:id="rId2" xr:uid="{2417EFB1-30AE-3F43-810C-4080C6CE760E}"/>
     <hyperlink ref="K145" r:id="rId3" xr:uid="{92FD8AF5-2C5D-AA4E-924F-DD3F5A942F85}"/>
-    <hyperlink ref="K116" r:id="rId4" xr:uid="{E4A37AEB-1060-BA4B-8F47-41B5A099E881}"/>
+    <hyperlink ref="K110" r:id="rId4" xr:uid="{E4A37AEB-1060-BA4B-8F47-41B5A099E881}"/>
+    <hyperlink ref="K93" r:id="rId5" xr:uid="{18D92534-4C69-F84B-8AA5-D84D8DB892B4}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.28000000000000003" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F28E815-B9F9-C548-AEFE-CD4269FA2D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17691974-1798-B441-A5D1-89984E48FDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$B$1:$L$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,15 +32,12 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="332">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1026,6 +1024,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Edital_N%C2%BA_04_2023___Bolsa_de_Inicia%C3%A7%C3%A3o_Cient%C3%ADfica_(IC).pdf</t>
+  </si>
+  <si>
+    <t>Contribuição do Teste AVD-Glittre acoplado às medidas de ventilação pulmonar na avaliação de indivíduos obesos</t>
+  </si>
+  <si>
+    <t>Desenvolvimento e validação de equações de referência da estabilidade postural na postura ortostática</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1282,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1350,27 +1357,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1795,13 +1781,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A151" sqref="A151"/>
+      <selection pane="bottomRight" activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1869,7 @@
       <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="26">
         <f>J2</f>
         <v>8500</v>
       </c>
@@ -1920,7 +1906,7 @@
       <c r="H3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="26">
         <f>J3</f>
         <v>8440</v>
       </c>
@@ -1959,7 +1945,7 @@
       <c r="H4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="26">
         <f t="shared" ref="I4:I16" si="0">J4</f>
         <v>169159.38</v>
       </c>
@@ -1998,7 +1984,7 @@
       <c r="H5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="26">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
@@ -2037,7 +2023,7 @@
       <c r="H6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="26">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
@@ -2074,7 +2060,7 @@
       <c r="H7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="26">
         <f t="shared" si="0"/>
         <v>5063</v>
       </c>
@@ -2113,7 +2099,7 @@
       <c r="H8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="26">
         <f t="shared" si="0"/>
         <v>16500</v>
       </c>
@@ -2152,7 +2138,7 @@
       <c r="H9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="26">
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
@@ -2189,7 +2175,7 @@
       <c r="H10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="26">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
@@ -2228,7 +2214,7 @@
       <c r="H11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="26">
         <f t="shared" si="0"/>
         <v>32400</v>
       </c>
@@ -2265,7 +2251,7 @@
       <c r="H12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="26">
         <f t="shared" si="0"/>
         <v>9975</v>
       </c>
@@ -2302,7 +2288,7 @@
       <c r="H13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="26">
         <f t="shared" si="0"/>
         <v>9999</v>
       </c>
@@ -2339,7 +2325,7 @@
       <c r="H14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="26">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -2376,7 +2362,7 @@
       <c r="H15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -2413,7 +2399,7 @@
       <c r="H16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="26">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -2452,7 +2438,7 @@
       <c r="H17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="26">
         <f>SUM(J18:J20)</f>
         <v>75600</v>
       </c>
@@ -2553,7 +2539,7 @@
       <c r="H21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="26">
         <f t="shared" ref="I21:I48" si="1">J21</f>
         <v>8200</v>
       </c>
@@ -2590,7 +2576,7 @@
       <c r="H22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="26">
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
@@ -2629,7 +2615,7 @@
       <c r="H23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="26">
         <f t="shared" si="1"/>
         <v>55800</v>
       </c>
@@ -2666,7 +2652,7 @@
       <c r="H24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="26">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
@@ -2705,7 +2691,7 @@
       <c r="H25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="26">
         <f t="shared" si="1"/>
         <v>11088</v>
       </c>
@@ -2744,7 +2730,7 @@
       <c r="H26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="26">
         <f t="shared" si="1"/>
         <v>19159.47</v>
       </c>
@@ -2783,7 +2769,7 @@
       <c r="H27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="26">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
@@ -2822,7 +2808,7 @@
       <c r="H28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="26">
         <f t="shared" si="1"/>
         <v>21121.64</v>
       </c>
@@ -2861,7 +2847,7 @@
       <c r="H29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="26">
         <f t="shared" si="1"/>
         <v>25500</v>
       </c>
@@ -2900,7 +2886,7 @@
       <c r="H30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="26">
         <f t="shared" si="1"/>
         <v>130000</v>
       </c>
@@ -2939,7 +2925,7 @@
       <c r="H31" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="26">
         <f t="shared" si="1"/>
         <v>49200</v>
       </c>
@@ -2977,7 +2963,7 @@
       <c r="H32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="26">
         <f t="shared" si="1"/>
         <v>110000</v>
       </c>
@@ -3014,7 +3000,7 @@
       <c r="H33" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="26">
         <f t="shared" si="1"/>
         <v>5040</v>
       </c>
@@ -3052,7 +3038,7 @@
       <c r="H34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="26">
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
@@ -3089,7 +3075,7 @@
       <c r="H35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="26">
         <f t="shared" si="1"/>
         <v>10200</v>
       </c>
@@ -3128,7 +3114,7 @@
       <c r="H36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="26">
         <f t="shared" si="1"/>
         <v>12100</v>
       </c>
@@ -3167,7 +3153,7 @@
       <c r="H37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="26">
         <f t="shared" si="1"/>
         <v>14223</v>
       </c>
@@ -3206,7 +3192,7 @@
       <c r="H38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="26">
         <f t="shared" si="1"/>
         <v>14262.94</v>
       </c>
@@ -3245,7 +3231,7 @@
       <c r="H39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="26">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
@@ -3284,7 +3270,7 @@
       <c r="H40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="26">
         <f t="shared" si="1"/>
         <v>18799</v>
       </c>
@@ -3323,7 +3309,7 @@
       <c r="H41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="26">
         <f t="shared" si="1"/>
         <v>134540.6</v>
       </c>
@@ -3362,7 +3348,7 @@
       <c r="H42" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="26">
         <f t="shared" si="1"/>
         <v>49200</v>
       </c>
@@ -3400,7 +3386,7 @@
       <c r="H43" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="26">
         <f t="shared" si="1"/>
         <v>161700</v>
       </c>
@@ -3438,7 +3424,7 @@
       <c r="H44" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="26">
         <f t="shared" si="1"/>
         <v>113823.18</v>
       </c>
@@ -3475,7 +3461,7 @@
       <c r="H45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="26">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
@@ -3512,7 +3498,7 @@
       <c r="H46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="26">
         <f t="shared" si="1"/>
         <v>10750</v>
       </c>
@@ -3551,7 +3537,7 @@
       <c r="H47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="26">
         <f t="shared" si="1"/>
         <v>14105.35</v>
       </c>
@@ -3590,7 +3576,7 @@
       <c r="H48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="26">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
@@ -3630,7 +3616,7 @@
       <c r="H49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="26">
         <f>SUM(J50:J52)</f>
         <v>75600</v>
       </c>
@@ -3726,8 +3712,8 @@
       <c r="H53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I53" s="33">
-        <f t="shared" ref="I53:I55" si="2">J53</f>
+      <c r="I53" s="26">
+        <f>J53</f>
         <v>49200</v>
       </c>
       <c r="J53" s="8">
@@ -3763,8 +3749,8 @@
       <c r="H54" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I54" s="33">
-        <f t="shared" si="2"/>
+      <c r="I54" s="26">
+        <f>J54</f>
         <v>320100</v>
       </c>
       <c r="J54" s="8">
@@ -3801,8 +3787,8 @@
       <c r="H55" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I55" s="33">
-        <f t="shared" si="2"/>
+      <c r="I55" s="26">
+        <f>J55</f>
         <v>21000</v>
       </c>
       <c r="J55" s="8">
@@ -3840,7 +3826,7 @@
       <c r="H56" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="26">
         <f>SUM(J57:J59)</f>
         <v>39600</v>
       </c>
@@ -3933,7 +3919,7 @@
       <c r="H60" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="26">
         <f>J60</f>
         <v>5040</v>
       </c>
@@ -3973,7 +3959,7 @@
       <c r="H61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="26">
         <f>J61</f>
         <v>8290.61</v>
       </c>
@@ -4010,7 +3996,7 @@
       <c r="H62" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="26">
         <f>SUM(J63:J65)</f>
         <v>75600</v>
       </c>
@@ -4103,7 +4089,7 @@
       <c r="H66" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="26">
         <f>J66</f>
         <v>460670</v>
       </c>
@@ -4142,8 +4128,8 @@
       <c r="H67" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I67" s="33">
-        <f t="shared" ref="I67:I69" si="3">J67</f>
+      <c r="I67" s="26">
+        <f>J67</f>
         <v>49200</v>
       </c>
       <c r="J67" s="8">
@@ -4179,8 +4165,8 @@
       <c r="H68" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I68" s="33">
-        <f t="shared" si="3"/>
+      <c r="I68" s="26">
+        <f>J68</f>
         <v>320100</v>
       </c>
       <c r="J68" s="8">
@@ -4217,8 +4203,8 @@
       <c r="H69" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I69" s="33">
-        <f t="shared" si="3"/>
+      <c r="I69" s="26">
+        <f>J69</f>
         <v>5040</v>
       </c>
       <c r="J69" s="8">
@@ -4257,7 +4243,7 @@
       <c r="H70" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="26">
         <f>SUM(J71:J73)</f>
         <v>75600</v>
       </c>
@@ -4350,7 +4336,7 @@
       <c r="H74" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="26">
         <f>J74</f>
         <v>49200</v>
       </c>
@@ -4387,8 +4373,8 @@
       <c r="H75" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I75" s="33">
-        <f t="shared" ref="I75:I83" si="4">J75</f>
+      <c r="I75" s="26">
+        <f t="shared" ref="I75:I83" si="2">J75</f>
         <v>318500</v>
       </c>
       <c r="J75" s="8">
@@ -4427,8 +4413,8 @@
       <c r="H76" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I76" s="33">
-        <f t="shared" si="4"/>
+      <c r="I76" s="26">
+        <f t="shared" si="2"/>
         <v>4800</v>
       </c>
       <c r="J76" s="8">
@@ -4467,8 +4453,8 @@
       <c r="H77" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I77" s="33">
-        <f t="shared" si="4"/>
+      <c r="I77" s="26">
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="J77" s="8">
@@ -4506,8 +4492,8 @@
       <c r="H78" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I78" s="33">
-        <f t="shared" si="4"/>
+      <c r="I78" s="26">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
       <c r="J78" s="8">
@@ -4546,8 +4532,8 @@
       <c r="H79" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I79" s="33">
-        <f t="shared" si="4"/>
+      <c r="I79" s="26">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
       <c r="J79" s="8">
@@ -4586,8 +4572,8 @@
       <c r="H80" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I80" s="33">
-        <f t="shared" si="4"/>
+      <c r="I80" s="26">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
       <c r="J80" s="8">
@@ -4626,8 +4612,8 @@
       <c r="H81" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I81" s="33">
-        <f t="shared" si="4"/>
+      <c r="I81" s="26">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
       <c r="J81" s="8">
@@ -4666,8 +4652,8 @@
       <c r="H82" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I82" s="33">
-        <f t="shared" si="4"/>
+      <c r="I82" s="26">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
       <c r="J82" s="8">
@@ -4706,8 +4692,8 @@
       <c r="H83" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I83" s="33">
-        <f t="shared" si="4"/>
+      <c r="I83" s="26">
+        <f t="shared" si="2"/>
         <v>45436.51</v>
       </c>
       <c r="J83" s="8">
@@ -4745,7 +4731,7 @@
       <c r="H84" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I84" s="33">
+      <c r="I84" s="26">
         <f>SUM(J85:J87)</f>
         <v>75600</v>
       </c>
@@ -4838,7 +4824,7 @@
       <c r="H88" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I88" s="33">
+      <c r="I88" s="26">
         <f>SUM(J89:J91)</f>
         <v>75600</v>
       </c>
@@ -4931,7 +4917,7 @@
       <c r="H92" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I92" s="33">
+      <c r="I92" s="26">
         <f>J92</f>
         <v>62885.47</v>
       </c>
@@ -4971,8 +4957,8 @@
       <c r="H93" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I93" s="33">
-        <f t="shared" ref="I93:I100" si="5">J93</f>
+      <c r="I93" s="26">
+        <f t="shared" ref="I93:I100" si="3">J93</f>
         <v>49200</v>
       </c>
       <c r="J93" s="8">
@@ -5009,8 +4995,8 @@
       <c r="H94" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I94" s="33">
-        <f t="shared" si="5"/>
+      <c r="I94" s="26">
+        <f t="shared" si="3"/>
         <v>314800</v>
       </c>
       <c r="J94" s="8">
@@ -5049,8 +5035,8 @@
       <c r="H95" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I95" s="33">
-        <f t="shared" si="5"/>
+      <c r="I95" s="26">
+        <f t="shared" si="3"/>
         <v>4800</v>
       </c>
       <c r="J95" s="8">
@@ -5089,8 +5075,8 @@
       <c r="H96" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I96" s="33">
-        <f t="shared" si="5"/>
+      <c r="I96" s="26">
+        <f t="shared" si="3"/>
         <v>5040</v>
       </c>
       <c r="J96" s="8">
@@ -5129,8 +5115,8 @@
       <c r="H97" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I97" s="33">
-        <f t="shared" si="5"/>
+      <c r="I97" s="26">
+        <f t="shared" si="3"/>
         <v>5040</v>
       </c>
       <c r="J97" s="8">
@@ -5169,8 +5155,8 @@
       <c r="H98" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I98" s="33">
-        <f t="shared" si="5"/>
+      <c r="I98" s="26">
+        <f t="shared" si="3"/>
         <v>8200</v>
       </c>
       <c r="J98" s="8">
@@ -5206,8 +5192,8 @@
       <c r="H99" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I99" s="33">
-        <f t="shared" si="5"/>
+      <c r="I99" s="26">
+        <f t="shared" si="3"/>
         <v>39600</v>
       </c>
       <c r="J99" s="8">
@@ -5246,8 +5232,8 @@
       <c r="H100" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I100" s="33">
-        <f t="shared" si="5"/>
+      <c r="I100" s="26">
+        <f t="shared" si="3"/>
         <v>369000</v>
       </c>
       <c r="J100" s="8">
@@ -5284,7 +5270,7 @@
       <c r="H101" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I101" s="33">
+      <c r="I101" s="26">
         <f>SUM(J102:J104)</f>
         <v>39600</v>
       </c>
@@ -5376,7 +5362,7 @@
       <c r="H105" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I105" s="33">
+      <c r="I105" s="26">
         <f>J105</f>
         <v>5040</v>
       </c>
@@ -5416,7 +5402,7 @@
       <c r="H106" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I106" s="33">
+      <c r="I106" s="26">
         <f>SUM(J107:J109)</f>
         <v>75600</v>
       </c>
@@ -5509,7 +5495,7 @@
       <c r="H110" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I110" s="33">
+      <c r="I110" s="26">
         <f>SUM(J111:J113)</f>
         <v>32400</v>
       </c>
@@ -5602,7 +5588,7 @@
       <c r="H114" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I114" s="33">
+      <c r="I114" s="26">
         <f>J114</f>
         <v>444400</v>
       </c>
@@ -5638,7 +5624,7 @@
       <c r="H115" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I115" s="33">
+      <c r="I115" s="26">
         <f>J115</f>
         <v>4800</v>
       </c>
@@ -5678,7 +5664,7 @@
       <c r="H116" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I116" s="33">
+      <c r="I116" s="26">
         <f>SUM(J117:J119)</f>
         <v>39600</v>
       </c>
@@ -5767,7 +5753,7 @@
       <c r="H120" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I120" s="33">
+      <c r="I120" s="26">
         <f>J120</f>
         <v>4800</v>
       </c>
@@ -5807,7 +5793,7 @@
       <c r="H121" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I121" s="33">
+      <c r="I121" s="26">
         <f>J121</f>
         <v>5040</v>
       </c>
@@ -5847,7 +5833,7 @@
       <c r="H122" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I122" s="33">
+      <c r="I122" s="26">
         <f>J122</f>
         <v>5040</v>
       </c>
@@ -5887,7 +5873,7 @@
       <c r="H123" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I123" s="33">
+      <c r="I123" s="26">
         <f>J123</f>
         <v>62945</v>
       </c>
@@ -5926,7 +5912,7 @@
       <c r="H124" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I124" s="33">
+      <c r="I124" s="26">
         <f>J124</f>
         <v>94922.1</v>
       </c>
@@ -5965,7 +5951,7 @@
       <c r="H125" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I125" s="33">
+      <c r="I125" s="26">
         <f>SUM(J126:J128)</f>
         <v>108000</v>
       </c>
@@ -5976,70 +5962,55 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="26">
+    <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="9">
         <v>90</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B126" s="6">
         <v>2022</v>
       </c>
-      <c r="C126" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I126" s="29"/>
+      <c r="C126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="J126" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="26">
+    <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="9">
         <v>90</v>
       </c>
-      <c r="B127" s="27">
+      <c r="B127" s="6">
         <v>2023</v>
       </c>
-      <c r="C127" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I127" s="29"/>
+      <c r="C127" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="J127" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="26">
+    <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="9">
         <v>90</v>
       </c>
-      <c r="B128" s="27">
+      <c r="B128" s="6">
         <v>2024</v>
       </c>
-      <c r="C128" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I128" s="29"/>
+      <c r="C128" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="J128" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
@@ -6070,7 +6041,7 @@
       <c r="H129" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I129" s="33">
+      <c r="I129" s="26">
         <f>SUM(J130:J132)</f>
         <v>86400</v>
       </c>
@@ -6094,7 +6065,7 @@
       <c r="H130" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J130" s="29">
+      <c r="J130" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
@@ -6112,7 +6083,7 @@
       <c r="H131" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J131" s="29">
+      <c r="J131" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
@@ -6130,7 +6101,7 @@
       <c r="H132" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J132" s="29">
+      <c r="J132" s="8">
         <f>2400*36/3</f>
         <v>28800</v>
       </c>
@@ -6160,7 +6131,7 @@
       <c r="H133" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I133" s="33">
+      <c r="I133" s="26">
         <f>SUM(J134:J135)</f>
         <v>50000</v>
       </c>
@@ -6236,7 +6207,7 @@
       <c r="H136" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I136" s="33">
+      <c r="I136" s="26">
         <f>SUM(J137:J138)</f>
         <v>211200</v>
       </c>
@@ -6308,7 +6279,7 @@
       <c r="H139" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I139" s="33">
+      <c r="I139" s="26">
         <f>252000+192400</f>
         <v>444400</v>
       </c>
@@ -6348,7 +6319,7 @@
       <c r="H140" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I140" s="34">
+      <c r="I140" s="27">
         <f>SUM(J141:J143)</f>
         <v>39600</v>
       </c>
@@ -6360,25 +6331,21 @@
         <v>295</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="26">
+    <row r="141" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="9">
         <v>95</v>
       </c>
-      <c r="B141" s="27">
+      <c r="B141" s="6">
         <v>2023</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="C141" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="I141" s="32"/>
-      <c r="J141" s="32">
+      <c r="H141" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14">
         <f>12*1100</f>
         <v>13200</v>
       </c>
@@ -6446,7 +6413,7 @@
       <c r="H144" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I144" s="33">
+      <c r="I144" s="26">
         <f>420*12</f>
         <v>5040</v>
       </c>
@@ -6486,7 +6453,7 @@
       <c r="H145" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I145" s="33">
+      <c r="I145" s="26">
         <f>420*12</f>
         <v>5040</v>
       </c>
@@ -6523,7 +6490,7 @@
       <c r="G146" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="I146" s="33">
+      <c r="I146" s="26">
         <f>SUM(J147:J149)</f>
         <v>185600</v>
       </c>
@@ -6534,70 +6501,55 @@
         <v>290</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="26">
+    <row r="147" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="9">
         <v>98</v>
       </c>
-      <c r="B147" s="27">
+      <c r="B147" s="6">
         <v>2023</v>
       </c>
-      <c r="C147" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I147" s="29"/>
-      <c r="J147" s="29">
+      <c r="C147" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J147" s="8">
         <v>50000</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="26">
+    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="9">
         <v>98</v>
       </c>
-      <c r="B148" s="27">
+      <c r="B148" s="6">
         <v>2023</v>
       </c>
-      <c r="C148" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I148" s="29"/>
-      <c r="J148" s="29">
+      <c r="C148" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J148" s="8">
         <f>5125*12+525*12</f>
         <v>67800</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="26">
+    <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="9">
         <v>98</v>
       </c>
-      <c r="B149" s="27">
+      <c r="B149" s="6">
         <v>2024</v>
       </c>
-      <c r="C149" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I149" s="29"/>
-      <c r="J149" s="29">
+      <c r="C149" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J149" s="8">
         <f>5125*12+525*12</f>
         <v>67800</v>
       </c>
@@ -6627,7 +6579,7 @@
       <c r="H150" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I150" s="33">
+      <c r="I150" s="26">
         <f>(8*3100+16*800+7*2100+11*800)*12</f>
         <v>733200</v>
       </c>
@@ -6667,7 +6619,7 @@
       <c r="H151" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I151" s="33">
+      <c r="I151" s="26">
         <f>420*12</f>
         <v>5040</v>
       </c>
@@ -6679,6 +6631,82 @@
         <v>266</v>
       </c>
       <c r="L151" s="10"/>
+    </row>
+    <row r="152" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A152" s="9">
+        <v>101</v>
+      </c>
+      <c r="B152" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E152" s="22"/>
+      <c r="F152" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I152" s="26">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
+      <c r="J152" s="8">
+        <f>I152</f>
+        <v>5040</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="L152" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="9">
+        <v>102</v>
+      </c>
+      <c r="B153" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E153" s="22"/>
+      <c r="F153" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I153" s="26">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
+      <c r="J153" s="8">
+        <f>I153</f>
+        <v>5040</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L153" s="21" t="s">
+        <v>329</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">
@@ -6692,6 +6720,8 @@
     <hyperlink ref="L150" r:id="rId3" xr:uid="{92FD8AF5-2C5D-AA4E-924F-DD3F5A942F85}"/>
     <hyperlink ref="L120" r:id="rId4" xr:uid="{E4A37AEB-1060-BA4B-8F47-41B5A099E881}"/>
     <hyperlink ref="L96" r:id="rId5" xr:uid="{18D92534-4C69-F84B-8AA5-D84D8DB892B4}"/>
+    <hyperlink ref="L152" r:id="rId6" xr:uid="{897DEE17-D3A3-E645-87FF-307A7D546A72}"/>
+    <hyperlink ref="L153" r:id="rId7" xr:uid="{300B7B25-2F9E-DE4B-B3FA-92183A3D763E}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.28000000000000003" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17691974-1798-B441-A5D1-89984E48FDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A5B8F6-CBA6-A440-B200-1D4E4114138A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$B$1:$L$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1784,10 +1783,10 @@
   <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A154" sqref="A154"/>
+      <selection pane="bottomRight" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6209,7 +6208,7 @@
       </c>
       <c r="I136" s="26">
         <f>SUM(J137:J138)</f>
-        <v>211200</v>
+        <v>158400</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>232</v>
@@ -6232,8 +6231,8 @@
         <v>107</v>
       </c>
       <c r="J137" s="8">
-        <f>4*12*2200</f>
-        <v>105600</v>
+        <f>3*12*2200</f>
+        <v>79200</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -6250,8 +6249,8 @@
         <v>107</v>
       </c>
       <c r="J138" s="8">
-        <f>4*12*2200</f>
-        <v>105600</v>
+        <f>3*12*2200</f>
+        <v>79200</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="34" x14ac:dyDescent="0.2">

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A5B8F6-CBA6-A440-B200-1D4E4114138A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2837432F-F0D9-AF41-8ABD-7DE661372889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,13 +1025,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>https://www.faperj.br/rp/downloads/Resultado_Edital_N%C2%BA_04_2023___Bolsa_de_Inicia%C3%A7%C3%A3o_Cient%C3%ADfica_(IC).pdf</t>
-  </si>
-  <si>
     <t>Contribuição do Teste AVD-Glittre acoplado às medidas de ventilação pulmonar na avaliação de indivíduos obesos</t>
   </si>
   <si>
     <t>Desenvolvimento e validação de equações de referência da estabilidade postural na postura ortostática</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Final_Edital_Nº_04_2023___Bolsa_de_Iniciação_Científica_(IC).pdf</t>
   </si>
 </sst>
 </file>
@@ -1783,10 +1783,10 @@
   <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B124" sqref="B124"/>
+      <selection pane="bottomRight" activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="E152" s="22"/>
       <c r="F152" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>11</v>
@@ -6666,7 +6666,7 @@
         <v>259</v>
       </c>
       <c r="L152" s="21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="E153" s="22"/>
       <c r="F153" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>11</v>
@@ -6704,7 +6704,7 @@
         <v>252</v>
       </c>
       <c r="L153" s="21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6719,8 +6719,8 @@
     <hyperlink ref="L150" r:id="rId3" xr:uid="{92FD8AF5-2C5D-AA4E-924F-DD3F5A942F85}"/>
     <hyperlink ref="L120" r:id="rId4" xr:uid="{E4A37AEB-1060-BA4B-8F47-41B5A099E881}"/>
     <hyperlink ref="L96" r:id="rId5" xr:uid="{18D92534-4C69-F84B-8AA5-D84D8DB892B4}"/>
-    <hyperlink ref="L152" r:id="rId6" xr:uid="{897DEE17-D3A3-E645-87FF-307A7D546A72}"/>
-    <hyperlink ref="L153" r:id="rId7" xr:uid="{300B7B25-2F9E-DE4B-B3FA-92183A3D763E}"/>
+    <hyperlink ref="L152" r:id="rId6" display="https://www.faperj.br/rp/downloads/Resultado_Edital_N%C2%BA_04_2023___Bolsa_de_Inicia%C3%A7%C3%A3o_Cient%C3%ADfica_(IC).pdf" xr:uid="{897DEE17-D3A3-E645-87FF-307A7D546A72}"/>
+    <hyperlink ref="L153" r:id="rId7" display="https://www.faperj.br/rp/downloads/Resultado_Edital_N%C2%BA_04_2023___Bolsa_de_Inicia%C3%A7%C3%A3o_Cient%C3%ADfica_(IC).pdf" xr:uid="{5280BE34-6F0D-214C-A150-084F6733542F}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.28000000000000003" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2837432F-F0D9-AF41-8ABD-7DE661372889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4CA77F-C743-5246-9C1A-D8044C67C68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$B$1:$L$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$L$153</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="338">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1032,6 +1032,24 @@
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_Final_Edital_Nº_04_2023___Bolsa_de_Iniciação_Científica_(IC).pdf</t>
+  </si>
+  <si>
+    <t>408494/2023-9</t>
+  </si>
+  <si>
+    <t>Desenvolvimento e validação de métodos computacionais e M-Health na predição de quedas para reabilitação de idosos com comprometimento neuromusculoesquelético</t>
+  </si>
+  <si>
+    <t>Custeio</t>
+  </si>
+  <si>
+    <t>http://resultado.cnpq.br/4076356954450370</t>
+  </si>
+  <si>
+    <t>401633/2023-3</t>
+  </si>
+  <si>
+    <t>Reabilitando pessoas com doença pulmonar pós-tuberculose: Um ensaio randomizado controlado</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1362,6 +1380,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1780,13 +1801,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A153" sqref="A153"/>
+      <selection pane="bottomRight" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6707,6 +6728,148 @@
         <v>331</v>
       </c>
     </row>
+    <row r="154" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A154" s="9">
+        <v>103</v>
+      </c>
+      <c r="B154" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I154" s="26">
+        <f>SUM(J155:J156)</f>
+        <v>87090</v>
+      </c>
+      <c r="K154" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="9">
+        <v>103</v>
+      </c>
+      <c r="B155" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J155" s="8">
+        <v>72090</v>
+      </c>
+      <c r="K155" s="9"/>
+    </row>
+    <row r="156" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" s="9">
+        <v>103</v>
+      </c>
+      <c r="B156" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="J156" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K156" s="9"/>
+    </row>
+    <row r="157" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" s="9">
+        <v>104</v>
+      </c>
+      <c r="B157" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I157" s="26">
+        <f>SUM(J158:J159)</f>
+        <v>48000</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="L157" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="9">
+        <v>104</v>
+      </c>
+      <c r="B158" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J158" s="28">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" s="9">
+        <v>104</v>
+      </c>
+      <c r="B159" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="J159" s="28">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">
     <sortCondition ref="B2:B151"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4CA77F-C743-5246-9C1A-D8044C67C68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A00BB-46AB-F24E-81DC-A57340FD3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$L$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$L$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="340">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1050,6 +1050,12 @@
   </si>
   <si>
     <t>Reabilitando pessoas com doença pulmonar pós-tuberculose: Um ensaio randomizado controlado</t>
+  </si>
+  <si>
+    <t>E-26/200.834/2024</t>
+  </si>
+  <si>
+    <t>E-26/200.830/2024</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1388,7 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1804,7 +1810,7 @@
   <dimension ref="A1:L159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A159" sqref="A159"/>
@@ -6665,7 +6671,9 @@
       <c r="D152" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E152" s="22"/>
+      <c r="E152" s="28" t="s">
+        <v>338</v>
+      </c>
       <c r="F152" s="7" t="s">
         <v>329</v>
       </c>
@@ -6703,7 +6711,9 @@
       <c r="D153" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E153" s="22"/>
+      <c r="E153" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="F153" s="7" t="s">
         <v>330</v>
       </c>
@@ -6849,7 +6859,7 @@
       <c r="H158" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J158" s="28">
+      <c r="J158" s="8">
         <v>27000</v>
       </c>
     </row>
@@ -6866,7 +6876,7 @@
       <c r="H159" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="J159" s="28">
+      <c r="J159" s="8">
         <v>21000</v>
       </c>
     </row>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A00BB-46AB-F24E-81DC-A57340FD3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820B8D4C-CDE3-5745-9A65-82AA6482A218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="338">
   <si>
     <t>CAPEX</t>
   </si>
@@ -734,9 +734,6 @@
     <t>http://memoria2.cnpq.br/web/guest/chamadas-publicas?p_p_id=resultadosportlet_WAR_resultadoscnpqportlet_INSTANCE_0ZaM&amp;filtro=abertas&amp;detalha=chamadaDivulgada&amp;idDivulgacao=10162</t>
   </si>
   <si>
-    <t>PPGCR</t>
-  </si>
-  <si>
     <t>2021-2</t>
   </si>
   <si>
@@ -867,9 +864,6 @@
   </si>
   <si>
     <t>Edital Nº 14/2022</t>
-  </si>
-  <si>
-    <t>Parceria</t>
   </si>
   <si>
     <t>Edital Nº 12</t>
@@ -1305,7 +1299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1386,9 +1380,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1810,10 +1801,10 @@
   <dimension ref="A1:L159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A159" sqref="A159"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1834,7 +1825,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1903,7 +1894,7 @@
         <v>8500</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L2" s="10"/>
     </row>
@@ -1940,7 +1931,7 @@
         <v>8440</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>28</v>
@@ -1957,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>29</v>
@@ -1979,7 +1970,7 @@
         <v>169159.38</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>32</v>
@@ -2018,7 +2009,7 @@
         <v>7000</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>215</v>
@@ -2041,10 +2032,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>107</v>
@@ -2056,9 +2047,7 @@
       <c r="J6" s="8">
         <v>4800</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K6" s="9"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -2094,7 +2083,7 @@
         <v>5063</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>36</v>
@@ -2133,7 +2122,7 @@
         <v>16500</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>36</v>
@@ -2156,10 +2145,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>107</v>
@@ -2171,9 +2160,7 @@
       <c r="J9" s="8">
         <v>54000</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K9" s="9"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -2209,7 +2196,7 @@
         <v>18000</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>41</v>
@@ -2232,10 +2219,10 @@
         <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>107</v>
@@ -2247,9 +2234,7 @@
       <c r="J11" s="8">
         <v>32400</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K11" s="9"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -2285,7 +2270,7 @@
         <v>9975</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L12" s="10"/>
     </row>
@@ -2322,7 +2307,7 @@
         <v>9999</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L13" s="10"/>
     </row>
@@ -2359,7 +2344,7 @@
         <v>10000</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L14" s="10"/>
     </row>
@@ -2396,7 +2381,7 @@
         <v>10000</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L15" s="10"/>
     </row>
@@ -2433,7 +2418,7 @@
         <v>20000</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>56</v>
@@ -2450,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>57</v>
@@ -2469,7 +2454,7 @@
         <v>75600</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>59</v>
@@ -2557,7 +2542,7 @@
         <v>203</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>200</v>
@@ -2573,7 +2558,7 @@
         <v>8200</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L21" s="17"/>
     </row>
@@ -2588,13 +2573,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>6</v>
@@ -2610,7 +2595,7 @@
         <v>14000</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>217</v>
@@ -2633,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>107</v>
@@ -2648,9 +2633,7 @@
       <c r="J23" s="8">
         <v>55800</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K23" s="9"/>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -2686,7 +2669,7 @@
         <v>6000</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>63</v>
@@ -2725,7 +2708,7 @@
         <v>11088</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>67</v>
@@ -2764,7 +2747,7 @@
         <v>19159.47</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>67</v>
@@ -2803,7 +2786,7 @@
         <v>20000</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>67</v>
@@ -2842,7 +2825,7 @@
         <v>21121.64</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>67</v>
@@ -2881,7 +2864,7 @@
         <v>25500</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>67</v>
@@ -2920,7 +2903,7 @@
         <v>130000</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>80</v>
@@ -2943,7 +2926,7 @@
         <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>200</v>
@@ -2960,7 +2943,7 @@
         <v>49200</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -2981,10 +2964,10 @@
         <v>202</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>107</v>
@@ -2996,9 +2979,7 @@
       <c r="J32" s="8">
         <v>110000</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K32" s="9"/>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -3035,7 +3016,7 @@
         <v>5040</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L33" s="10"/>
     </row>
@@ -3072,7 +3053,7 @@
         <v>9000</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L34" s="10"/>
     </row>
@@ -3109,7 +3090,7 @@
         <v>10200</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>92</v>
@@ -3148,7 +3129,7 @@
         <v>12100</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>92</v>
@@ -3187,7 +3168,7 @@
         <v>14223</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>88</v>
@@ -3226,7 +3207,7 @@
         <v>14262.94</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>92</v>
@@ -3265,7 +3246,7 @@
         <v>15000</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>92</v>
@@ -3304,7 +3285,7 @@
         <v>18799</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>92</v>
@@ -3343,7 +3324,7 @@
         <v>134540.6</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>104</v>
@@ -3366,7 +3347,7 @@
         <v>203</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>200</v>
@@ -3383,7 +3364,7 @@
         <v>49200</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L42" s="17"/>
     </row>
@@ -3404,10 +3385,10 @@
         <v>202</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>107</v>
@@ -3420,9 +3401,7 @@
         <f>29600+132100</f>
         <v>161700</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K43" s="9"/>
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -3458,7 +3437,7 @@
         <v>113823.18</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L44" s="18"/>
     </row>
@@ -3495,7 +3474,7 @@
         <v>8000</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L45" s="15"/>
     </row>
@@ -3532,7 +3511,7 @@
         <v>10750</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>111</v>
@@ -3571,7 +3550,7 @@
         <v>14105.35</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>117</v>
@@ -3588,7 +3567,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>118</v>
@@ -3611,7 +3590,7 @@
         <v>36000</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>121</v>
@@ -3628,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>122</v>
@@ -3647,7 +3626,7 @@
         <v>75600</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>59</v>
@@ -3730,7 +3709,7 @@
         <v>203</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>200</v>
@@ -3746,7 +3725,7 @@
         <v>49200</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L53" s="17"/>
     </row>
@@ -3767,10 +3746,10 @@
         <v>202</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>107</v>
@@ -3783,9 +3762,7 @@
         <f>182400+137700</f>
         <v>320100</v>
       </c>
-      <c r="K54" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K54" s="9"/>
       <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -3821,7 +3798,7 @@
         <v>21000</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>221</v>
@@ -3857,7 +3834,7 @@
         <v>39600</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>134</v>
@@ -3954,7 +3931,7 @@
         <v>5040</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>137</v>
@@ -3993,7 +3970,7 @@
         <v>8290.61</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L61" s="10"/>
     </row>
@@ -4008,7 +3985,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>140</v>
@@ -4027,7 +4004,7 @@
         <v>75600</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>142</v>
@@ -4123,7 +4100,7 @@
         <v>460670</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>146</v>
@@ -4146,7 +4123,7 @@
         <v>203</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>200</v>
@@ -4162,7 +4139,7 @@
         <v>49200</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L67" s="17"/>
     </row>
@@ -4183,10 +4160,10 @@
         <v>202</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>107</v>
@@ -4199,9 +4176,7 @@
         <f>182400+137700</f>
         <v>320100</v>
       </c>
-      <c r="K68" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K68" s="9"/>
       <c r="L68" s="17"/>
     </row>
     <row r="69" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -4238,7 +4213,7 @@
         <v>5040</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>150</v>
@@ -4255,7 +4230,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>151</v>
@@ -4274,7 +4249,7 @@
         <v>75600</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>153</v>
@@ -4354,7 +4329,7 @@
         <v>203</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>200</v>
@@ -4370,7 +4345,7 @@
         <v>49200</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L74" s="17"/>
     </row>
@@ -4388,13 +4363,13 @@
         <v>204</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>107</v>
@@ -4407,11 +4382,9 @@
         <f>182400+136100</f>
         <v>318500</v>
       </c>
-      <c r="K75" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K75" s="9"/>
       <c r="L75" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -4425,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>183</v>
@@ -4448,7 +4421,7 @@
         <v>4800</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>218</v>
@@ -4465,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>173</v>
@@ -4487,7 +4460,7 @@
         <v>60000</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>175</v>
@@ -4527,7 +4500,7 @@
         <v>5040</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>157</v>
@@ -4567,7 +4540,7 @@
         <v>5040</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>157</v>
@@ -4607,7 +4580,7 @@
         <v>5040</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>157</v>
@@ -4647,7 +4620,7 @@
         <v>5040</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>165</v>
@@ -4687,7 +4660,7 @@
         <v>5040</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>165</v>
@@ -4704,7 +4677,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>180</v>
@@ -4726,7 +4699,7 @@
         <v>45436.51</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>179</v>
@@ -4743,7 +4716,7 @@
         <v>7</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>171</v>
@@ -4762,7 +4735,7 @@
         <v>75600</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>170</v>
@@ -4836,7 +4809,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>168</v>
@@ -4855,7 +4828,7 @@
         <v>75600</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>170</v>
@@ -4929,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>176</v>
@@ -4952,7 +4925,7 @@
         <v>62885.47</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>179</v>
@@ -4975,7 +4948,7 @@
         <v>201</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>200</v>
@@ -4992,7 +4965,7 @@
         <v>49200</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L93" s="17"/>
     </row>
@@ -5010,13 +4983,13 @@
         <v>204</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>107</v>
@@ -5029,11 +5002,9 @@
         <f>91200+91200+63600+68800</f>
         <v>314800</v>
       </c>
-      <c r="K94" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K94" s="9"/>
       <c r="L94" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -5047,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>183</v>
@@ -5070,7 +5041,7 @@
         <v>4800</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>218</v>
@@ -5110,7 +5081,7 @@
         <v>5040</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L96" s="23" t="s">
         <v>187</v>
@@ -5150,7 +5121,7 @@
         <v>5040</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>191</v>
@@ -5173,7 +5144,7 @@
         <v>201</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>200</v>
@@ -5190,7 +5161,7 @@
         <v>8200</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -5207,13 +5178,13 @@
         <v>101</v>
       </c>
       <c r="E99" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>107</v>
@@ -5227,10 +5198,10 @@
         <v>39600</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -5247,13 +5218,13 @@
         <v>204</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>107</v>
@@ -5266,9 +5237,7 @@
         <f>210800+158200</f>
         <v>369000</v>
       </c>
-      <c r="K100" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K100" s="9"/>
       <c r="L100" s="19"/>
     </row>
     <row r="101" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -5301,7 +5270,7 @@
         <v>39600</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>194</v>
@@ -5397,7 +5366,7 @@
         <v>5040</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>197</v>
@@ -5433,7 +5402,7 @@
         <v>75600</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>206</v>
@@ -5504,19 +5473,19 @@
         <v>2020</v>
       </c>
       <c r="C110" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="F110" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>107</v>
@@ -5526,10 +5495,10 @@
         <v>32400</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -5540,7 +5509,7 @@
         <v>2020</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>107</v>
@@ -5559,7 +5528,7 @@
         <v>2021</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>107</v>
@@ -5578,7 +5547,7 @@
         <v>2022</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>107</v>
@@ -5603,13 +5572,13 @@
         <v>204</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>107</v>
@@ -5622,9 +5591,7 @@
         <f>252000+192400</f>
         <v>444400</v>
       </c>
-      <c r="K114" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K114" s="9"/>
       <c r="L114" s="19"/>
     </row>
     <row r="115" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -5638,14 +5605,14 @@
         <v>2</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E115" s="22"/>
       <c r="F115" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>107</v>
@@ -5659,10 +5626,10 @@
         <v>4800</v>
       </c>
       <c r="K115" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="L115" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="L115" s="21" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -5676,10 +5643,10 @@
         <v>2</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>230</v>
@@ -5695,7 +5662,7 @@
         <v>39600</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>231</v>
@@ -5764,17 +5731,17 @@
         <v>2021</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E120" s="22"/>
       <c r="F120" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>107</v>
@@ -5788,10 +5755,10 @@
         <v>4800</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -5828,7 +5795,7 @@
         <v>5040</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>211</v>
@@ -5868,7 +5835,7 @@
         <v>5040</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>211</v>
@@ -5885,10 +5852,10 @@
         <v>7</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>228</v>
@@ -5907,7 +5874,7 @@
         <v>62945</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>229</v>
@@ -5924,7 +5891,7 @@
         <v>7</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>227</v>
@@ -5946,7 +5913,7 @@
         <v>94922.1</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L124" s="5" t="s">
         <v>222</v>
@@ -5963,16 +5930,16 @@
         <v>7</v>
       </c>
       <c r="D125" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E125" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>0</v>
@@ -5982,10 +5949,10 @@
         <v>108000</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -6053,13 +6020,13 @@
         <v>7</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>10</v>
@@ -6072,10 +6039,10 @@
         <v>86400</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -6143,16 +6110,16 @@
         <v>5</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>0</v>
@@ -6161,11 +6128,8 @@
         <f>SUM(J134:J135)</f>
         <v>50000</v>
       </c>
-      <c r="K133" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="L133" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -6184,9 +6148,6 @@
       <c r="J134" s="8">
         <v>25000</v>
       </c>
-      <c r="K134" s="5" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="135" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
@@ -6204,9 +6165,6 @@
       <c r="J135" s="8">
         <v>25000</v>
       </c>
-      <c r="K135" s="5" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="136" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
@@ -6219,16 +6177,16 @@
         <v>5</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>107</v>
@@ -6237,11 +6195,8 @@
         <f>SUM(J137:J138)</f>
         <v>158400</v>
       </c>
-      <c r="K136" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="L136" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -6294,13 +6249,13 @@
         <v>204</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>107</v>
@@ -6313,11 +6268,9 @@
         <f>I139</f>
         <v>444400</v>
       </c>
-      <c r="K139" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K139" s="9"/>
       <c r="L139" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -6331,13 +6284,13 @@
         <v>2</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E140" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>4</v>
@@ -6351,10 +6304,10 @@
       </c>
       <c r="J140" s="14"/>
       <c r="K140" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L140" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -6425,13 +6378,13 @@
         <v>7</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>11</v>
@@ -6448,10 +6401,10 @@
         <v>5040</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -6465,10 +6418,10 @@
         <v>7</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>207</v>
@@ -6488,10 +6441,10 @@
         <v>5040</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -6505,26 +6458,23 @@
         <v>7</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I146" s="26">
         <f>SUM(J147:J149)</f>
         <v>185600</v>
       </c>
-      <c r="K146" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="L146" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -6594,13 +6544,13 @@
         <v>204</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>107</v>
@@ -6613,11 +6563,9 @@
         <f>I150</f>
         <v>733200</v>
       </c>
-      <c r="K150" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="K150" s="9"/>
       <c r="L150" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="68" x14ac:dyDescent="0.2">
@@ -6631,16 +6579,16 @@
         <v>7</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>107</v>
@@ -6654,7 +6602,7 @@
         <v>5040</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L151" s="10"/>
     </row>
@@ -6669,13 +6617,13 @@
         <v>7</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E152" s="28" t="s">
-        <v>338</v>
+        <v>278</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>11</v>
@@ -6692,10 +6640,10 @@
         <v>5040</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L152" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -6709,13 +6657,13 @@
         <v>7</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>11</v>
@@ -6732,10 +6680,10 @@
         <v>5040</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L153" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -6749,13 +6697,13 @@
         <v>2</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>3</v>
@@ -6768,10 +6716,10 @@
         <v>87090</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -6803,7 +6751,7 @@
         <v>2</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J156" s="8">
         <v>15000</v>
@@ -6821,13 +6769,13 @@
         <v>2</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>3</v>
@@ -6840,10 +6788,10 @@
         <v>48000</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -6874,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J159" s="8">
         <v>21000</v>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820B8D4C-CDE3-5745-9A65-82AA6482A218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF40F68-C9F7-7046-A808-11F216160154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="339">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1050,6 +1050,9 @@
   </si>
   <si>
     <t>E-26/200.830/2024</t>
+  </si>
+  <si>
+    <t>23038.001768/2024-54</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1380,6 +1383,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1798,13 +1804,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L159"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6828,6 +6834,42 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="160" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" s="9">
+        <v>105</v>
+      </c>
+      <c r="B160" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I160" s="26">
+        <f>(8*3100+16*800+7*2100+11*800)*12</f>
+        <v>733200</v>
+      </c>
+      <c r="J160" s="8">
+        <f>I160</f>
+        <v>733200</v>
+      </c>
+      <c r="K160" s="9"/>
+      <c r="L160" s="28"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">
     <sortCondition ref="B2:B151"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF40F68-C9F7-7046-A808-11F216160154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1FDC9-665F-1145-A496-18C9484A79F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="341">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1053,6 +1053,12 @@
   </si>
   <si>
     <t>23038.001768/2024-54</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1386,6 +1392,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1804,10 +1813,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L160"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A160" sqref="A160"/>
@@ -1826,10 +1835,11 @@
     <col min="9" max="10" width="14.6640625" style="8" customWidth="1"/>
     <col min="11" max="11" width="49.1640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="62.1640625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="5"/>
+    <col min="13" max="13" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>326</v>
       </c>
@@ -1866,8 +1876,11 @@
       <c r="L1" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M1" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1903,8 +1916,11 @@
         <v>250</v>
       </c>
       <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M2" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1942,8 +1958,11 @@
       <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M3" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1981,8 +2000,11 @@
       <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M4" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2020,8 +2042,11 @@
       <c r="L5" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M5" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2055,8 +2080,9 @@
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2094,8 +2120,11 @@
       <c r="L7" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M7" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2133,8 +2162,11 @@
       <c r="L8" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M8" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2168,8 +2200,9 @@
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2207,8 +2240,11 @@
       <c r="L10" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M10" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2242,8 +2278,9 @@
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2279,8 +2316,11 @@
         <v>254</v>
       </c>
       <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M12" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2316,8 +2356,11 @@
         <v>255</v>
       </c>
       <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M13" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2353,8 +2396,11 @@
         <v>256</v>
       </c>
       <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M14" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -2390,8 +2436,11 @@
         <v>250</v>
       </c>
       <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M15" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -2429,8 +2478,11 @@
       <c r="L16" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M16" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -2465,8 +2517,11 @@
       <c r="L17" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M17" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -2485,8 +2540,9 @@
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -2505,8 +2561,9 @@
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>15</v>
       </c>
@@ -2530,8 +2587,9 @@
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>16</v>
       </c>
@@ -2567,8 +2625,11 @@
         <v>257</v>
       </c>
       <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M21" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>17</v>
       </c>
@@ -2606,8 +2667,11 @@
       <c r="L22" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M22" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>18</v>
       </c>
@@ -2641,8 +2705,11 @@
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M23" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>19</v>
       </c>
@@ -2680,8 +2747,11 @@
       <c r="L24" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M24" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>20</v>
       </c>
@@ -2719,8 +2789,11 @@
       <c r="L25" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M25" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>21</v>
       </c>
@@ -2758,8 +2831,11 @@
       <c r="L26" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M26" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>22</v>
       </c>
@@ -2797,8 +2873,11 @@
       <c r="L27" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M27" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>23</v>
       </c>
@@ -2836,8 +2915,11 @@
       <c r="L28" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M28" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>24</v>
       </c>
@@ -2875,8 +2957,11 @@
       <c r="L29" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M29" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>25</v>
       </c>
@@ -2914,8 +2999,11 @@
       <c r="L30" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M30" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>26</v>
       </c>
@@ -2952,8 +3040,11 @@
         <v>257</v>
       </c>
       <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M31" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>27</v>
       </c>
@@ -2987,8 +3078,11 @@
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M32" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>28</v>
       </c>
@@ -3025,8 +3119,11 @@
         <v>251</v>
       </c>
       <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M33" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>29</v>
       </c>
@@ -3062,8 +3159,11 @@
         <v>254</v>
       </c>
       <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M34" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>30</v>
       </c>
@@ -3101,8 +3201,11 @@
       <c r="L35" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M35" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>31</v>
       </c>
@@ -3140,8 +3243,11 @@
       <c r="L36" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M36" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>32</v>
       </c>
@@ -3179,8 +3285,11 @@
       <c r="L37" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M37" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>33</v>
       </c>
@@ -3218,8 +3327,11 @@
       <c r="L38" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M38" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>34</v>
       </c>
@@ -3257,8 +3369,11 @@
       <c r="L39" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M39" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>35</v>
       </c>
@@ -3296,8 +3411,11 @@
       <c r="L40" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M40" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>36</v>
       </c>
@@ -3335,8 +3453,11 @@
       <c r="L41" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M41" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>37</v>
       </c>
@@ -3373,8 +3494,11 @@
         <v>264</v>
       </c>
       <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M42" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>38</v>
       </c>
@@ -3409,8 +3533,11 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M43" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>39</v>
       </c>
@@ -3446,8 +3573,11 @@
         <v>265</v>
       </c>
       <c r="L44" s="18"/>
-    </row>
-    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M44" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>40</v>
       </c>
@@ -3483,8 +3613,11 @@
         <v>254</v>
       </c>
       <c r="L45" s="15"/>
-    </row>
-    <row r="46" spans="1:12" s="24" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="M45" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="24" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>41</v>
       </c>
@@ -3522,8 +3655,11 @@
       <c r="L46" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="M46" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>42</v>
       </c>
@@ -3561,8 +3697,11 @@
       <c r="L47" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M47" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>43</v>
       </c>
@@ -3601,8 +3740,11 @@
       <c r="L48" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M48" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>44</v>
       </c>
@@ -3637,8 +3779,11 @@
       <c r="L49" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M49" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>44</v>
       </c>
@@ -3657,8 +3802,9 @@
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>44</v>
       </c>
@@ -3677,8 +3823,9 @@
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="17"/>
-    </row>
-    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44</v>
       </c>
@@ -3697,8 +3844,9 @@
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>45</v>
       </c>
@@ -3734,8 +3882,11 @@
         <v>264</v>
       </c>
       <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M53" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>46</v>
       </c>
@@ -3770,8 +3921,11 @@
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M54" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>47</v>
       </c>
@@ -3809,8 +3963,11 @@
       <c r="L55" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M55" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>48</v>
       </c>
@@ -3845,8 +4002,11 @@
       <c r="L56" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M56" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>48</v>
       </c>
@@ -3865,7 +4025,7 @@
       </c>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>48</v>
       </c>
@@ -3884,7 +4044,7 @@
       </c>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>48</v>
       </c>
@@ -3903,7 +4063,7 @@
       </c>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>49</v>
       </c>
@@ -3942,8 +4102,11 @@
       <c r="L60" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M60" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>50</v>
       </c>
@@ -3979,8 +4142,11 @@
         <v>254</v>
       </c>
       <c r="L61" s="10"/>
-    </row>
-    <row r="62" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M61" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>51</v>
       </c>
@@ -4015,8 +4181,11 @@
       <c r="L62" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M62" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>51</v>
       </c>
@@ -4034,8 +4203,9 @@
         <v>25200</v>
       </c>
       <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M63" s="17"/>
+    </row>
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>51</v>
       </c>
@@ -4053,8 +4223,9 @@
         <v>25200</v>
       </c>
       <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M64" s="17"/>
+    </row>
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>51</v>
       </c>
@@ -4072,8 +4243,9 @@
         <v>25200</v>
       </c>
       <c r="L65" s="17"/>
-    </row>
-    <row r="66" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M65" s="17"/>
+    </row>
+    <row r="66" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>52</v>
       </c>
@@ -4111,8 +4283,11 @@
       <c r="L66" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M66" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>53</v>
       </c>
@@ -4148,8 +4323,9 @@
         <v>268</v>
       </c>
       <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M67" s="17"/>
+    </row>
+    <row r="68" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>54</v>
       </c>
@@ -4184,8 +4360,9 @@
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="17"/>
-    </row>
-    <row r="69" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M68" s="17"/>
+    </row>
+    <row r="69" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>55</v>
       </c>
@@ -4224,8 +4401,11 @@
       <c r="L69" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M69" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>56</v>
       </c>
@@ -4260,8 +4440,11 @@
       <c r="L70" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M70" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>56</v>
       </c>
@@ -4279,8 +4462,9 @@
         <v>25200</v>
       </c>
       <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M71" s="17"/>
+    </row>
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>56</v>
       </c>
@@ -4298,8 +4482,9 @@
         <v>25200</v>
       </c>
       <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M72" s="17"/>
+    </row>
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>56</v>
       </c>
@@ -4317,8 +4502,9 @@
         <v>25200</v>
       </c>
       <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M73" s="17"/>
+    </row>
+    <row r="74" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>57</v>
       </c>
@@ -4354,8 +4540,11 @@
         <v>268</v>
       </c>
       <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M74" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>58</v>
       </c>
@@ -4392,8 +4581,11 @@
       <c r="L75" s="5" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M75" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>59</v>
       </c>
@@ -4432,8 +4624,11 @@
       <c r="L76" s="5" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M76" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>60</v>
       </c>
@@ -4471,8 +4666,11 @@
       <c r="L77" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M77" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>61</v>
       </c>
@@ -4511,8 +4709,11 @@
       <c r="L78" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M78" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>62</v>
       </c>
@@ -4551,8 +4752,11 @@
       <c r="L79" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M79" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>63</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="L80" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M80" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>64</v>
       </c>
@@ -4631,8 +4838,11 @@
       <c r="L81" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M81" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>65</v>
       </c>
@@ -4671,8 +4881,11 @@
       <c r="L82" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M82" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>66</v>
       </c>
@@ -4710,8 +4923,11 @@
       <c r="L83" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M83" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>67</v>
       </c>
@@ -4746,8 +4962,11 @@
       <c r="L84" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M84" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>67</v>
       </c>
@@ -4765,8 +4984,9 @@
         <v>25200</v>
       </c>
       <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M85" s="17"/>
+    </row>
+    <row r="86" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>67</v>
       </c>
@@ -4784,8 +5004,9 @@
         <v>25200</v>
       </c>
       <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M86" s="17"/>
+    </row>
+    <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>67</v>
       </c>
@@ -4803,8 +5024,9 @@
         <v>25200</v>
       </c>
       <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M87" s="17"/>
+    </row>
+    <row r="88" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>68</v>
       </c>
@@ -4839,8 +5061,11 @@
       <c r="L88" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M88" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>68</v>
       </c>
@@ -4858,8 +5083,9 @@
         <v>25200</v>
       </c>
       <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M89" s="17"/>
+    </row>
+    <row r="90" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>68</v>
       </c>
@@ -4877,8 +5103,9 @@
         <v>25200</v>
       </c>
       <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M90" s="17"/>
+    </row>
+    <row r="91" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>68</v>
       </c>
@@ -4896,8 +5123,9 @@
         <v>25200</v>
       </c>
       <c r="L91" s="17"/>
-    </row>
-    <row r="92" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M91" s="17"/>
+    </row>
+    <row r="92" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>69</v>
       </c>
@@ -4936,8 +5164,11 @@
       <c r="L92" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M92" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>70</v>
       </c>
@@ -4974,8 +5205,11 @@
         <v>268</v>
       </c>
       <c r="L93" s="17"/>
-    </row>
-    <row r="94" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M93" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>71</v>
       </c>
@@ -5012,8 +5246,11 @@
       <c r="L94" s="5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M94" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>72</v>
       </c>
@@ -5052,8 +5289,11 @@
       <c r="L95" s="5" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M95" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>73</v>
       </c>
@@ -5092,8 +5332,11 @@
       <c r="L96" s="23" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M96" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>74</v>
       </c>
@@ -5132,8 +5375,11 @@
       <c r="L97" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M97" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>75</v>
       </c>
@@ -5169,8 +5415,11 @@
       <c r="K98" s="9" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M98" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>76</v>
       </c>
@@ -5209,8 +5458,11 @@
       <c r="L99" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M99" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>77</v>
       </c>
@@ -5245,8 +5497,11 @@
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="19"/>
-    </row>
-    <row r="101" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M100" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>78</v>
       </c>
@@ -5281,8 +5536,11 @@
       <c r="L101" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M101" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>78</v>
       </c>
@@ -5301,7 +5559,7 @@
       </c>
       <c r="K102" s="9"/>
     </row>
-    <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>78</v>
       </c>
@@ -5320,7 +5578,7 @@
       </c>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>78</v>
       </c>
@@ -5338,7 +5596,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>79</v>
       </c>
@@ -5377,8 +5635,11 @@
       <c r="L105" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M105" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>80</v>
       </c>
@@ -5413,8 +5674,11 @@
       <c r="L106" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M106" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>80</v>
       </c>
@@ -5432,8 +5696,9 @@
         <v>25200</v>
       </c>
       <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M107" s="17"/>
+    </row>
+    <row r="108" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>80</v>
       </c>
@@ -5451,8 +5716,9 @@
         <v>25200</v>
       </c>
       <c r="L108" s="19"/>
-    </row>
-    <row r="109" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M108" s="19"/>
+    </row>
+    <row r="109" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>80</v>
       </c>
@@ -5470,8 +5736,9 @@
         <v>25200</v>
       </c>
       <c r="L109" s="19"/>
-    </row>
-    <row r="110" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M109" s="19"/>
+    </row>
+    <row r="110" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>81</v>
       </c>
@@ -5506,8 +5773,11 @@
       <c r="L110" s="10" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M110" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>81</v>
       </c>
@@ -5526,7 +5796,7 @@
       </c>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>81</v>
       </c>
@@ -5545,7 +5815,7 @@
       </c>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>81</v>
       </c>
@@ -5564,7 +5834,7 @@
       </c>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>82</v>
       </c>
@@ -5599,8 +5869,11 @@
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="19"/>
-    </row>
-    <row r="115" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M114" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>83</v>
       </c>
@@ -5637,8 +5910,11 @@
       <c r="L115" s="21" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M115" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>84</v>
       </c>
@@ -5673,8 +5949,11 @@
       <c r="L116" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M116" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>84</v>
       </c>
@@ -5692,7 +5971,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>84</v>
       </c>
@@ -5711,7 +5990,7 @@
       </c>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>84</v>
       </c>
@@ -5729,7 +6008,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>85</v>
       </c>
@@ -5766,8 +6045,11 @@
       <c r="L120" s="21" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M120" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>86</v>
       </c>
@@ -5806,8 +6088,11 @@
       <c r="L121" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M121" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>87</v>
       </c>
@@ -5846,8 +6131,11 @@
       <c r="L122" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M122" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>88</v>
       </c>
@@ -5885,8 +6173,11 @@
       <c r="L123" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M123" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>89</v>
       </c>
@@ -5924,8 +6215,11 @@
       <c r="L124" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M124" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>90</v>
       </c>
@@ -5960,8 +6254,11 @@
       <c r="L125" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M125" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>90</v>
       </c>
@@ -5979,7 +6276,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>90</v>
       </c>
@@ -5997,7 +6294,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>90</v>
       </c>
@@ -6015,7 +6312,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>91</v>
       </c>
@@ -6050,8 +6347,11 @@
       <c r="L129" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M129" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>91</v>
       </c>
@@ -6069,7 +6369,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>91</v>
       </c>
@@ -6087,7 +6387,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>91</v>
       </c>
@@ -6105,7 +6405,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="204" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>92</v>
       </c>
@@ -6137,8 +6437,11 @@
       <c r="L133" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M133" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>92</v>
       </c>
@@ -6155,7 +6458,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>92</v>
       </c>
@@ -6172,7 +6475,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="204" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>93</v>
       </c>
@@ -6204,8 +6507,11 @@
       <c r="L136" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M136" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>93</v>
       </c>
@@ -6223,7 +6529,7 @@
         <v>79200</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>93</v>
       </c>
@@ -6241,7 +6547,7 @@
         <v>79200</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>94</v>
       </c>
@@ -6278,8 +6584,11 @@
       <c r="L139" s="21" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M139" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>95</v>
       </c>
@@ -6315,8 +6624,11 @@
       <c r="L140" s="21" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M140" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>95</v>
       </c>
@@ -6335,7 +6647,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>95</v>
       </c>
@@ -6354,7 +6666,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>95</v>
       </c>
@@ -6373,7 +6685,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>96</v>
       </c>
@@ -6412,8 +6724,11 @@
       <c r="L144" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M144" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>97</v>
       </c>
@@ -6452,8 +6767,11 @@
       <c r="L145" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M145" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>98</v>
       </c>
@@ -6482,8 +6800,11 @@
       <c r="L146" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M146" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>98</v>
       </c>
@@ -6500,7 +6821,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>98</v>
       </c>
@@ -6518,7 +6839,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>98</v>
       </c>
@@ -6536,7 +6857,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>99</v>
       </c>
@@ -6573,8 +6894,11 @@
       <c r="L150" s="21" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="M150" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
         <v>100</v>
       </c>
@@ -6611,8 +6935,11 @@
         <v>265</v>
       </c>
       <c r="L151" s="10"/>
-    </row>
-    <row r="152" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M151" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>101</v>
       </c>
@@ -6651,8 +6978,11 @@
       <c r="L152" s="21" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M152" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>102</v>
       </c>
@@ -6691,8 +7021,11 @@
       <c r="L153" s="21" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M153" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>103</v>
       </c>
@@ -6727,8 +7060,11 @@
       <c r="L154" s="5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M154" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>103</v>
       </c>
@@ -6746,7 +7082,7 @@
       </c>
       <c r="K155" s="9"/>
     </row>
-    <row r="156" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>103</v>
       </c>
@@ -6764,7 +7100,7 @@
       </c>
       <c r="K156" s="9"/>
     </row>
-    <row r="157" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>104</v>
       </c>
@@ -6799,8 +7135,11 @@
       <c r="L157" s="5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M157" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>104</v>
       </c>
@@ -6817,7 +7156,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>104</v>
       </c>
@@ -6834,7 +7173,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>105</v>
       </c>
@@ -6869,6 +7208,9 @@
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="28"/>
+      <c r="M160" s="29" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1FDC9-665F-1145-A496-18C9484A79F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674FC433-4214-1F44-8240-948E1AAE4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="345">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1059,6 +1059,18 @@
   </si>
   <si>
     <t>Brasil</t>
+  </si>
+  <si>
+    <t>Edital N°20/2023</t>
+  </si>
+  <si>
+    <t>Em processamento</t>
+  </si>
+  <si>
+    <t>Métodos Computacionais Avançados para Estudo do Equilíbrio Postural na Saúde e Doenças Neuromusculares</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_20_2023_–_Programa_Cientista_do_Nosso_Estado.pdf</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1320,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,9 +1404,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1813,13 +1822,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A160" sqref="A160"/>
+      <selection pane="bottomRight" activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1916,7 +1925,7 @@
         <v>250</v>
       </c>
       <c r="L2" s="10"/>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -1958,7 +1967,7 @@
       <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2000,7 +2009,7 @@
       <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2042,7 +2051,7 @@
       <c r="L5" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2120,7 +2129,7 @@
       <c r="L7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2162,7 +2171,7 @@
       <c r="L8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2240,7 +2249,7 @@
       <c r="L10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2316,7 +2325,7 @@
         <v>254</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2356,7 +2365,7 @@
         <v>255</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2396,7 +2405,7 @@
         <v>256</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2436,7 +2445,7 @@
         <v>250</v>
       </c>
       <c r="L15" s="10"/>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2478,7 +2487,7 @@
       <c r="L16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2517,7 +2526,7 @@
       <c r="L17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2625,7 +2634,7 @@
         <v>257</v>
       </c>
       <c r="L21" s="17"/>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2667,7 +2676,7 @@
       <c r="L22" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2705,7 +2714,7 @@
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2747,7 +2756,7 @@
       <c r="L24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2789,7 +2798,7 @@
       <c r="L25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2831,7 +2840,7 @@
       <c r="L26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2873,7 +2882,7 @@
       <c r="L27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2915,7 +2924,7 @@
       <c r="L28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="M28" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2957,7 +2966,7 @@
       <c r="L29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2999,7 +3008,7 @@
       <c r="L30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M30" s="29" t="s">
+      <c r="M30" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3040,7 +3049,7 @@
         <v>257</v>
       </c>
       <c r="L31" s="17"/>
-      <c r="M31" s="29" t="s">
+      <c r="M31" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3078,7 +3087,7 @@
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="17"/>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3119,7 +3128,7 @@
         <v>251</v>
       </c>
       <c r="L33" s="10"/>
-      <c r="M33" s="29" t="s">
+      <c r="M33" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3159,7 +3168,7 @@
         <v>254</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3201,7 +3210,7 @@
       <c r="L35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M35" s="29" t="s">
+      <c r="M35" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3243,7 +3252,7 @@
       <c r="L36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M36" s="29" t="s">
+      <c r="M36" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3285,7 +3294,7 @@
       <c r="L37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M37" s="29" t="s">
+      <c r="M37" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3327,7 +3336,7 @@
       <c r="L38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M38" s="29" t="s">
+      <c r="M38" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3369,7 +3378,7 @@
       <c r="L39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M39" s="29" t="s">
+      <c r="M39" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3411,7 +3420,7 @@
       <c r="L40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M40" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3453,7 +3462,7 @@
       <c r="L41" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3494,7 +3503,7 @@
         <v>264</v>
       </c>
       <c r="L42" s="17"/>
-      <c r="M42" s="29" t="s">
+      <c r="M42" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3533,7 +3542,7 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="17"/>
-      <c r="M43" s="29" t="s">
+      <c r="M43" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3573,7 +3582,7 @@
         <v>265</v>
       </c>
       <c r="L44" s="18"/>
-      <c r="M44" s="29" t="s">
+      <c r="M44" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3613,7 +3622,7 @@
         <v>254</v>
       </c>
       <c r="L45" s="15"/>
-      <c r="M45" s="29" t="s">
+      <c r="M45" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3655,7 +3664,7 @@
       <c r="L46" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3697,7 +3706,7 @@
       <c r="L47" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="M47" s="29" t="s">
+      <c r="M47" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3740,7 +3749,7 @@
       <c r="L48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="M48" s="29" t="s">
+      <c r="M48" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3779,7 +3788,7 @@
       <c r="L49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M49" s="29" t="s">
+      <c r="M49" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3882,7 +3891,7 @@
         <v>264</v>
       </c>
       <c r="L53" s="17"/>
-      <c r="M53" s="29" t="s">
+      <c r="M53" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3921,7 +3930,7 @@
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="17"/>
-      <c r="M54" s="29" t="s">
+      <c r="M54" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3963,7 +3972,7 @@
       <c r="L55" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M55" s="29" t="s">
+      <c r="M55" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4002,7 +4011,7 @@
       <c r="L56" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="M56" s="29" t="s">
+      <c r="M56" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4102,7 +4111,7 @@
       <c r="L60" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="M60" s="29" t="s">
+      <c r="M60" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4142,7 +4151,7 @@
         <v>254</v>
       </c>
       <c r="L61" s="10"/>
-      <c r="M61" s="29" t="s">
+      <c r="M61" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4181,7 +4190,7 @@
       <c r="L62" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="M62" s="29" t="s">
+      <c r="M62" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4283,7 +4292,7 @@
       <c r="L66" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="M66" s="29" t="s">
+      <c r="M66" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4401,7 +4410,7 @@
       <c r="L69" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M69" s="29" t="s">
+      <c r="M69" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4440,7 +4449,7 @@
       <c r="L70" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M70" s="29" t="s">
+      <c r="M70" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4540,7 +4549,7 @@
         <v>268</v>
       </c>
       <c r="L74" s="17"/>
-      <c r="M74" s="29" t="s">
+      <c r="M74" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4581,7 +4590,7 @@
       <c r="L75" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="M75" s="29" t="s">
+      <c r="M75" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4624,7 +4633,7 @@
       <c r="L76" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="M76" s="29" t="s">
+      <c r="M76" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4666,7 +4675,7 @@
       <c r="L77" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M77" s="29" t="s">
+      <c r="M77" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4709,7 +4718,7 @@
       <c r="L78" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="M78" s="29" t="s">
+      <c r="M78" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4752,7 +4761,7 @@
       <c r="L79" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="M79" s="29" t="s">
+      <c r="M79" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4795,7 +4804,7 @@
       <c r="L80" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="M80" s="29" t="s">
+      <c r="M80" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4838,7 +4847,7 @@
       <c r="L81" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M81" s="29" t="s">
+      <c r="M81" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4881,7 +4890,7 @@
       <c r="L82" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M82" s="29" t="s">
+      <c r="M82" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4923,7 +4932,7 @@
       <c r="L83" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="M83" s="29" t="s">
+      <c r="M83" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4962,7 +4971,7 @@
       <c r="L84" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="M84" s="29" t="s">
+      <c r="M84" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5061,7 +5070,7 @@
       <c r="L88" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="M88" s="29" t="s">
+      <c r="M88" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5164,7 +5173,7 @@
       <c r="L92" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="M92" s="29" t="s">
+      <c r="M92" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5205,7 +5214,7 @@
         <v>268</v>
       </c>
       <c r="L93" s="17"/>
-      <c r="M93" s="29" t="s">
+      <c r="M93" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5246,7 +5255,7 @@
       <c r="L94" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="M94" s="29" t="s">
+      <c r="M94" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5289,7 +5298,7 @@
       <c r="L95" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="M95" s="29" t="s">
+      <c r="M95" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5332,7 +5341,7 @@
       <c r="L96" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="M96" s="29" t="s">
+      <c r="M96" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5375,7 +5384,7 @@
       <c r="L97" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="M97" s="29" t="s">
+      <c r="M97" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5415,7 +5424,7 @@
       <c r="K98" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="M98" s="29" t="s">
+      <c r="M98" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5458,7 +5467,7 @@
       <c r="L99" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="M99" s="29" t="s">
+      <c r="M99" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5497,7 +5506,7 @@
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="19"/>
-      <c r="M100" s="29" t="s">
+      <c r="M100" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5536,7 +5545,7 @@
       <c r="L101" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="M101" s="29" t="s">
+      <c r="M101" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5635,7 +5644,7 @@
       <c r="L105" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="M105" s="29" t="s">
+      <c r="M105" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5674,7 +5683,7 @@
       <c r="L106" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M106" s="29" t="s">
+      <c r="M106" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5773,7 +5782,7 @@
       <c r="L110" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="M110" s="29" t="s">
+      <c r="M110" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5869,7 +5878,7 @@
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="19"/>
-      <c r="M114" s="29" t="s">
+      <c r="M114" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5910,7 +5919,7 @@
       <c r="L115" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="M115" s="29" t="s">
+      <c r="M115" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5949,7 +5958,7 @@
       <c r="L116" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="M116" s="29" t="s">
+      <c r="M116" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6045,7 +6054,7 @@
       <c r="L120" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="M120" s="29" t="s">
+      <c r="M120" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6088,7 +6097,7 @@
       <c r="L121" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M121" s="29" t="s">
+      <c r="M121" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6131,7 +6140,7 @@
       <c r="L122" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M122" s="29" t="s">
+      <c r="M122" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6173,7 +6182,7 @@
       <c r="L123" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="M123" s="29" t="s">
+      <c r="M123" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6215,7 +6224,7 @@
       <c r="L124" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="M124" s="29" t="s">
+      <c r="M124" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6254,7 +6263,7 @@
       <c r="L125" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="M125" s="29" t="s">
+      <c r="M125" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6347,7 +6356,7 @@
       <c r="L129" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="M129" s="29" t="s">
+      <c r="M129" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6437,7 +6446,7 @@
       <c r="L133" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="M133" s="29" t="s">
+      <c r="M133" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6507,7 +6516,7 @@
       <c r="L136" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="M136" s="29" t="s">
+      <c r="M136" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6584,7 +6593,7 @@
       <c r="L139" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="M139" s="29" t="s">
+      <c r="M139" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6624,7 +6633,7 @@
       <c r="L140" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M140" s="29" t="s">
+      <c r="M140" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6724,7 +6733,7 @@
       <c r="L144" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="M144" s="29" t="s">
+      <c r="M144" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6767,7 +6776,7 @@
       <c r="L145" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="M145" s="29" t="s">
+      <c r="M145" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6800,7 +6809,7 @@
       <c r="L146" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="M146" s="29" t="s">
+      <c r="M146" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6894,7 +6903,7 @@
       <c r="L150" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="M150" s="29" t="s">
+      <c r="M150" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6935,7 +6944,7 @@
         <v>265</v>
       </c>
       <c r="L151" s="10"/>
-      <c r="M151" s="29" t="s">
+      <c r="M151" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6978,7 +6987,7 @@
       <c r="L152" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="M152" s="29" t="s">
+      <c r="M152" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7021,7 +7030,7 @@
       <c r="L153" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="M153" s="29" t="s">
+      <c r="M153" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7060,7 +7069,7 @@
       <c r="L154" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="M154" s="29" t="s">
+      <c r="M154" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7135,7 +7144,7 @@
       <c r="L157" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="M157" s="29" t="s">
+      <c r="M157" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7208,8 +7217,101 @@
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="28"/>
-      <c r="M160" s="29" t="s">
-        <v>340</v>
+      <c r="M160" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A161" s="9">
+        <v>106</v>
+      </c>
+      <c r="B161" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E161" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I161" s="26">
+        <f>SUM(J162:J164)</f>
+        <v>108000</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M161" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="9">
+        <v>106</v>
+      </c>
+      <c r="B162" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="9">
+        <v>106</v>
+      </c>
+      <c r="B163" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J163" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="9">
+        <v>106</v>
+      </c>
+      <c r="B164" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J164" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674FC433-4214-1F44-8240-948E1AAE4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240A6D68-A9CD-BA4A-BB16-FC96E0C9C0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$L$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$M$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -788,63 +788,24 @@
     <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/resultados-dos-editais/EDITAL192020RESULTADOFINAL.pdf</t>
   </si>
   <si>
-    <t>Cristina Márcia Dias</t>
-  </si>
-  <si>
-    <t>Arthur de Sá Ferreira</t>
-  </si>
-  <si>
-    <t>André Luis dos Santos Silva</t>
-  </si>
-  <si>
-    <t>Juliana Flávia de Oliveira</t>
-  </si>
-  <si>
-    <t>Patrícia dos Santos Vigário</t>
-  </si>
-  <si>
-    <t>Miíriam Raquel Meira Mainenti</t>
-  </si>
-  <si>
-    <t>Lilian Ramiro Felício</t>
-  </si>
-  <si>
     <t>Thiago Lemos de Carvalho</t>
   </si>
   <si>
-    <t>Agnaldo José Lopes</t>
-  </si>
-  <si>
     <t>Laura Alice Santos de Oliveira</t>
   </si>
   <si>
-    <t>Fernando Silva Guimarães</t>
-  </si>
-  <si>
     <t>Susana Ortiz Costa</t>
   </si>
   <si>
     <t>Alex Souto Maior</t>
   </si>
   <si>
-    <t>Erika de Carvalho Rodrigues</t>
-  </si>
-  <si>
-    <t>Ney Armando de Mello Meziat Filho</t>
-  </si>
-  <si>
     <t>Leandro Alberto Calazans Nogueira</t>
   </si>
   <si>
-    <t>Sara Lucia Silveira de Menezes</t>
-  </si>
-  <si>
     <t>Julio Guilherne Silva</t>
   </si>
   <si>
-    <t>Renato Santos de Almeida</t>
-  </si>
-  <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_Edital_FAPERJ_Nº_06_2022_Programa_de_Bolsa_de_Iniciação_Cient%C3%ADfica.pdf</t>
   </si>
   <si>
@@ -1071,6 +1032,45 @@
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_20_2023_–_Programa_Cientista_do_Nosso_Estado.pdf</t>
+  </si>
+  <si>
+    <t>Agnaldo Jose Lopes</t>
+  </si>
+  <si>
+    <t>Arthur De Sa Ferreira</t>
+  </si>
+  <si>
+    <t>Cristina Marcia Dias</t>
+  </si>
+  <si>
+    <t>Erika De Carvalho Rodrigues</t>
+  </si>
+  <si>
+    <t>Fernando Silva Guimaraes</t>
+  </si>
+  <si>
+    <t>Juliana Flavia De Oliveira</t>
+  </si>
+  <si>
+    <t>Lilian Ramiro Felicio</t>
+  </si>
+  <si>
+    <t>Miriam Raquel Meira Mainenti</t>
+  </si>
+  <si>
+    <t>Ney Armando De Mello Meziat Filho</t>
+  </si>
+  <si>
+    <t>Andre Luis Dos Santos Silva</t>
+  </si>
+  <si>
+    <t>Patricia Dos Santos Vigario</t>
+  </si>
+  <si>
+    <t>Renato Santos De Almeida</t>
+  </si>
+  <si>
+    <t>Sara Lucia Silveira De Menezes</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A164" sqref="A164"/>
@@ -1850,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1886,7 +1886,7 @@
         <v>209</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1922,11 +1922,11 @@
         <v>8500</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1962,13 +1962,13 @@
         <v>8440</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1982,7 +1982,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>29</v>
@@ -2004,13 +2004,13 @@
         <v>169159.38</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2046,13 +2046,13 @@
         <v>7000</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>215</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2124,13 +2124,13 @@
         <v>5063</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2166,13 +2166,13 @@
         <v>16500</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2244,13 +2244,13 @@
         <v>18000</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2322,11 +2322,11 @@
         <v>9975</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2362,11 +2362,11 @@
         <v>9999</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -2402,11 +2402,11 @@
         <v>10000</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2442,11 +2442,11 @@
         <v>10000</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -2482,13 +2482,13 @@
         <v>20000</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>56</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>57</v>
@@ -2521,13 +2521,13 @@
         <v>75600</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>59</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -2631,11 +2631,11 @@
         <v>8200</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2649,13 +2649,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>6</v>
@@ -2671,13 +2671,13 @@
         <v>14000</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>217</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="17"/>
       <c r="M23" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -2751,13 +2751,13 @@
         <v>6000</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>63</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2793,13 +2793,13 @@
         <v>11088</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2835,13 +2835,13 @@
         <v>19159.47</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>67</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -2877,13 +2877,13 @@
         <v>20000</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>67</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2919,13 +2919,13 @@
         <v>21121.64</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>67</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -2961,13 +2961,13 @@
         <v>25500</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>67</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3003,13 +3003,13 @@
         <v>130000</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>80</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3046,11 +3046,11 @@
         <v>49200</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="17"/>
       <c r="M32" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3125,11 +3125,11 @@
         <v>5040</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -3165,11 +3165,11 @@
         <v>9000</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3205,13 +3205,13 @@
         <v>10200</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>92</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3247,13 +3247,13 @@
         <v>12100</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>92</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3289,13 +3289,13 @@
         <v>14223</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>88</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3331,13 +3331,13 @@
         <v>14262.94</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>92</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3373,13 +3373,13 @@
         <v>15000</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>92</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3415,13 +3415,13 @@
         <v>18799</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>92</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3457,13 +3457,13 @@
         <v>134540.6</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>104</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3500,11 +3500,11 @@
         <v>49200</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3543,7 +3543,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="17"/>
       <c r="M43" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3579,11 +3579,11 @@
         <v>113823.18</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L44" s="18"/>
       <c r="M44" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -3619,11 +3619,11 @@
         <v>8000</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="24" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3659,13 +3659,13 @@
         <v>10750</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>111</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -3701,13 +3701,13 @@
         <v>14105.35</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>117</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3721,7 +3721,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>118</v>
@@ -3744,13 +3744,13 @@
         <v>36000</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>121</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>122</v>
@@ -3783,13 +3783,13 @@
         <v>75600</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>59</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -3888,11 +3888,11 @@
         <v>49200</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="L53" s="17"/>
       <c r="M53" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -3931,7 +3931,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="17"/>
       <c r="M54" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -3967,13 +3967,13 @@
         <v>21000</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>221</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -4006,13 +4006,13 @@
         <v>39600</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>134</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -4106,13 +4106,13 @@
         <v>5040</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>137</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -4148,11 +4148,11 @@
         <v>8290.61</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -4166,7 +4166,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>140</v>
@@ -4185,13 +4185,13 @@
         <v>75600</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>142</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -4287,13 +4287,13 @@
         <v>460670</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>146</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4329,7 +4329,7 @@
         <v>49200</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
@@ -4405,13 +4405,13 @@
         <v>5040</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>150</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -4425,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>151</v>
@@ -4444,13 +4444,13 @@
         <v>75600</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>153</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -4546,11 +4546,11 @@
         <v>49200</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>204</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>244</v>
@@ -4588,10 +4588,10 @@
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -4605,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>183</v>
@@ -4628,13 +4628,13 @@
         <v>4800</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>218</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -4648,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>173</v>
@@ -4670,13 +4670,13 @@
         <v>60000</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>175</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4713,13 +4713,13 @@
         <v>5040</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>157</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4755,14 +4755,14 @@
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="K79" s="5" t="s">
-        <v>268</v>
+      <c r="K79" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>157</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4798,14 +4798,14 @@
         <f>420*12</f>
         <v>5040</v>
       </c>
-      <c r="K80" s="5" t="s">
-        <v>264</v>
+      <c r="K80" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>157</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4842,13 +4842,13 @@
         <v>5040</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>165</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4885,13 +4885,13 @@
         <v>5040</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>165</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -4905,7 +4905,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>180</v>
@@ -4926,14 +4926,14 @@
       <c r="J83" s="8">
         <v>45436.51</v>
       </c>
-      <c r="K83" s="5" t="s">
-        <v>264</v>
+      <c r="K83" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>179</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4947,7 +4947,7 @@
         <v>7</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>171</v>
@@ -4966,13 +4966,13 @@
         <v>75600</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5046,7 +5046,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>168</v>
@@ -5065,13 +5065,13 @@
         <v>75600</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>170</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5145,7 +5145,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>176</v>
@@ -5168,13 +5168,13 @@
         <v>62885.47</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>179</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -5211,11 +5211,11 @@
         <v>49200</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="L93" s="17"/>
       <c r="M93" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -5232,7 +5232,7 @@
         <v>204</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>244</v>
@@ -5253,10 +5253,10 @@
       </c>
       <c r="K94" s="9"/>
       <c r="L94" s="5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -5270,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>183</v>
@@ -5293,13 +5293,13 @@
         <v>4800</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>218</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -5336,13 +5336,13 @@
         <v>5040</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L96" s="23" t="s">
         <v>187</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -5379,13 +5379,13 @@
         <v>5040</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>191</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -5422,10 +5422,10 @@
         <v>8200</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -5462,13 +5462,13 @@
         <v>39600</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L99" s="5" t="s">
         <v>249</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -5507,7 +5507,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="19"/>
       <c r="M100" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -5540,13 +5540,13 @@
         <v>39600</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>194</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5639,13 +5639,13 @@
         <v>5040</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>197</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -5678,13 +5678,13 @@
         <v>75600</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>206</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5755,19 +5755,19 @@
         <v>2020</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>107</v>
@@ -5777,13 +5777,13 @@
         <v>32400</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5794,7 +5794,7 @@
         <v>2020</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>107</v>
@@ -5813,7 +5813,7 @@
         <v>2021</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>107</v>
@@ -5832,7 +5832,7 @@
         <v>2022</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>107</v>
@@ -5857,7 +5857,7 @@
         <v>204</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>244</v>
@@ -5879,7 +5879,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="19"/>
       <c r="M114" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -5893,14 +5893,14 @@
         <v>2</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E115" s="22"/>
       <c r="F115" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>107</v>
@@ -5914,13 +5914,13 @@
         <v>4800</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L115" s="21" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -5934,7 +5934,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>238</v>
@@ -5952,14 +5952,14 @@
         <f>SUM(J117:J119)</f>
         <v>39600</v>
       </c>
-      <c r="K116" s="5" t="s">
-        <v>251</v>
+      <c r="K116" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>231</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6025,17 +6025,17 @@
         <v>2021</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E120" s="22"/>
       <c r="F120" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>107</v>
@@ -6049,13 +6049,13 @@
         <v>4800</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -6092,13 +6092,13 @@
         <v>5040</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>211</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6135,13 +6135,13 @@
         <v>5040</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>211</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -6155,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>243</v>
@@ -6176,14 +6176,14 @@
       <c r="J123" s="8">
         <v>62945</v>
       </c>
-      <c r="K123" s="5" t="s">
-        <v>268</v>
+      <c r="K123" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>229</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -6197,7 +6197,7 @@
         <v>7</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>227</v>
@@ -6218,14 +6218,14 @@
       <c r="J124" s="8">
         <v>94922.1</v>
       </c>
-      <c r="K124" s="5" t="s">
-        <v>251</v>
+      <c r="K124" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="L124" s="5" t="s">
         <v>222</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -6257,14 +6257,14 @@
         <f>SUM(J126:J128)</f>
         <v>108000</v>
       </c>
-      <c r="K125" s="5" t="s">
-        <v>258</v>
+      <c r="K125" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>236</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>232</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>237</v>
@@ -6350,14 +6350,14 @@
         <f>SUM(J130:J132)</f>
         <v>86400</v>
       </c>
-      <c r="K129" s="5" t="s">
-        <v>264</v>
+      <c r="K129" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="L129" s="5" t="s">
         <v>235</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6425,16 +6425,16 @@
         <v>5</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>0</v>
@@ -6444,10 +6444,10 @@
         <v>50000</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6495,16 +6495,16 @@
         <v>5</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>107</v>
@@ -6514,10 +6514,10 @@
         <v>158400</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6591,10 +6591,10 @@
       </c>
       <c r="K139" s="9"/>
       <c r="L139" s="21" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -6608,13 +6608,13 @@
         <v>2</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>4</v>
@@ -6628,13 +6628,13 @@
       </c>
       <c r="J140" s="14"/>
       <c r="K140" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L140" s="21" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M140" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6705,13 +6705,13 @@
         <v>7</v>
       </c>
       <c r="D144" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>11</v>
@@ -6728,13 +6728,13 @@
         <v>5040</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -6748,10 +6748,10 @@
         <v>7</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>207</v>
@@ -6771,13 +6771,13 @@
         <v>5040</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -6791,26 +6791,26 @@
         <v>7</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="I146" s="26">
         <f>SUM(J147:J149)</f>
         <v>185600</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6880,7 +6880,7 @@
         <v>204</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>244</v>
@@ -6901,10 +6901,10 @@
       </c>
       <c r="K150" s="9"/>
       <c r="L150" s="21" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -6918,16 +6918,16 @@
         <v>7</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>107</v>
@@ -6941,11 +6941,11 @@
         <v>5040</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L151" s="10"/>
       <c r="M151" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6959,13 +6959,13 @@
         <v>7</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>11</v>
@@ -6982,13 +6982,13 @@
         <v>5040</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L152" s="21" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7002,13 +7002,13 @@
         <v>7</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>11</v>
@@ -7025,13 +7025,13 @@
         <v>5040</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L153" s="21" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -7045,13 +7045,13 @@
         <v>2</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>3</v>
@@ -7064,13 +7064,13 @@
         <v>87090</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="M154" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -7102,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="J156" s="8">
         <v>15000</v>
@@ -7120,13 +7120,13 @@
         <v>2</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>3</v>
@@ -7139,13 +7139,13 @@
         <v>48000</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -7176,7 +7176,7 @@
         <v>2</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="J159" s="8">
         <v>21000</v>
@@ -7196,7 +7196,7 @@
         <v>204</v>
       </c>
       <c r="E160" s="22" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>244</v>
@@ -7218,7 +7218,7 @@
       <c r="K160" s="9"/>
       <c r="L160" s="28"/>
       <c r="M160" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -7232,13 +7232,13 @@
         <v>7</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>234</v>
@@ -7250,14 +7250,14 @@
         <f>SUM(J162:J164)</f>
         <v>108000</v>
       </c>
-      <c r="K161" s="5" t="s">
-        <v>251</v>
+      <c r="K161" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M161" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -7315,6 +7315,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M164" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">
     <sortCondition ref="B2:B151"/>
     <sortCondition ref="C2:C151"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240A6D68-A9CD-BA4A-BB16-FC96E0C9C0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ACDF80-B629-7847-8621-8F0AA15288A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1031,9 +1031,6 @@
     <t>Métodos Computacionais Avançados para Estudo do Equilíbrio Postural na Saúde e Doenças Neuromusculares</t>
   </si>
   <si>
-    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_20_2023_–_Programa_Cientista_do_Nosso_Estado.pdf</t>
-  </si>
-  <si>
     <t>Agnaldo Jose Lopes</t>
   </si>
   <si>
@@ -1071,6 +1068,9 @@
   </si>
   <si>
     <t>Sara Lucia Silveira De Menezes</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Final_Edital_FAPERJ_N%C2%BA_20_2023_%E2%80%93_Programa_Cientista_do_Nosso_Estado.pdf</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1922,7 @@
         <v>8500</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="5" t="s">
@@ -1962,7 +1962,7 @@
         <v>8440</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>28</v>
@@ -2004,7 +2004,7 @@
         <v>169159.38</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>7000</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>215</v>
@@ -2124,7 +2124,7 @@
         <v>5063</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>36</v>
@@ -2166,7 +2166,7 @@
         <v>16500</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>36</v>
@@ -2244,7 +2244,7 @@
         <v>18000</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>41</v>
@@ -2322,7 +2322,7 @@
         <v>9975</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="5" t="s">
@@ -2362,7 +2362,7 @@
         <v>9999</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="5" t="s">
@@ -2402,7 +2402,7 @@
         <v>10000</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="5" t="s">
@@ -2442,7 +2442,7 @@
         <v>10000</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="5" t="s">
@@ -2482,7 +2482,7 @@
         <v>20000</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>56</v>
@@ -2521,7 +2521,7 @@
         <v>75600</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>59</v>
@@ -2671,7 +2671,7 @@
         <v>14000</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>217</v>
@@ -2751,7 +2751,7 @@
         <v>6000</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>63</v>
@@ -2793,7 +2793,7 @@
         <v>11088</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>67</v>
@@ -2835,7 +2835,7 @@
         <v>19159.47</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>67</v>
@@ -2919,7 +2919,7 @@
         <v>21121.64</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>67</v>
@@ -2961,7 +2961,7 @@
         <v>25500</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>67</v>
@@ -3003,7 +3003,7 @@
         <v>130000</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>80</v>
@@ -3125,7 +3125,7 @@
         <v>5040</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="5" t="s">
@@ -3165,7 +3165,7 @@
         <v>9000</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="5" t="s">
@@ -3205,7 +3205,7 @@
         <v>10200</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>92</v>
@@ -3247,7 +3247,7 @@
         <v>12100</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>92</v>
@@ -3415,7 +3415,7 @@
         <v>18799</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>92</v>
@@ -3457,7 +3457,7 @@
         <v>134540.6</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>104</v>
@@ -3500,7 +3500,7 @@
         <v>49200</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="5" t="s">
@@ -3619,7 +3619,7 @@
         <v>8000</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="5" t="s">
@@ -3659,7 +3659,7 @@
         <v>10750</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>111</v>
@@ -3701,7 +3701,7 @@
         <v>14105.35</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>117</v>
@@ -3744,7 +3744,7 @@
         <v>36000</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>121</v>
@@ -3783,7 +3783,7 @@
         <v>75600</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>59</v>
@@ -3888,7 +3888,7 @@
         <v>49200</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L53" s="17"/>
       <c r="M53" s="5" t="s">
@@ -3967,7 +3967,7 @@
         <v>21000</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>221</v>
@@ -4006,7 +4006,7 @@
         <v>39600</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>134</v>
@@ -4106,7 +4106,7 @@
         <v>5040</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>137</v>
@@ -4148,7 +4148,7 @@
         <v>8290.61</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="5" t="s">
@@ -4287,7 +4287,7 @@
         <v>460670</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>146</v>
@@ -4329,7 +4329,7 @@
         <v>49200</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
@@ -4405,7 +4405,7 @@
         <v>5040</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>150</v>
@@ -4444,7 +4444,7 @@
         <v>75600</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>153</v>
@@ -4546,7 +4546,7 @@
         <v>49200</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="5" t="s">
@@ -4670,7 +4670,7 @@
         <v>60000</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>175</v>
@@ -4713,7 +4713,7 @@
         <v>5040</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>157</v>
@@ -4756,7 +4756,7 @@
         <v>5040</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>157</v>
@@ -4799,7 +4799,7 @@
         <v>5040</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>157</v>
@@ -4842,7 +4842,7 @@
         <v>5040</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>165</v>
@@ -4927,7 +4927,7 @@
         <v>45436.51</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>179</v>
@@ -4966,7 +4966,7 @@
         <v>75600</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>170</v>
@@ -5065,7 +5065,7 @@
         <v>75600</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>170</v>
@@ -5211,7 +5211,7 @@
         <v>49200</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L93" s="17"/>
       <c r="M93" s="5" t="s">
@@ -5293,7 +5293,7 @@
         <v>4800</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>218</v>
@@ -5379,7 +5379,7 @@
         <v>5040</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>191</v>
@@ -5422,7 +5422,7 @@
         <v>8200</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M98" s="5" t="s">
         <v>327</v>
@@ -5540,7 +5540,7 @@
         <v>39600</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>194</v>
@@ -5639,7 +5639,7 @@
         <v>5040</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>197</v>
@@ -5777,7 +5777,7 @@
         <v>32400</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>289</v>
@@ -5953,7 +5953,7 @@
         <v>39600</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>231</v>
@@ -6092,7 +6092,7 @@
         <v>5040</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>211</v>
@@ -6135,7 +6135,7 @@
         <v>5040</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>211</v>
@@ -6177,7 +6177,7 @@
         <v>62945</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>229</v>
@@ -6219,7 +6219,7 @@
         <v>94922.1</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L124" s="5" t="s">
         <v>222</v>
@@ -6258,7 +6258,7 @@
         <v>108000</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>236</v>
@@ -6351,7 +6351,7 @@
         <v>86400</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L129" s="5" t="s">
         <v>235</v>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="J140" s="14"/>
       <c r="K140" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L140" s="21" t="s">
         <v>280</v>
@@ -6728,7 +6728,7 @@
         <v>5040</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L144" s="5" t="s">
         <v>256</v>
@@ -6982,7 +6982,7 @@
         <v>5040</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L152" s="21" t="s">
         <v>316</v>
@@ -7025,7 +7025,7 @@
         <v>5040</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L153" s="21" t="s">
         <v>316</v>
@@ -7064,7 +7064,7 @@
         <v>87090</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L154" s="5" t="s">
         <v>320</v>
@@ -7139,7 +7139,7 @@
         <v>48000</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L157" s="5" t="s">
         <v>320</v>
@@ -7251,10 +7251,10 @@
         <v>108000</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="M161" s="5" t="s">
         <v>327</v>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ACDF80-B629-7847-8621-8F0AA15288A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F9DAE-67B8-6F45-8077-C753F1B81CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,9 +1025,6 @@
     <t>Edital N°20/2023</t>
   </si>
   <si>
-    <t>Em processamento</t>
-  </si>
-  <si>
     <t>Métodos Computacionais Avançados para Estudo do Equilíbrio Postural na Saúde e Doenças Neuromusculares</t>
   </si>
   <si>
@@ -1071,6 +1068,9 @@
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_Final_Edital_FAPERJ_N%C2%BA_20_2023_%E2%80%93_Programa_Cientista_do_Nosso_Estado.pdf</t>
+  </si>
+  <si>
+    <t>E-26/204.369/2024</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1320,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1404,6 +1404,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1825,7 +1828,7 @@
   <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A164" sqref="A164"/>
@@ -1922,7 +1925,7 @@
         <v>8500</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="5" t="s">
@@ -1962,7 +1965,7 @@
         <v>8440</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>28</v>
@@ -2004,7 +2007,7 @@
         <v>169159.38</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>32</v>
@@ -2046,7 +2049,7 @@
         <v>7000</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>215</v>
@@ -2124,7 +2127,7 @@
         <v>5063</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>36</v>
@@ -2166,7 +2169,7 @@
         <v>16500</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>36</v>
@@ -2244,7 +2247,7 @@
         <v>18000</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>41</v>
@@ -2322,7 +2325,7 @@
         <v>9975</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="5" t="s">
@@ -2362,7 +2365,7 @@
         <v>9999</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="5" t="s">
@@ -2402,7 +2405,7 @@
         <v>10000</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="5" t="s">
@@ -2442,7 +2445,7 @@
         <v>10000</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="5" t="s">
@@ -2482,7 +2485,7 @@
         <v>20000</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>56</v>
@@ -2521,7 +2524,7 @@
         <v>75600</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>59</v>
@@ -2671,7 +2674,7 @@
         <v>14000</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>217</v>
@@ -2751,7 +2754,7 @@
         <v>6000</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>63</v>
@@ -2793,7 +2796,7 @@
         <v>11088</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>67</v>
@@ -2835,7 +2838,7 @@
         <v>19159.47</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>67</v>
@@ -2919,7 +2922,7 @@
         <v>21121.64</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>67</v>
@@ -2961,7 +2964,7 @@
         <v>25500</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>67</v>
@@ -3003,7 +3006,7 @@
         <v>130000</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>80</v>
@@ -3125,7 +3128,7 @@
         <v>5040</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="5" t="s">
@@ -3165,7 +3168,7 @@
         <v>9000</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="5" t="s">
@@ -3205,7 +3208,7 @@
         <v>10200</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>92</v>
@@ -3247,7 +3250,7 @@
         <v>12100</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>92</v>
@@ -3415,7 +3418,7 @@
         <v>18799</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>92</v>
@@ -3457,7 +3460,7 @@
         <v>134540.6</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>104</v>
@@ -3500,7 +3503,7 @@
         <v>49200</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="5" t="s">
@@ -3619,7 +3622,7 @@
         <v>8000</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="5" t="s">
@@ -3659,7 +3662,7 @@
         <v>10750</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>111</v>
@@ -3701,7 +3704,7 @@
         <v>14105.35</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>117</v>
@@ -3744,7 +3747,7 @@
         <v>36000</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>121</v>
@@ -3783,7 +3786,7 @@
         <v>75600</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>59</v>
@@ -3888,7 +3891,7 @@
         <v>49200</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L53" s="17"/>
       <c r="M53" s="5" t="s">
@@ -3967,7 +3970,7 @@
         <v>21000</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>221</v>
@@ -4006,7 +4009,7 @@
         <v>39600</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>134</v>
@@ -4106,7 +4109,7 @@
         <v>5040</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>137</v>
@@ -4148,7 +4151,7 @@
         <v>8290.61</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="5" t="s">
@@ -4287,7 +4290,7 @@
         <v>460670</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>146</v>
@@ -4329,7 +4332,7 @@
         <v>49200</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
@@ -4405,7 +4408,7 @@
         <v>5040</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>150</v>
@@ -4444,7 +4447,7 @@
         <v>75600</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>153</v>
@@ -4546,7 +4549,7 @@
         <v>49200</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="5" t="s">
@@ -4670,7 +4673,7 @@
         <v>60000</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>175</v>
@@ -4713,7 +4716,7 @@
         <v>5040</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>157</v>
@@ -4756,7 +4759,7 @@
         <v>5040</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>157</v>
@@ -4799,7 +4802,7 @@
         <v>5040</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>157</v>
@@ -4842,7 +4845,7 @@
         <v>5040</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>165</v>
@@ -4927,7 +4930,7 @@
         <v>45436.51</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>179</v>
@@ -4966,7 +4969,7 @@
         <v>75600</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>170</v>
@@ -5065,7 +5068,7 @@
         <v>75600</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>170</v>
@@ -5211,7 +5214,7 @@
         <v>49200</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L93" s="17"/>
       <c r="M93" s="5" t="s">
@@ -5293,7 +5296,7 @@
         <v>4800</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>218</v>
@@ -5379,7 +5382,7 @@
         <v>5040</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>191</v>
@@ -5422,7 +5425,7 @@
         <v>8200</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M98" s="5" t="s">
         <v>327</v>
@@ -5540,7 +5543,7 @@
         <v>39600</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>194</v>
@@ -5639,7 +5642,7 @@
         <v>5040</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>197</v>
@@ -5777,7 +5780,7 @@
         <v>32400</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>289</v>
@@ -5953,7 +5956,7 @@
         <v>39600</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>231</v>
@@ -6092,7 +6095,7 @@
         <v>5040</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>211</v>
@@ -6135,7 +6138,7 @@
         <v>5040</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>211</v>
@@ -6177,7 +6180,7 @@
         <v>62945</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>229</v>
@@ -6219,7 +6222,7 @@
         <v>94922.1</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L124" s="5" t="s">
         <v>222</v>
@@ -6258,7 +6261,7 @@
         <v>108000</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>236</v>
@@ -6351,7 +6354,7 @@
         <v>86400</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L129" s="5" t="s">
         <v>235</v>
@@ -6628,7 +6631,7 @@
       </c>
       <c r="J140" s="14"/>
       <c r="K140" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L140" s="21" t="s">
         <v>280</v>
@@ -6728,7 +6731,7 @@
         <v>5040</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L144" s="5" t="s">
         <v>256</v>
@@ -6982,7 +6985,7 @@
         <v>5040</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L152" s="21" t="s">
         <v>316</v>
@@ -7025,7 +7028,7 @@
         <v>5040</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L153" s="21" t="s">
         <v>316</v>
@@ -7064,7 +7067,7 @@
         <v>87090</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L154" s="5" t="s">
         <v>320</v>
@@ -7139,7 +7142,7 @@
         <v>48000</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L157" s="5" t="s">
         <v>320</v>
@@ -7234,11 +7237,11 @@
       <c r="D161" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E161" s="22" t="s">
+      <c r="E161" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F161" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>234</v>
@@ -7251,10 +7254,10 @@
         <v>108000</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M161" s="5" t="s">
         <v>327</v>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F9DAE-67B8-6F45-8077-C753F1B81CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1775F8-53B9-4240-8991-3905574BC08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="350">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1071,6 +1071,21 @@
   </si>
   <si>
     <t>E-26/204.369/2024</t>
+  </si>
+  <si>
+    <t>Edital N°17/2024</t>
+  </si>
+  <si>
+    <t>Em processamento</t>
+  </si>
+  <si>
+    <t>Programa Pós-Doutorado Nota10 (PDR10)</t>
+  </si>
+  <si>
+    <t>Percepções e experiências de pacientes com ciatalgia crônica que foram submetidos apenas à orientação para se manter ativo em um ensaio clínico: um estudo qualitativo</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_preliminar_Edital_FAPERJ_Nº_17_2024_–_Pós-Doutorado_Nota_10.pdf</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1335,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1404,9 +1419,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1825,13 +1837,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A164" sqref="A164"/>
+      <selection pane="bottomRight" activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7237,7 +7249,7 @@
       <c r="D161" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E161" s="29" t="s">
+      <c r="E161" s="7" t="s">
         <v>344</v>
       </c>
       <c r="F161" s="7" t="s">
@@ -7315,6 +7327,72 @@
       <c r="J164" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A165" s="9">
+        <v>107</v>
+      </c>
+      <c r="B165" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E165" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I165" s="26">
+        <f>SUM(J166:J167)</f>
+        <v>98400</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L165" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="M165" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="9">
+        <v>107</v>
+      </c>
+      <c r="B166" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J166" s="8">
+        <f>4100*36/3</f>
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="9">
+        <v>107</v>
+      </c>
+      <c r="B167" s="6">
+        <v>2026</v>
+      </c>
+      <c r="J167" s="8">
+        <f>4100*36/3</f>
+        <v>49200</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1775F8-53B9-4240-8991-3905574BC08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2DBC55-9D94-F349-9E36-5AA85E8D06A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="355">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1086,6 +1086,21 @@
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_preliminar_Edital_FAPERJ_Nº_17_2024_–_Pós-Doutorado_Nota_10.pdf</t>
+  </si>
+  <si>
+    <t>Edital Nº 23</t>
+  </si>
+  <si>
+    <t>O efeito do biofeedback por posturografia sobre a atividade muscular na postura ortostática em idosos</t>
+  </si>
+  <si>
+    <t>Fabio Vieira dos Anjos</t>
+  </si>
+  <si>
+    <t>Educação e esporte: unindo pilares para a reabilitação de pessoas com deficiência</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_23_2024_–_Bolsa_de_Iniciação_Científica_(IC).pdf</t>
   </si>
 </sst>
 </file>
@@ -1837,13 +1852,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A167" sqref="A167"/>
+      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7395,6 +7410,92 @@
         <v>49200</v>
       </c>
     </row>
+    <row r="168" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A168" s="9">
+        <v>108</v>
+      </c>
+      <c r="B168" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I168" s="26">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
+      <c r="J168" s="8">
+        <f>I168</f>
+        <v>5040</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="L168" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A169" s="9">
+        <v>109</v>
+      </c>
+      <c r="B169" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E169" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I169" s="26">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
+      <c r="J169" s="8">
+        <f>I169</f>
+        <v>5040</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="L169" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="M169" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M164" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2DBC55-9D94-F349-9E36-5AA85E8D06A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A58A6A-60E5-F641-8582-3302982290B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="356">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1101,6 +1101,9 @@
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_23_2024_–_Bolsa_de_Iniciação_Científica_(IC).pdf</t>
+  </si>
+  <si>
+    <t>E-26/200.180/2025</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1353,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1434,6 +1437,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1852,13 +1858,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7357,8 +7363,8 @@
       <c r="D165" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E165" s="22" t="s">
-        <v>346</v>
+      <c r="E165" s="29" t="s">
+        <v>355</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>348</v>
@@ -7370,8 +7376,8 @@
         <v>107</v>
       </c>
       <c r="I165" s="26">
-        <f>SUM(J166:J167)</f>
-        <v>98400</v>
+        <f>SUM(J166:J166)</f>
+        <v>49200</v>
       </c>
       <c r="K165" s="9" t="s">
         <v>254</v>
@@ -7398,21 +7404,52 @@
         <v>49200</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B167" s="6">
-        <v>2026</v>
+        <v>2025</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I167" s="26">
+        <f>420*12</f>
+        <v>5040</v>
       </c>
       <c r="J167" s="8">
-        <f>4100*36/3</f>
-        <v>49200</v>
+        <f>I167</f>
+        <v>5040</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="L167" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="M167" s="5" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B168" s="6">
         <v>2025</v>
@@ -7427,7 +7464,7 @@
         <v>346</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>11</v>
@@ -7444,55 +7481,12 @@
         <v>5040</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L168" s="21" t="s">
         <v>354</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A169" s="9">
-        <v>109</v>
-      </c>
-      <c r="B169" s="6">
-        <v>2025</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E169" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I169" s="26">
-        <f>420*12</f>
-        <v>5040</v>
-      </c>
-      <c r="J169" s="8">
-        <f>I169</f>
-        <v>5040</v>
-      </c>
-      <c r="K169" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="L169" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="M169" s="5" t="s">
         <v>327</v>
       </c>
     </row>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1775F8-53B9-4240-8991-3905574BC08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A58A6A-60E5-F641-8582-3302982290B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="356">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1086,6 +1086,24 @@
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_preliminar_Edital_FAPERJ_Nº_17_2024_–_Pós-Doutorado_Nota_10.pdf</t>
+  </si>
+  <si>
+    <t>Edital Nº 23</t>
+  </si>
+  <si>
+    <t>O efeito do biofeedback por posturografia sobre a atividade muscular na postura ortostática em idosos</t>
+  </si>
+  <si>
+    <t>Fabio Vieira dos Anjos</t>
+  </si>
+  <si>
+    <t>Educação e esporte: unindo pilares para a reabilitação de pessoas com deficiência</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_23_2024_–_Bolsa_de_Iniciação_Científica_(IC).pdf</t>
+  </si>
+  <si>
+    <t>E-26/200.180/2025</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1353,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1419,6 +1437,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1837,13 +1858,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A167" sqref="A167"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7342,8 +7363,8 @@
       <c r="D165" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E165" s="22" t="s">
-        <v>346</v>
+      <c r="E165" s="29" t="s">
+        <v>355</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>348</v>
@@ -7355,8 +7376,8 @@
         <v>107</v>
       </c>
       <c r="I165" s="26">
-        <f>SUM(J166:J167)</f>
-        <v>98400</v>
+        <f>SUM(J166:J166)</f>
+        <v>49200</v>
       </c>
       <c r="K165" s="9" t="s">
         <v>254</v>
@@ -7383,16 +7404,90 @@
         <v>49200</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B167" s="6">
-        <v>2026</v>
+        <v>2025</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I167" s="26">
+        <f>420*12</f>
+        <v>5040</v>
       </c>
       <c r="J167" s="8">
-        <f>4100*36/3</f>
-        <v>49200</v>
+        <f>I167</f>
+        <v>5040</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="L167" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="M167" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A168" s="9">
+        <v>109</v>
+      </c>
+      <c r="B168" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I168" s="26">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
+      <c r="J168" s="8">
+        <f>I168</f>
+        <v>5040</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="L168" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A58A6A-60E5-F641-8582-3302982290B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F2DFE5-B122-C544-BC06-2AEAFC3A79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$M$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$M$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="363">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1076,9 +1076,6 @@
     <t>Edital N°17/2024</t>
   </si>
   <si>
-    <t>Em processamento</t>
-  </si>
-  <si>
     <t>Programa Pós-Doutorado Nota10 (PDR10)</t>
   </si>
   <si>
@@ -1104,6 +1101,30 @@
   </si>
   <si>
     <t>E-26/200.180/2025</t>
+  </si>
+  <si>
+    <t>E-26/201.127/2025</t>
+  </si>
+  <si>
+    <t>E-26/201.003/2025</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>McMaster University</t>
+  </si>
+  <si>
+    <t>Assessing pain-related maladaptive functional behaviors in chronic disabling low back pain with cognitive functional therapy approach</t>
+  </si>
+  <si>
+    <t>Michael G. DeGroote Institute for Pain Research and Care (IPRC) 2024 Research Seed Grant Competition</t>
+  </si>
+  <si>
+    <t>https://pain-institute.healthsci.mcmaster.ca/awards/past-recipients-2023-2/</t>
+  </si>
+  <si>
+    <t>IPRC Seed Grant</t>
   </si>
 </sst>
 </file>
@@ -1858,13 +1879,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
+      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1880,7 +1901,7 @@
     <col min="9" max="10" width="14.6640625" style="8" customWidth="1"/>
     <col min="11" max="11" width="49.1640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="62.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="5" customWidth="1"/>
     <col min="14" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -7257,69 +7278,94 @@
         <v>327</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>106</v>
       </c>
       <c r="B161" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E161" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I161" s="26">
+        <f>30000*6</f>
+        <v>180000</v>
+      </c>
+      <c r="J161" s="8">
+        <f>I161</f>
+        <v>180000</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="M161" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A162" s="9">
+        <v>107</v>
+      </c>
+      <c r="B162" s="6">
         <v>2023</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D161" s="7" t="s">
+      <c r="C162" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E162" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F162" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="G162" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H161" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I161" s="26">
-        <f>SUM(J162:J164)</f>
+      <c r="H162" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I162" s="26">
+        <f>SUM(J163:J165)</f>
         <v>108000</v>
       </c>
-      <c r="K161" s="9" t="s">
+      <c r="K162" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="L161" s="5" t="s">
+      <c r="L162" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="M161" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="9">
-        <v>106</v>
-      </c>
-      <c r="B162" s="6">
-        <v>2024</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J162" s="8">
-        <f>3000*36/3</f>
-        <v>36000</v>
+      <c r="M162" s="5" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B163" s="6">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>7</v>
@@ -7334,10 +7380,10 @@
     </row>
     <row r="164" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B164" s="6">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>7</v>
@@ -7350,101 +7396,76 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>107</v>
       </c>
       <c r="B165" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J165" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A166" s="9">
+        <v>108</v>
+      </c>
+      <c r="B166" s="6">
         <v>2024</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" s="7" t="s">
+      <c r="C166" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E165" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="F165" s="7" t="s">
+      <c r="E166" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I166" s="26">
+        <f>SUM(J167:J167)</f>
+        <v>49200</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L166" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G165" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I165" s="26">
-        <f>SUM(J166:J166)</f>
-        <v>49200</v>
-      </c>
-      <c r="K165" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="L165" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="M165" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="9">
-        <v>107</v>
-      </c>
-      <c r="B166" s="6">
+      <c r="M166" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="9">
+        <v>108</v>
+      </c>
+      <c r="B167" s="6">
         <v>2025</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J166" s="8">
+      <c r="C167" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J167" s="8">
         <f>4100*36/3</f>
         <v>49200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A167" s="9">
-        <v>108</v>
-      </c>
-      <c r="B167" s="6">
-        <v>2025</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I167" s="26">
-        <f>420*12</f>
-        <v>5040</v>
-      </c>
-      <c r="J167" s="8">
-        <f>I167</f>
-        <v>5040</v>
-      </c>
-      <c r="K167" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="L167" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="M167" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7458,13 +7479,13 @@
         <v>7</v>
       </c>
       <c r="D168" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F168" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="E168" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>11</v>
@@ -7481,17 +7502,60 @@
         <v>5040</v>
       </c>
       <c r="K168" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="L168" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A169" s="9">
+        <v>110</v>
+      </c>
+      <c r="B169" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I169" s="26">
+        <f>420*12</f>
+        <v>5040</v>
+      </c>
+      <c r="J169" s="8">
+        <f>I169</f>
+        <v>5040</v>
+      </c>
+      <c r="K169" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="L168" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="M168" s="5" t="s">
+      <c r="L169" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="M169" s="5" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M164" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:M165" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">
     <sortCondition ref="B2:B151"/>
     <sortCondition ref="C2:C151"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F2DFE5-B122-C544-BC06-2AEAFC3A79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52285F18-09E3-EE49-96EB-90FAF3F8E1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="367">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1125,6 +1125,18 @@
   </si>
   <si>
     <t>IPRC Seed Grant</t>
+  </si>
+  <si>
+    <t>Edital Nº 18/2024</t>
+  </si>
+  <si>
+    <t>Em processamento</t>
+  </si>
+  <si>
+    <t>http://memoria2.cnpq.br/web/guest/chamadas-publicas?p_p_id=resultadosportlet_WAR_resultadoscnpqportlet_INSTANCE_0ZaM&amp;filtro=abertas&amp;detalha=chamadaDivulgada&amp;idDivulgacao=12605</t>
+  </si>
+  <si>
+    <t>Métodos Computacionais Avançados para Estudo do Equilíbrio Postural na Saúde e Doenças Neuromuscular</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1458,9 +1470,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1879,13 +1888,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
+      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7291,7 +7300,7 @@
       <c r="D161" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E161" s="29" t="s">
+      <c r="E161" s="7" t="s">
         <v>362</v>
       </c>
       <c r="F161" s="7" t="s">
@@ -7552,6 +7561,103 @@
       </c>
       <c r="M169" s="5" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A170" s="9">
+        <v>111</v>
+      </c>
+      <c r="B170" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H170" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I170" s="27">
+        <f>SUM(J171:J173)</f>
+        <v>75600</v>
+      </c>
+      <c r="J170" s="14"/>
+      <c r="K170" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L170" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="M170" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="9">
+        <v>111</v>
+      </c>
+      <c r="B171" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H171" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I171" s="14"/>
+      <c r="J171" s="14">
+        <f>12*(1100+1000)</f>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="9">
+        <v>111</v>
+      </c>
+      <c r="B172" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H172" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I172" s="14"/>
+      <c r="J172" s="14">
+        <f>12*(1100+1000)</f>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" s="9">
+        <v>111</v>
+      </c>
+      <c r="B173" s="6">
+        <v>2027</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H173" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I173" s="14"/>
+      <c r="J173" s="14">
+        <f>12*(1100+1000)</f>
+        <v>25200</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52285F18-09E3-EE49-96EB-90FAF3F8E1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DC4637-4290-F94E-9450-85687BA00FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="680" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
@@ -1133,10 +1133,10 @@
     <t>Em processamento</t>
   </si>
   <si>
-    <t>http://memoria2.cnpq.br/web/guest/chamadas-publicas?p_p_id=resultadosportlet_WAR_resultadoscnpqportlet_INSTANCE_0ZaM&amp;filtro=abertas&amp;detalha=chamadaDivulgada&amp;idDivulgacao=12605</t>
-  </si>
-  <si>
     <t>Métodos Computacionais Avançados para Estudo do Equilíbrio Postural na Saúde e Doenças Neuromuscular</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/cnpq/pt-br/assuntos/noticias/cnpq-em-acao/bolsa-de-produtividade-resultado-final/Chamada182024ResultadoFinalVF.pdf</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1894,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
+      <selection pane="bottomRight" activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7563,7 +7563,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>111</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>364</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G170" s="7" t="s">
         <v>4</v>
@@ -7597,7 +7597,7 @@
         <v>331</v>
       </c>
       <c r="L170" s="21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M170" s="5" t="s">
         <v>327</v>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DC4637-4290-F94E-9450-85687BA00FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF1BB27-86F3-424B-864D-CE22756AE191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="375">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1137,6 +1137,30 @@
   </si>
   <si>
     <t>https://www.gov.br/cnpq/pt-br/assuntos/noticias/cnpq-em-acao/bolsa-de-produtividade-resultado-final/Chamada182024ResultadoFinalVF.pdf</t>
+  </si>
+  <si>
+    <t>Edital nº 07</t>
+  </si>
+  <si>
+    <t>ReabiTEC – Oficina de Tecnologia Assistiva com Reuso e Sustentabilidade</t>
+  </si>
+  <si>
+    <t>Programa PISTA: Conectando Territórios Inovadores</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_07_2025_–_Programa_Pista_Conectando_Territórios_Inovadores.pdf</t>
+  </si>
+  <si>
+    <t>Mãos que curam - Formação em Massoterapia para Mulheres na Comunidade</t>
+  </si>
+  <si>
+    <t>Camila de Oliveira Goulart Villas Boas</t>
+  </si>
+  <si>
+    <t>CriaEdu3D: Inclusão e Equidade Social através de Tecnologias Acessíveis na Educação de Crianças com Transtorno do Espectro Autista</t>
+  </si>
+  <si>
+    <t>ASSIST-TEL ALEMÃO: AÇÕES DE SAÚDE MENTAL E DIGITAL PARA MÃES DO COMPLEXO DO ALEMÃO</t>
   </si>
 </sst>
 </file>
@@ -1888,13 +1912,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A171" sqref="A171"/>
+      <selection pane="bottomRight" activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7660,6 +7684,194 @@
         <v>25200</v>
       </c>
     </row>
+    <row r="174" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A174" s="9">
+        <v>112</v>
+      </c>
+      <c r="B174" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I174" s="27">
+        <f>SUM(J175)</f>
+        <v>0</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="H175" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J175" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A176" s="9">
+        <v>113</v>
+      </c>
+      <c r="B176" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E176" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I176" s="27">
+        <f>SUM(J177)</f>
+        <v>0</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="M176" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="H177" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J177" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A178" s="9">
+        <v>114</v>
+      </c>
+      <c r="B178" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E178" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I178" s="27">
+        <f>SUM(J179)</f>
+        <v>0</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="H179" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J179" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A180" s="9">
+        <v>115</v>
+      </c>
+      <c r="B180" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E180" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I180" s="27">
+        <f>SUM(J181)</f>
+        <v>0</v>
+      </c>
+      <c r="K180" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="M180" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="H181" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J181" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M165" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF1BB27-86F3-424B-864D-CE22756AE191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B73118-8691-8041-9CA2-F26C86AF12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$M$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$M$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="381">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1161,6 +1161,24 @@
   </si>
   <si>
     <t>ASSIST-TEL ALEMÃO: AÇÕES DE SAÚDE MENTAL E DIGITAL PARA MÃES DO COMPLEXO DO ALEMÃO</t>
+  </si>
+  <si>
+    <t>311827/2025-0</t>
+  </si>
+  <si>
+    <t>Edital nº 10</t>
+  </si>
+  <si>
+    <t>MOKAPP: SISTEMA DE CAPTURA DE MOVIMENTO 3D COM IA, SEM MARCADORES, PARA AVALIAÇÃO BIOMECÂNICA AUTOMATIZADA OBJETIVA E ESCALÁVEL EM SAÚDE E ESPORTE</t>
+  </si>
+  <si>
+    <t>Programa Doutor Empreendedor Fase 2: Acelerando Negócios de Base Tecnológica</t>
+  </si>
+  <si>
+    <t>Conrado Torres Laett</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_10_2025_-_Doutor_Empreendedor_Fase_2_Acelerando_Negócios_de_Base_Tecnológica.pdf</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1494,6 +1512,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1912,13 +1933,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A181" sqref="A181"/>
+      <selection pane="bottomRight" activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7600,8 +7621,8 @@
       <c r="D170" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E170" s="22" t="s">
-        <v>364</v>
+      <c r="E170" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>365</v>
@@ -7711,7 +7732,7 @@
       </c>
       <c r="I174" s="27">
         <f>SUM(J175)</f>
-        <v>0</v>
+        <v>88860.79</v>
       </c>
       <c r="K174" s="9" t="s">
         <v>331</v>
@@ -7727,8 +7748,8 @@
       <c r="H175" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J175" s="16">
-        <v>0</v>
+      <c r="J175" s="29">
+        <v>88860.79</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -7872,8 +7893,55 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A182" s="9">
+        <v>116</v>
+      </c>
+      <c r="B182" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E182" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I182" s="27">
+        <f>SUM(J183)</f>
+        <v>0</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="H183" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J183" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M165" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:M183" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">
     <sortCondition ref="B2:B151"/>
     <sortCondition ref="C2:C151"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B73118-8691-8041-9CA2-F26C86AF12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE025B98-9B53-B043-A1B0-9C48767EBBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="384">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1148,9 +1148,6 @@
     <t>Programa PISTA: Conectando Territórios Inovadores</t>
   </si>
   <si>
-    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_07_2025_–_Programa_Pista_Conectando_Territórios_Inovadores.pdf</t>
-  </si>
-  <si>
     <t>Mãos que curam - Formação em Massoterapia para Mulheres na Comunidade</t>
   </si>
   <si>
@@ -1179,6 +1176,18 @@
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_10_2025_-_Doutor_Empreendedor_Fase_2_Acelerando_Negócios_de_Base_Tecnológica.pdf</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Final_Edital_FAPERJ_Nº_07_2025_–_Programa_PISTA_-_Conectando_Territórios_Inovadores.pdf</t>
+  </si>
+  <si>
+    <t>Edital N°08/2025</t>
+  </si>
+  <si>
+    <t>Reabilitação domiciliar em pessoas com sequelas de tuberculose pulmonar acompanhadas na Atenção Primária à Saúde da Zona Norte do Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_08_2025_–_Programa_Cientista_do_Nosso_Estado.pdf</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1437,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1512,9 +1521,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1933,13 +1939,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A183" sqref="A183"/>
+      <selection pane="bottomRight" activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7622,7 +7628,7 @@
         <v>363</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>365</v>
@@ -7738,17 +7744,20 @@
         <v>331</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M174" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="9">
+        <v>112</v>
+      </c>
       <c r="H175" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J175" s="29">
+      <c r="J175" s="8">
         <v>88860.79</v>
       </c>
     </row>
@@ -7769,7 +7778,7 @@
         <v>364</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G176" s="7" t="s">
         <v>369</v>
@@ -7782,16 +7791,19 @@
         <v>0</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M176" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="9">
+        <v>113</v>
+      </c>
       <c r="H177" s="7" t="s">
         <v>0</v>
       </c>
@@ -7816,7 +7828,7 @@
         <v>364</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G178" s="7" t="s">
         <v>369</v>
@@ -7832,13 +7844,16 @@
         <v>340</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M178" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="9">
+        <v>114</v>
+      </c>
       <c r="H179" s="7" t="s">
         <v>0</v>
       </c>
@@ -7863,7 +7878,7 @@
         <v>364</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G180" s="7" t="s">
         <v>369</v>
@@ -7879,13 +7894,16 @@
         <v>341</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M180" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="9">
+        <v>115</v>
+      </c>
       <c r="H181" s="7" t="s">
         <v>0</v>
       </c>
@@ -7904,16 +7922,16 @@
         <v>7</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E182" s="22" t="s">
         <v>364</v>
       </c>
       <c r="F182" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H182" s="7" t="s">
         <v>0</v>
@@ -7923,21 +7941,117 @@
         <v>0</v>
       </c>
       <c r="K182" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="L182" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="L182" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="M182" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="9">
+        <v>116</v>
+      </c>
       <c r="H183" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J183" s="16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A184" s="9">
+        <v>117</v>
+      </c>
+      <c r="B184" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I184" s="26">
+        <f>SUM(J185:J187)</f>
+        <v>108000</v>
+      </c>
+      <c r="K184" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="9">
+        <v>117</v>
+      </c>
+      <c r="B185" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J185" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="9">
+        <v>117</v>
+      </c>
+      <c r="B186" s="6">
+        <v>2027</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J186" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="9">
+        <v>117</v>
+      </c>
+      <c r="B187" s="6">
+        <v>2028</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J187" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11102"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE025B98-9B53-B043-A1B0-9C48767EBBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB1054A-52F7-504C-9A09-B277BAB7146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$M$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$M$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="386">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1188,6 +1188,12 @@
   </si>
   <si>
     <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_08_2025_–_Programa_Cientista_do_Nosso_Estado.pdf</t>
+  </si>
+  <si>
+    <t>88881.219691/2025-01</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/resultados-dos-editais/29102025_Lista_Listagem_2708089_PDSE.pdf</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1277,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1293,6 +1299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,7 +1449,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,6 +1533,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1939,13 +1957,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A187" sqref="A187"/>
+      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7711,7 +7729,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>112</v>
       </c>
@@ -7719,311 +7737,334 @@
         <v>2025</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>367</v>
+        <v>101</v>
       </c>
       <c r="E174" s="22" t="s">
         <v>364</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I174" s="26">
+        <f t="shared" ref="I174" si="4">J174</f>
+        <v>39600</v>
+      </c>
+      <c r="J174" s="8">
+        <f>6*1650*4</f>
+        <v>39600</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L174" s="29"/>
+      <c r="M174" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A175" s="9">
+        <v>113</v>
+      </c>
+      <c r="B175" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E175" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="G175" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H174" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I174" s="27">
-        <f>SUM(J175)</f>
+      <c r="H175" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I175" s="27">
+        <f>SUM(J176)</f>
         <v>88860.79</v>
       </c>
-      <c r="K174" s="9" t="s">
+      <c r="K175" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="L174" s="5" t="s">
+      <c r="L175" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="M174" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="9">
-        <v>112</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J175" s="8">
-        <v>88860.79</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="M175" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>113</v>
       </c>
-      <c r="B176" s="6">
+      <c r="H176" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J176" s="8">
+        <v>88860.79</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A177" s="9">
+        <v>114</v>
+      </c>
+      <c r="B177" s="6">
         <v>2025</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D176" s="7" t="s">
+      <c r="C177" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E176" s="22" t="s">
+      <c r="E177" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F177" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="G177" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H176" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I176" s="27">
-        <f>SUM(J177)</f>
-        <v>0</v>
-      </c>
-      <c r="K176" s="9" t="s">
+      <c r="H177" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I177" s="27">
+        <f>SUM(J178)</f>
+        <v>0</v>
+      </c>
+      <c r="K177" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="L176" s="5" t="s">
+      <c r="L177" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="M176" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="9">
-        <v>113</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J177" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="M177" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>114</v>
       </c>
-      <c r="B178" s="6">
+      <c r="H178" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J178" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A179" s="9">
+        <v>115</v>
+      </c>
+      <c r="B179" s="6">
         <v>2025</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D178" s="7" t="s">
+      <c r="C179" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E178" s="22" t="s">
+      <c r="E179" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="F178" s="7" t="s">
+      <c r="F179" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="G178" s="7" t="s">
+      <c r="G179" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H178" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I178" s="27">
-        <f>SUM(J179)</f>
-        <v>0</v>
-      </c>
-      <c r="K178" s="9" t="s">
+      <c r="H179" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="27">
+        <f>SUM(J180)</f>
+        <v>0</v>
+      </c>
+      <c r="K179" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="L178" s="5" t="s">
+      <c r="L179" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="M178" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="9">
-        <v>114</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J179" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="M179" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>115</v>
       </c>
-      <c r="B180" s="6">
+      <c r="H180" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J180" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A181" s="9">
+        <v>116</v>
+      </c>
+      <c r="B181" s="6">
         <v>2025</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="7" t="s">
+      <c r="C181" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E180" s="22" t="s">
+      <c r="E181" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F181" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G180" s="7" t="s">
+      <c r="G181" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H180" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I180" s="27">
-        <f>SUM(J181)</f>
-        <v>0</v>
-      </c>
-      <c r="K180" s="9" t="s">
+      <c r="H181" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I181" s="27">
+        <f>SUM(J182)</f>
+        <v>0</v>
+      </c>
+      <c r="K181" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="L180" s="5" t="s">
+      <c r="L181" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="M180" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="9">
-        <v>115</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J181" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="M181" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>116</v>
       </c>
-      <c r="B182" s="6">
+      <c r="H182" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J182" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A183" s="9">
+        <v>117</v>
+      </c>
+      <c r="B183" s="6">
         <v>2025</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182" s="7" t="s">
+      <c r="C183" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="E182" s="22" t="s">
+      <c r="E183" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F183" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G182" s="7" t="s">
+      <c r="G183" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H182" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I182" s="27">
-        <f>SUM(J183)</f>
-        <v>0</v>
-      </c>
-      <c r="K182" s="5" t="s">
+      <c r="H183" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I183" s="27">
+        <f>SUM(J184)</f>
+        <v>0</v>
+      </c>
+      <c r="K183" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="L182" s="5" t="s">
+      <c r="L183" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="M182" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="9">
-        <v>116</v>
-      </c>
-      <c r="H183" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J183" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="M183" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>117</v>
       </c>
-      <c r="B184" s="6">
+      <c r="H184" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J184" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A185" s="9">
+        <v>118</v>
+      </c>
+      <c r="B185" s="6">
         <v>2025</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184" s="7" t="s">
+      <c r="C185" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E184" s="22" t="s">
+      <c r="E185" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="F184" s="7" t="s">
+      <c r="F185" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G184" s="7" t="s">
+      <c r="G185" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H184" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I184" s="26">
-        <f>SUM(J185:J187)</f>
+      <c r="H185" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I185" s="26">
+        <f>SUM(J186:J188)</f>
         <v>108000</v>
       </c>
-      <c r="K184" s="9" t="s">
+      <c r="K185" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="L184" s="5" t="s">
+      <c r="L185" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="M184" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="9">
-        <v>117</v>
-      </c>
-      <c r="B185" s="6">
-        <v>2026</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J185" s="8">
-        <f>3000*36/3</f>
-        <v>36000</v>
+      <c r="M185" s="5" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B186" s="6">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>7</v>
@@ -8038,10 +8079,10 @@
     </row>
     <row r="187" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B187" s="6">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>7</v>
@@ -8054,8 +8095,69 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="188" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A188" s="9">
+        <v>118</v>
+      </c>
+      <c r="B188" s="6">
+        <v>2028</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J188" s="8">
+        <f>3000*36/3</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A189" s="9">
+        <v>119</v>
+      </c>
+      <c r="B189" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E189" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I189" s="26">
+        <f t="shared" ref="I189" si="5">J189</f>
+        <v>39600</v>
+      </c>
+      <c r="J189" s="8">
+        <f>6*1650*4</f>
+        <v>39600</v>
+      </c>
+      <c r="K189" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L189" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="M189" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M183" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:M184" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">
     <sortCondition ref="B2:B151"/>
     <sortCondition ref="C2:C151"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB1054A-52F7-504C-9A09-B277BAB7146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE0A22-375A-7042-B95C-B85601961042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$M$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$M$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="390">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1193,7 +1193,19 @@
     <t>88881.219691/2025-01</t>
   </si>
   <si>
-    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/resultados-dos-editais/29102025_Lista_Listagem_2708089_PDSE.pdf</t>
+    <t xml:space="preserve">E-26/290.059/2025 </t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/resultados-dos-editais/17112025_Edital_2722472_SEI_2722300_Edital_EDITAL_N__17_2025___RESULTADO_ANALISE_DOCUMENTAL.pdf</t>
+  </si>
+  <si>
+    <t>E-26/290.087/2025</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/resultados-dos-editais/09072025_Edital_2633439_SEI_2632092_Edital_26_2024___Resultado.pdf</t>
+  </si>
+  <si>
+    <t>8881.126832/2025-1</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1289,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,12 +1311,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1455,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1535,10 +1541,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1957,13 +1966,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
+      <selection pane="bottomRight" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7729,7 +7738,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>112</v>
       </c>
@@ -7742,8 +7751,8 @@
       <c r="D174" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E174" s="22" t="s">
-        <v>364</v>
+      <c r="E174" s="29" t="s">
+        <v>389</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>247</v>
@@ -7765,7 +7774,9 @@
       <c r="K174" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="L174" s="29"/>
+      <c r="L174" s="30" t="s">
+        <v>388</v>
+      </c>
       <c r="M174" s="5" t="s">
         <v>327</v>
       </c>
@@ -7783,8 +7794,8 @@
       <c r="D175" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E175" s="22" t="s">
-        <v>364</v>
+      <c r="E175" s="7" t="s">
+        <v>385</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>368</v>
@@ -7796,8 +7807,8 @@
         <v>0</v>
       </c>
       <c r="I175" s="27">
-        <f>SUM(J176)</f>
-        <v>88860.79</v>
+        <f>SUM(J176:J177)</f>
+        <v>86932</v>
       </c>
       <c r="K175" s="9" t="s">
         <v>331</v>
@@ -7813,66 +7824,79 @@
       <c r="A176" s="9">
         <v>113</v>
       </c>
+      <c r="B176" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="H176" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J176" s="8">
-        <v>88860.79</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>43466</v>
+      </c>
+      <c r="K176" s="9"/>
+    </row>
+    <row r="177" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B177" s="6">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D177" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E177" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="H177" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I177" s="27">
-        <f>SUM(J178)</f>
-        <v>0</v>
-      </c>
-      <c r="K177" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="L177" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="M177" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="J177" s="8">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>114</v>
       </c>
+      <c r="B178" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E178" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="H178" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J178" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="I178" s="27">
+        <f>SUM(J179:J180)</f>
+        <v>0</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B179" s="6">
         <v>2025</v>
@@ -7880,41 +7904,22 @@
       <c r="C179" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D179" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E179" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="H179" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I179" s="27">
-        <f>SUM(J180)</f>
-        <v>0</v>
-      </c>
-      <c r="K179" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="L179" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="M179" s="5" t="s">
-        <v>327</v>
+      <c r="J179" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
-        <v>115</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="B180" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="J180" s="16">
         <v>0</v>
@@ -7922,7 +7927,7 @@
     </row>
     <row r="181" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B181" s="6">
         <v>2025</v>
@@ -7933,11 +7938,11 @@
       <c r="D181" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E181" s="22" t="s">
-        <v>364</v>
+      <c r="E181" s="29" t="s">
+        <v>387</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>369</v>
@@ -7946,11 +7951,11 @@
         <v>0</v>
       </c>
       <c r="I181" s="27">
-        <f>SUM(J182)</f>
-        <v>0</v>
+        <f>SUM(J182:J183)</f>
+        <v>157276</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L181" s="5" t="s">
         <v>380</v>
@@ -7961,68 +7966,77 @@
     </row>
     <row r="182" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
+        <v>115</v>
+      </c>
+      <c r="B182" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J182" s="31">
+        <v>78638</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="9">
+        <v>115</v>
+      </c>
+      <c r="B183" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J183" s="31">
+        <v>78638</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A184" s="9">
         <v>116</v>
       </c>
-      <c r="H182" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J182" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A183" s="9">
-        <v>117</v>
-      </c>
-      <c r="B183" s="6">
+      <c r="B184" s="6">
         <v>2025</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E183" s="22" t="s">
+      <c r="C184" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E184" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="F183" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H183" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I183" s="27">
-        <f>SUM(J184)</f>
-        <v>0</v>
-      </c>
-      <c r="K183" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="L183" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="M183" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="9">
-        <v>117</v>
+      <c r="F184" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="H184" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J184" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="I184" s="27">
+        <f>SUM(J185:J186)</f>
+        <v>0</v>
+      </c>
+      <c r="K184" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B185" s="6">
         <v>2025</v>
@@ -8030,38 +8044,16 @@
       <c r="C185" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D185" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E185" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="H185" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I185" s="26">
-        <f>SUM(J186:J188)</f>
-        <v>108000</v>
-      </c>
-      <c r="K185" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="L185" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="M185" s="5" t="s">
-        <v>327</v>
+      <c r="J185" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B186" s="6">
         <v>2026</v>
@@ -8069,95 +8061,218 @@
       <c r="C186" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H186" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J186" s="8">
+      <c r="J186" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A187" s="9">
+        <v>117</v>
+      </c>
+      <c r="B187" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E187" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I187" s="27">
+        <f>SUM(J188:J189)</f>
+        <v>0</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="M187" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A188" s="9">
+        <v>117</v>
+      </c>
+      <c r="B188" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J188" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="9">
+        <v>117</v>
+      </c>
+      <c r="B189" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J189" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A190" s="9">
+        <v>118</v>
+      </c>
+      <c r="B190" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E190" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I190" s="26">
+        <f>SUM(J191:J193)</f>
+        <v>108000</v>
+      </c>
+      <c r="K190" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="M190" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="9">
+        <v>118</v>
+      </c>
+      <c r="B191" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J191" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="9">
+    <row r="192" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="9">
         <v>118</v>
       </c>
-      <c r="B187" s="6">
+      <c r="B192" s="6">
         <v>2027</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H187" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J187" s="8">
+      <c r="C192" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J192" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="9">
+    <row r="193" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="9">
         <v>118</v>
       </c>
-      <c r="B188" s="6">
+      <c r="B193" s="6">
         <v>2028</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H188" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J188" s="8">
+      <c r="C193" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J193" s="8">
         <f>3000*36/3</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A189" s="9">
+    <row r="194" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A194" s="9">
         <v>119</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B194" s="6">
         <v>2026</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C194" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D194" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E189" s="30" t="s">
+      <c r="E194" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="F189" s="7" t="s">
+      <c r="F194" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G189" s="7" t="s">
+      <c r="G194" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H189" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I189" s="26">
-        <f t="shared" ref="I189" si="5">J189</f>
+      <c r="H194" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I194" s="26">
+        <f t="shared" ref="I194" si="5">J194</f>
         <v>39600</v>
       </c>
-      <c r="J189" s="8">
+      <c r="J194" s="8">
         <f>6*1650*4</f>
         <v>39600</v>
       </c>
-      <c r="K189" s="9" t="s">
+      <c r="K194" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="L189" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="M189" s="5" t="s">
+      <c r="L194" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="M194" s="5" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M184" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:M187" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L151">
     <sortCondition ref="B2:B151"/>
     <sortCondition ref="C2:C151"/>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11130"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE0A22-375A-7042-B95C-B85601961042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E0622-C9C8-E140-A300-4E5FA5AA9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="392">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1206,6 +1206,12 @@
   </si>
   <si>
     <t>8881.126832/2025-1</t>
+  </si>
+  <si>
+    <t>E-26/290.092/2025</t>
+  </si>
+  <si>
+    <t>E-26/200.179/2025</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1461,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1539,15 +1545,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1966,13 +1963,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A174" sqref="A174"/>
+      <selection pane="bottomRight" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7751,7 +7748,7 @@
       <c r="D174" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E174" s="29" t="s">
+      <c r="E174" s="7" t="s">
         <v>389</v>
       </c>
       <c r="F174" s="7" t="s">
@@ -7774,7 +7771,7 @@
       <c r="K174" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="L174" s="30" t="s">
+      <c r="L174" s="5" t="s">
         <v>388</v>
       </c>
       <c r="M174" s="5" t="s">
@@ -7938,7 +7935,7 @@
       <c r="D181" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E181" s="29" t="s">
+      <c r="E181" s="7" t="s">
         <v>387</v>
       </c>
       <c r="F181" s="7" t="s">
@@ -7977,7 +7974,7 @@
       <c r="H182" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J182" s="31">
+      <c r="J182" s="8">
         <v>78638</v>
       </c>
     </row>
@@ -7991,7 +7988,7 @@
       <c r="C183" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J183" s="31">
+      <c r="J183" s="8">
         <v>78638</v>
       </c>
     </row>
@@ -8008,8 +8005,8 @@
       <c r="D184" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E184" s="22" t="s">
-        <v>364</v>
+      <c r="E184" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>373</v>
@@ -8022,7 +8019,7 @@
       </c>
       <c r="I184" s="27">
         <f>SUM(J185:J186)</f>
-        <v>0</v>
+        <v>23240</v>
       </c>
       <c r="K184" s="9" t="s">
         <v>341</v>
@@ -8047,8 +8044,8 @@
       <c r="H185" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J185" s="16">
-        <v>0</v>
+      <c r="J185" s="8">
+        <v>11620</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -8061,8 +8058,8 @@
       <c r="C186" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J186" s="16">
-        <v>0</v>
+      <c r="J186" s="8">
+        <v>11620</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -8241,7 +8238,7 @@
       <c r="D194" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E194" s="29" t="s">
+      <c r="E194" s="7" t="s">
         <v>384</v>
       </c>
       <c r="F194" s="7" t="s">
@@ -8264,11 +8261,65 @@
       <c r="K194" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="L194" s="30" t="s">
+      <c r="L194" s="5" t="s">
         <v>386</v>
       </c>
       <c r="M194" s="5" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A195" s="9">
+        <v>120</v>
+      </c>
+      <c r="B195" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I195" s="26">
+        <f>SUM(J196:J196)</f>
+        <v>49200</v>
+      </c>
+      <c r="K195" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L195" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="M195" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="9">
+        <v>120</v>
+      </c>
+      <c r="B196" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J196" s="8">
+        <f>4100*36/3</f>
+        <v>49200</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E0622-C9C8-E140-A300-4E5FA5AA9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986E69E-72FE-214A-A67A-9E05DBB97774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="393">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1212,6 +1212,9 @@
   </si>
   <si>
     <t>E-26/200.179/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-26/290.084/2025 </t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1464,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1545,6 +1548,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7865,8 +7874,8 @@
       <c r="D178" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E178" s="22" t="s">
-        <v>364</v>
+      <c r="E178" s="29" t="s">
+        <v>392</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>370</v>
@@ -7879,7 +7888,7 @@
       </c>
       <c r="I178" s="27">
         <f>SUM(J179:J180)</f>
-        <v>0</v>
+        <v>156046</v>
       </c>
       <c r="K178" s="9" t="s">
         <v>371</v>
@@ -7904,8 +7913,8 @@
       <c r="H179" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J179" s="16">
-        <v>0</v>
+      <c r="J179" s="30">
+        <v>78023</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -7918,8 +7927,8 @@
       <c r="C180" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J180" s="16">
-        <v>0</v>
+      <c r="J180" s="30">
+        <v>78023</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="51" x14ac:dyDescent="0.2">

--- a/PPG/Financiadores.xlsx
+++ b/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10201"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986E69E-72FE-214A-A67A-9E05DBB97774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0DF11D-D278-8E4C-BA59-9D3C1D24F230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="394">
   <si>
     <t>CAPEX</t>
   </si>
@@ -1215,6 +1215,9 @@
   </si>
   <si>
     <t xml:space="preserve">E-26/290.084/2025 </t>
+  </si>
+  <si>
+    <t>E-26/200.037/2026</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1467,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1551,9 +1554,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1975,7 +1975,7 @@
   <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A196" sqref="A196"/>
@@ -7874,7 +7874,7 @@
       <c r="D178" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E178" s="29" t="s">
+      <c r="E178" s="7" t="s">
         <v>392</v>
       </c>
       <c r="F178" s="7" t="s">
@@ -7913,7 +7913,7 @@
       <c r="H179" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J179" s="30">
+      <c r="J179" s="8">
         <v>78023</v>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       <c r="C180" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J180" s="30">
+      <c r="J180" s="8">
         <v>78023</v>
       </c>
     </row>
@@ -8154,8 +8154,8 @@
       <c r="D190" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E190" s="22" t="s">
-        <v>364</v>
+      <c r="E190" s="29" t="s">
+        <v>393</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>382</v>
